--- a/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_detach_on_depletion_or_end_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_detach_on_depletion_or_end_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="17771" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Note</t>
     </r>
     <r>
@@ -82,6 +91,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">t_attached_until_depletion_s = (E_mission_kwh_per_abu * n_abus) / </t>
     </r>
     <r>
@@ -110,6 +126,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>E_saved_kwh = min(</t>
     </r>
     <r>
@@ -135,6 +158,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>extra_time_s = E_saved_kwh /</t>
     </r>
     <r>
@@ -1087,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1269,12 +1299,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1290,13 +1314,7 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1308,25 +1326,7 @@
     <xf numFmtId="179" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1338,31 +1338,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1374,22 +1356,7 @@
     <xf numFmtId="179" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1455,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -1518,7 +1485,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.215322842422364"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -2338,7 +2305,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -2348,8 +2315,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806524"/>
+              <c:y val="0.31454149230211"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2642,7 +2609,15 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="vi-VN" altLang="en-US" sz="1800"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr sz="1800"/>
+              <a:t>vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -2672,7 +2647,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.209037366636907"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -3165,7 +3140,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -3175,8 +3150,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.0110308081095282"/>
+              <c:y val="0.319685258993619"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3401,7 +3376,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -3431,8 +3406,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0332363723617521"/>
+          <c:x val="0.21886505450954"/>
+          <c:y val="0.030575618481486"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3924,7 +3899,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -3934,8 +3909,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.326618813397162"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4160,7 +4135,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -4190,7 +4165,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.22476166723312"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -4683,7 +4658,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -4693,8 +4668,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.31077810212552"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4919,7 +4894,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -4949,7 +4924,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.222796129658593"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -5442,7 +5417,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -5452,8 +5427,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.308542711753549"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5678,7 +5653,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -5708,7 +5683,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.222796129658593"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -6201,7 +6176,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -6211,8 +6186,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.317785432871531"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6437,7 +6412,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -6467,8 +6442,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.222796129658593"/>
+          <c:y val="0.0381015522980791"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6960,7 +6935,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -6970,8 +6945,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.322528856761139"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7196,7 +7171,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -7226,7 +7201,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.217262455792765"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -8046,7 +8021,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -8056,8 +8031,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.0109750772867273"/>
+              <c:y val="0.317893237959931"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8348,7 +8323,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -8378,8 +8353,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.219202069163167"/>
+          <c:y val="0.0318749022358125"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9198,7 +9173,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -9208,8 +9183,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00820374446899074"/>
+              <c:y val="0.328350331534748"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9500,7 +9475,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -9530,7 +9505,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.209037366636907"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -10023,7 +9998,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -10033,8 +10008,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.0110308081095282"/>
+              <c:y val="0.328794539983297"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -10215,7 +10190,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -10245,7 +10220,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
+          <c:x val="0.21886505450954"/>
           <c:y val="0.0349882272669458"/>
         </c:manualLayout>
       </c:layout>
@@ -10738,7 +10713,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -10748,8 +10723,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.0110308081095282"/>
+              <c:y val="0.312880771088271"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -10930,7 +10905,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -10960,8 +10935,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.21296844178596"/>
+          <c:y val="0.0318749022358125"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11539,7 +11514,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -11549,8 +11524,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.316599576899129"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -11731,7 +11706,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -11761,8 +11736,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.216899516935013"/>
+          <c:y val="0.0381015522980791"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12254,7 +12229,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -12264,8 +12239,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.0110308081095282"/>
+              <c:y val="0.324900568705943"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -12446,7 +12421,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -12476,8 +12451,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.21886505450954"/>
+          <c:y val="0.0380976800032642"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12969,7 +12944,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -12979,8 +12954,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00962163567806526"/>
+              <c:y val="0.320247183923817"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -13161,7 +13136,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1800"/>
-              <a:t>Extended Flight Range vs. ABU Mission Energy</a:t>
+              <a:t>Distance Powered By ABU vs. ABU Mission Energy</a:t>
             </a:r>
             <a:endParaRPr sz="1800"/>
           </a:p>
@@ -13191,8 +13166,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.244417042978386"/>
-          <c:y val="0.0349882272669458"/>
+          <c:x val="0.21886505450954"/>
+          <c:y val="0.0318787745306274"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -13684,7 +13659,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr sz="1400"/>
-                  <a:t>Extended Range (miles)</a:t>
+                  <a:t>Distance Powered By ABU (miles)</a:t>
                 </a:r>
                 <a:endParaRPr sz="1400"/>
               </a:p>
@@ -13694,8 +13669,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00962163567806527"/>
-              <c:y val="0.361446493673601"/>
+              <c:x val="0.00821246324660229"/>
+              <c:y val="0.313128978574378"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -22731,8 +22706,8 @@
   <sheetPr/>
   <dimension ref="A1:AR89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AA39" workbookViewId="0">
-      <selection activeCell="AM41" sqref="AM41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -22769,7 +22744,6 @@
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="N2" s="57"/>
       <c r="O2" s="57"/>
     </row>
@@ -22789,7 +22763,6 @@
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
@@ -22798,9 +22771,9 @@
       </c>
       <c r="I3" s="58"/>
       <c r="J3" s="10"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:10">
       <c r="A4" s="11" t="s">
@@ -22819,7 +22792,6 @@
       <c r="E4" s="14">
         <v>0.05</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
@@ -23009,7 +22981,7 @@
       <c r="M14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="27" t="s">
         <v>38</v>
       </c>
       <c r="O14" s="27" t="s">
@@ -23051,7 +23023,7 @@
       <c r="AA14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AB14" s="84" t="s">
+      <c r="AB14" s="35" t="s">
         <v>38</v>
       </c>
       <c r="AC14" s="35" t="s">
@@ -23060,7 +23032,7 @@
       <c r="AD14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AE14" s="85" t="s">
+      <c r="AE14" s="74" t="s">
         <v>27</v>
       </c>
       <c r="AF14" s="35" t="s">
@@ -23093,7 +23065,7 @@
       <c r="AO14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AP14" s="84" t="s">
+      <c r="AP14" s="35" t="s">
         <v>38</v>
       </c>
       <c r="AQ14" s="35" t="s">
@@ -23146,13 +23118,13 @@
       <c r="N15" s="31">
         <v>133.315807</v>
       </c>
-      <c r="O15" s="62">
+      <c r="O15" s="31">
         <v>2.779234</v>
       </c>
-      <c r="P15" s="63">
+      <c r="P15" s="61">
         <v>5.558468</v>
       </c>
-      <c r="Q15" s="64">
+      <c r="Q15" s="62">
         <v>36.57979</v>
       </c>
       <c r="R15" s="33">
@@ -23188,16 +23160,16 @@
       <c r="AB15" s="33">
         <v>133.315807</v>
       </c>
-      <c r="AC15" s="64">
+      <c r="AC15" s="62">
         <v>2.779234</v>
       </c>
-      <c r="AD15" s="79">
+      <c r="AD15" s="62">
         <v>5.558468</v>
       </c>
       <c r="AE15" s="32">
         <v>36.57979</v>
       </c>
-      <c r="AF15" s="64">
+      <c r="AF15" s="62">
         <v>53.785563</v>
       </c>
       <c r="AG15" s="33">
@@ -23209,31 +23181,31 @@
       <c r="AI15" s="33">
         <v>94.685344</v>
       </c>
-      <c r="AJ15" s="64">
+      <c r="AJ15" s="62">
         <v>5</v>
       </c>
-      <c r="AK15" s="64">
+      <c r="AK15" s="62">
         <v>5</v>
       </c>
-      <c r="AL15" s="64">
+      <c r="AL15" s="62">
         <v>4.938597</v>
       </c>
-      <c r="AM15" s="64">
+      <c r="AM15" s="62">
         <v>66.657903</v>
       </c>
-      <c r="AN15" s="64">
+      <c r="AN15" s="62">
         <v>66.657903</v>
       </c>
-      <c r="AO15" s="64">
+      <c r="AO15" s="62">
         <v>66.657903</v>
       </c>
-      <c r="AP15" s="91">
+      <c r="AP15" s="62">
         <v>133.315807</v>
       </c>
-      <c r="AQ15" s="64">
+      <c r="AQ15" s="62">
         <v>2.779234</v>
       </c>
-      <c r="AR15" s="65">
+      <c r="AR15" s="63">
         <v>5.558468</v>
       </c>
     </row>
@@ -23276,13 +23248,13 @@
       <c r="N16" s="33">
         <v>264.300406</v>
       </c>
-      <c r="O16" s="64">
+      <c r="O16" s="62">
         <v>5.50987</v>
       </c>
-      <c r="P16" s="65">
+      <c r="P16" s="63">
         <v>11.01974</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="62">
         <v>67.062948</v>
       </c>
       <c r="R16" s="33">
@@ -23316,16 +23288,16 @@
       <c r="AB16" s="33">
         <v>264.300406</v>
       </c>
-      <c r="AC16" s="64">
+      <c r="AC16" s="62">
         <v>5.50987</v>
       </c>
-      <c r="AD16" s="79">
+      <c r="AD16" s="62">
         <v>11.01974</v>
       </c>
       <c r="AE16" s="32">
         <v>67.062948</v>
       </c>
-      <c r="AF16" s="64">
+      <c r="AF16" s="62">
         <v>91.995801</v>
       </c>
       <c r="AG16" s="33">
@@ -23335,31 +23307,31 @@
         <v>266.719278</v>
       </c>
       <c r="AI16" s="33"/>
-      <c r="AJ16" s="64">
+      <c r="AJ16" s="62">
         <v>10</v>
       </c>
-      <c r="AK16" s="64">
+      <c r="AK16" s="62">
         <v>10</v>
       </c>
-      <c r="AL16" s="64">
+      <c r="AL16" s="62">
         <v>9.790835</v>
       </c>
-      <c r="AM16" s="64">
+      <c r="AM16" s="62">
         <v>132.150203</v>
       </c>
-      <c r="AN16" s="64">
+      <c r="AN16" s="62">
         <v>132.150203</v>
       </c>
-      <c r="AO16" s="64">
+      <c r="AO16" s="62">
         <v>132.150203</v>
       </c>
-      <c r="AP16" s="91">
+      <c r="AP16" s="62">
         <v>264.300406</v>
       </c>
-      <c r="AQ16" s="64">
+      <c r="AQ16" s="62">
         <v>5.50987</v>
       </c>
-      <c r="AR16" s="65">
+      <c r="AR16" s="63">
         <v>11.01974</v>
       </c>
     </row>
@@ -23402,13 +23374,13 @@
       <c r="N17" s="33">
         <v>392.98646</v>
       </c>
-      <c r="O17" s="64">
+      <c r="O17" s="62">
         <v>8.192588</v>
       </c>
-      <c r="P17" s="65">
+      <c r="P17" s="63">
         <v>16.385175</v>
       </c>
-      <c r="Q17" s="64">
+      <c r="Q17" s="62">
         <v>97.546106</v>
       </c>
       <c r="R17" s="33">
@@ -23442,16 +23414,16 @@
       <c r="AB17" s="33">
         <v>392.98646</v>
       </c>
-      <c r="AC17" s="64">
+      <c r="AC17" s="62">
         <v>8.192588</v>
       </c>
-      <c r="AD17" s="79">
+      <c r="AD17" s="62">
         <v>16.385175</v>
       </c>
       <c r="AE17" s="32">
         <v>97.546106</v>
       </c>
-      <c r="AF17" s="64">
+      <c r="AF17" s="62">
         <v>130.175022</v>
       </c>
       <c r="AG17" s="33">
@@ -23461,31 +23433,31 @@
         <v>266.719278</v>
       </c>
       <c r="AI17" s="33"/>
-      <c r="AJ17" s="64">
+      <c r="AJ17" s="62">
         <v>15</v>
       </c>
-      <c r="AK17" s="64">
+      <c r="AK17" s="62">
         <v>15</v>
       </c>
-      <c r="AL17" s="64">
+      <c r="AL17" s="62">
         <v>14.557926</v>
       </c>
-      <c r="AM17" s="64">
+      <c r="AM17" s="62">
         <v>196.49323</v>
       </c>
-      <c r="AN17" s="64">
+      <c r="AN17" s="62">
         <v>196.49323</v>
       </c>
-      <c r="AO17" s="64">
+      <c r="AO17" s="62">
         <v>196.49323</v>
       </c>
-      <c r="AP17" s="91">
+      <c r="AP17" s="62">
         <v>392.98646</v>
       </c>
-      <c r="AQ17" s="64">
+      <c r="AQ17" s="62">
         <v>8.192588</v>
       </c>
-      <c r="AR17" s="65">
+      <c r="AR17" s="63">
         <v>16.385175</v>
       </c>
     </row>
@@ -23528,13 +23500,13 @@
       <c r="N18" s="33">
         <v>519.402901</v>
       </c>
-      <c r="O18" s="64">
+      <c r="O18" s="62">
         <v>10.827991</v>
       </c>
-      <c r="P18" s="65">
+      <c r="P18" s="63">
         <v>21.655981</v>
       </c>
-      <c r="Q18" s="64">
+      <c r="Q18" s="62">
         <v>128.029264</v>
       </c>
       <c r="R18" s="33">
@@ -23568,16 +23540,16 @@
       <c r="AB18" s="33">
         <v>519.402901</v>
       </c>
-      <c r="AC18" s="64">
+      <c r="AC18" s="62">
         <v>10.827991</v>
       </c>
-      <c r="AD18" s="79">
+      <c r="AD18" s="62">
         <v>21.655981</v>
       </c>
       <c r="AE18" s="32">
         <v>128.029264</v>
       </c>
-      <c r="AF18" s="64">
+      <c r="AF18" s="62">
         <v>168.35399</v>
       </c>
       <c r="AG18" s="33">
@@ -23587,31 +23559,31 @@
         <v>266.719278</v>
       </c>
       <c r="AI18" s="33"/>
-      <c r="AJ18" s="64">
+      <c r="AJ18" s="62">
         <v>20</v>
       </c>
-      <c r="AK18" s="64">
+      <c r="AK18" s="62">
         <v>20</v>
       </c>
-      <c r="AL18" s="64">
+      <c r="AL18" s="62">
         <v>19.24094</v>
       </c>
-      <c r="AM18" s="64">
+      <c r="AM18" s="62">
         <v>259.701451</v>
       </c>
-      <c r="AN18" s="64">
+      <c r="AN18" s="62">
         <v>259.701451</v>
       </c>
-      <c r="AO18" s="64">
+      <c r="AO18" s="62">
         <v>259.701451</v>
       </c>
-      <c r="AP18" s="91">
+      <c r="AP18" s="62">
         <v>519.402901</v>
       </c>
-      <c r="AQ18" s="64">
+      <c r="AQ18" s="62">
         <v>10.827991</v>
       </c>
-      <c r="AR18" s="65">
+      <c r="AR18" s="63">
         <v>21.655981</v>
       </c>
     </row>
@@ -23654,13 +23626,13 @@
       <c r="N19" s="33">
         <v>643.579609</v>
       </c>
-      <c r="O19" s="64">
+      <c r="O19" s="62">
         <v>13.416702</v>
       </c>
-      <c r="P19" s="65">
+      <c r="P19" s="63">
         <v>26.833404</v>
       </c>
-      <c r="Q19" s="64">
+      <c r="Q19" s="62">
         <v>158.512422</v>
       </c>
       <c r="R19" s="33">
@@ -23694,16 +23666,16 @@
       <c r="AB19" s="33">
         <v>643.579609</v>
       </c>
-      <c r="AC19" s="64">
+      <c r="AC19" s="62">
         <v>13.416702</v>
       </c>
-      <c r="AD19" s="79">
+      <c r="AD19" s="62">
         <v>26.833404</v>
       </c>
       <c r="AE19" s="32">
         <v>158.512422</v>
       </c>
-      <c r="AF19" s="64">
+      <c r="AF19" s="62">
         <v>206.532766</v>
       </c>
       <c r="AG19" s="33">
@@ -23713,31 +23685,31 @@
         <v>266.719278</v>
       </c>
       <c r="AI19" s="33"/>
-      <c r="AJ19" s="64">
+      <c r="AJ19" s="62">
         <v>25</v>
       </c>
-      <c r="AK19" s="64">
+      <c r="AK19" s="62">
         <v>25</v>
       </c>
-      <c r="AL19" s="64">
+      <c r="AL19" s="62">
         <v>23.840984</v>
       </c>
-      <c r="AM19" s="64">
+      <c r="AM19" s="62">
         <v>321.789804</v>
       </c>
-      <c r="AN19" s="64">
+      <c r="AN19" s="62">
         <v>321.789804</v>
       </c>
-      <c r="AO19" s="64">
+      <c r="AO19" s="62">
         <v>321.789804</v>
       </c>
-      <c r="AP19" s="91">
+      <c r="AP19" s="62">
         <v>643.579609</v>
       </c>
-      <c r="AQ19" s="64">
+      <c r="AQ19" s="62">
         <v>13.416702</v>
       </c>
-      <c r="AR19" s="65">
+      <c r="AR19" s="63">
         <v>26.833404</v>
       </c>
     </row>
@@ -23780,13 +23752,13 @@
       <c r="N20" s="33">
         <v>765.546457</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="62">
         <v>15.959345</v>
       </c>
-      <c r="P20" s="65">
+      <c r="P20" s="63">
         <v>31.918689</v>
       </c>
-      <c r="Q20" s="64">
+      <c r="Q20" s="62">
         <v>188.99558</v>
       </c>
       <c r="R20" s="33">
@@ -23820,16 +23792,16 @@
       <c r="AB20" s="33">
         <v>765.546457</v>
       </c>
-      <c r="AC20" s="64">
+      <c r="AC20" s="62">
         <v>15.959345</v>
       </c>
-      <c r="AD20" s="79">
+      <c r="AD20" s="62">
         <v>31.918689</v>
       </c>
       <c r="AE20" s="32">
         <v>188.99558</v>
       </c>
-      <c r="AF20" s="64">
+      <c r="AF20" s="62">
         <v>244.711354</v>
       </c>
       <c r="AG20" s="33">
@@ -23839,31 +23811,31 @@
         <v>266.719278</v>
       </c>
       <c r="AI20" s="33"/>
-      <c r="AJ20" s="64">
+      <c r="AJ20" s="62">
         <v>30</v>
       </c>
-      <c r="AK20" s="64">
+      <c r="AK20" s="62">
         <v>30</v>
       </c>
-      <c r="AL20" s="64">
+      <c r="AL20" s="62">
         <v>28.359166</v>
       </c>
-      <c r="AM20" s="64">
+      <c r="AM20" s="62">
         <v>382.773229</v>
       </c>
-      <c r="AN20" s="64">
+      <c r="AN20" s="62">
         <v>382.773229</v>
       </c>
-      <c r="AO20" s="64">
+      <c r="AO20" s="62">
         <v>382.773229</v>
       </c>
-      <c r="AP20" s="91">
+      <c r="AP20" s="62">
         <v>765.546457</v>
       </c>
-      <c r="AQ20" s="64">
+      <c r="AQ20" s="62">
         <v>15.959345</v>
       </c>
-      <c r="AR20" s="65">
+      <c r="AR20" s="63">
         <v>31.918689</v>
       </c>
     </row>
@@ -23906,13 +23878,13 @@
       <c r="N21" s="33">
         <v>885.333291</v>
       </c>
-      <c r="O21" s="64">
+      <c r="O21" s="62">
         <v>18.456541</v>
       </c>
-      <c r="P21" s="65">
+      <c r="P21" s="63">
         <v>36.913081</v>
       </c>
-      <c r="Q21" s="64">
+      <c r="Q21" s="62">
         <v>219.478738</v>
       </c>
       <c r="R21" s="33">
@@ -23946,16 +23918,16 @@
       <c r="AB21" s="33">
         <v>885.333291</v>
       </c>
-      <c r="AC21" s="64">
+      <c r="AC21" s="62">
         <v>18.456541</v>
       </c>
-      <c r="AD21" s="79">
+      <c r="AD21" s="62">
         <v>36.913081</v>
       </c>
       <c r="AE21" s="32">
         <v>219.478738</v>
       </c>
-      <c r="AF21" s="64">
+      <c r="AF21" s="62">
         <v>282.889757</v>
       </c>
       <c r="AG21" s="33">
@@ -23965,31 +23937,31 @@
         <v>266.719278</v>
       </c>
       <c r="AI21" s="33"/>
-      <c r="AJ21" s="64">
+      <c r="AJ21" s="62">
         <v>35</v>
       </c>
-      <c r="AK21" s="64">
+      <c r="AK21" s="62">
         <v>35</v>
       </c>
-      <c r="AL21" s="64">
+      <c r="AL21" s="62">
         <v>32.796591</v>
       </c>
-      <c r="AM21" s="64">
+      <c r="AM21" s="62">
         <v>442.666645</v>
       </c>
-      <c r="AN21" s="64">
+      <c r="AN21" s="62">
         <v>442.666645</v>
       </c>
-      <c r="AO21" s="64">
+      <c r="AO21" s="62">
         <v>442.666645</v>
       </c>
-      <c r="AP21" s="91">
+      <c r="AP21" s="62">
         <v>885.333291</v>
       </c>
-      <c r="AQ21" s="64">
+      <c r="AQ21" s="62">
         <v>18.456541</v>
       </c>
-      <c r="AR21" s="65">
+      <c r="AR21" s="63">
         <v>36.913081</v>
       </c>
     </row>
@@ -24032,13 +24004,13 @@
       <c r="N22" s="33">
         <v>1002.969902</v>
       </c>
-      <c r="O22" s="64">
+      <c r="O22" s="62">
         <v>20.908911</v>
       </c>
-      <c r="P22" s="65">
+      <c r="P22" s="63">
         <v>41.817821</v>
       </c>
-      <c r="Q22" s="64">
+      <c r="Q22" s="62">
         <v>249.961896</v>
       </c>
       <c r="R22" s="33">
@@ -24072,16 +24044,16 @@
       <c r="AB22" s="33">
         <v>1002.969902</v>
       </c>
-      <c r="AC22" s="64">
+      <c r="AC22" s="62">
         <v>20.908911</v>
       </c>
-      <c r="AD22" s="79">
+      <c r="AD22" s="62">
         <v>41.817821</v>
       </c>
       <c r="AE22" s="32">
         <v>249.961896</v>
       </c>
-      <c r="AF22" s="64">
+      <c r="AF22" s="62">
         <v>321.067976</v>
       </c>
       <c r="AG22" s="33">
@@ -24091,31 +24063,31 @@
         <v>266.719278</v>
       </c>
       <c r="AI22" s="33"/>
-      <c r="AJ22" s="64">
+      <c r="AJ22" s="62">
         <v>40</v>
       </c>
-      <c r="AK22" s="64">
+      <c r="AK22" s="62">
         <v>40</v>
       </c>
-      <c r="AL22" s="64">
+      <c r="AL22" s="62">
         <v>37.154362</v>
       </c>
-      <c r="AM22" s="64">
+      <c r="AM22" s="62">
         <v>501.484951</v>
       </c>
-      <c r="AN22" s="64">
+      <c r="AN22" s="62">
         <v>501.484951</v>
       </c>
-      <c r="AO22" s="64">
+      <c r="AO22" s="62">
         <v>501.484951</v>
       </c>
-      <c r="AP22" s="91">
+      <c r="AP22" s="62">
         <v>1002.969902</v>
       </c>
-      <c r="AQ22" s="64">
+      <c r="AQ22" s="62">
         <v>20.908911</v>
       </c>
-      <c r="AR22" s="65">
+      <c r="AR22" s="63">
         <v>41.817821</v>
       </c>
     </row>
@@ -24146,25 +24118,25 @@
       <c r="J23" s="33">
         <v>41.341488</v>
       </c>
-      <c r="K23" s="66">
+      <c r="K23" s="64">
         <v>559.243006</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="64">
         <v>558</v>
       </c>
-      <c r="M23" s="66">
+      <c r="M23" s="64">
         <v>558</v>
       </c>
       <c r="N23" s="33">
         <v>1116</v>
       </c>
-      <c r="O23" s="64">
+      <c r="O23" s="62">
         <v>23.265249</v>
       </c>
-      <c r="P23" s="65">
+      <c r="P23" s="63">
         <v>46.530497</v>
       </c>
-      <c r="Q23" s="64">
+      <c r="Q23" s="62">
         <v>280.445054</v>
       </c>
       <c r="R23" s="33">
@@ -24198,16 +24170,16 @@
       <c r="AB23" s="33">
         <v>1118.486011</v>
       </c>
-      <c r="AC23" s="64">
+      <c r="AC23" s="62">
         <v>23.317075</v>
       </c>
-      <c r="AD23" s="79">
+      <c r="AD23" s="62">
         <v>46.634149</v>
       </c>
       <c r="AE23" s="32">
         <v>280.445054</v>
       </c>
-      <c r="AF23" s="64">
+      <c r="AF23" s="62">
         <v>359.246015</v>
       </c>
       <c r="AG23" s="33">
@@ -24217,31 +24189,31 @@
         <v>266.719278</v>
       </c>
       <c r="AI23" s="33"/>
-      <c r="AJ23" s="64">
+      <c r="AJ23" s="62">
         <v>45</v>
       </c>
-      <c r="AK23" s="64">
+      <c r="AK23" s="62">
         <v>45</v>
       </c>
-      <c r="AL23" s="64">
+      <c r="AL23" s="62">
         <v>41.433581</v>
       </c>
-      <c r="AM23" s="64">
+      <c r="AM23" s="62">
         <v>559.243006</v>
       </c>
-      <c r="AN23" s="64">
+      <c r="AN23" s="62">
         <v>559.243006</v>
       </c>
-      <c r="AO23" s="64">
+      <c r="AO23" s="62">
         <v>559.243006</v>
       </c>
-      <c r="AP23" s="91">
+      <c r="AP23" s="62">
         <v>1118.486011</v>
       </c>
-      <c r="AQ23" s="64">
+      <c r="AQ23" s="62">
         <v>23.317075</v>
       </c>
-      <c r="AR23" s="65">
+      <c r="AR23" s="63">
         <v>46.634149</v>
       </c>
     </row>
@@ -24272,22 +24244,22 @@
       <c r="J24" s="37">
         <v>41.341488</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="65">
         <v>615.955624</v>
       </c>
-      <c r="L24" s="67">
+      <c r="L24" s="65">
         <v>558</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="65">
         <v>558</v>
       </c>
-      <c r="N24" s="68">
+      <c r="N24" s="37">
         <v>1116</v>
       </c>
       <c r="O24" s="37">
         <v>23.265249</v>
       </c>
-      <c r="P24" s="69">
+      <c r="P24" s="66">
         <v>46.530497</v>
       </c>
       <c r="Q24" s="37">
@@ -24312,22 +24284,22 @@
       <c r="X24" s="37">
         <v>45.635344</v>
       </c>
-      <c r="Y24" s="86">
+      <c r="Y24" s="37">
         <v>615.955624</v>
       </c>
-      <c r="Z24" s="86">
+      <c r="Z24" s="37">
         <v>615.955624</v>
       </c>
-      <c r="AA24" s="86">
+      <c r="AA24" s="37">
         <v>615.955624</v>
       </c>
-      <c r="AB24" s="68">
+      <c r="AB24" s="37">
         <v>1231.911249</v>
       </c>
       <c r="AC24" s="37">
         <v>25.68165</v>
       </c>
-      <c r="AD24" s="80">
+      <c r="AD24" s="37">
         <v>51.3633</v>
       </c>
       <c r="AE24" s="36">
@@ -24361,13 +24333,13 @@
       <c r="AO24" s="37">
         <v>615.955624</v>
       </c>
-      <c r="AP24" s="68">
+      <c r="AP24" s="37">
         <v>1231.911249</v>
       </c>
       <c r="AQ24" s="37">
         <v>25.68165</v>
       </c>
-      <c r="AR24" s="69">
+      <c r="AR24" s="66">
         <v>51.3633</v>
       </c>
     </row>
@@ -24421,7 +24393,7 @@
       <c r="AO25" s="52"/>
       <c r="AP25" s="52"/>
       <c r="AQ25" s="52"/>
-      <c r="AR25" s="88"/>
+      <c r="AR25" s="75"/>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" s="40" t="s">
@@ -24466,10 +24438,10 @@
       <c r="N26" s="43">
         <v>134.782202</v>
       </c>
-      <c r="O26" s="70">
+      <c r="O26" s="67">
         <v>2.809804</v>
       </c>
-      <c r="P26" s="71">
+      <c r="P26" s="67">
         <v>5.619608</v>
       </c>
       <c r="Q26" s="42">
@@ -24508,16 +24480,16 @@
       <c r="AB26" s="43">
         <v>134.782202</v>
       </c>
-      <c r="AC26" s="70">
+      <c r="AC26" s="67">
         <v>2.809804</v>
       </c>
-      <c r="AD26" s="71">
+      <c r="AD26" s="67">
         <v>5.619608</v>
       </c>
       <c r="AE26" s="42">
         <v>36.57979</v>
       </c>
-      <c r="AF26" s="70">
+      <c r="AF26" s="67">
         <v>53.96177</v>
       </c>
       <c r="AG26" s="43">
@@ -24529,31 +24501,31 @@
       <c r="AI26" s="43">
         <v>83.707427</v>
       </c>
-      <c r="AJ26" s="70">
+      <c r="AJ26" s="67">
         <v>5</v>
       </c>
-      <c r="AK26" s="70">
+      <c r="AK26" s="67">
         <v>5</v>
       </c>
-      <c r="AL26" s="70">
+      <c r="AL26" s="67">
         <v>4.935377</v>
       </c>
-      <c r="AM26" s="70">
+      <c r="AM26" s="67">
         <v>67.391101</v>
       </c>
-      <c r="AN26" s="70">
+      <c r="AN26" s="67">
         <v>67.391101</v>
       </c>
-      <c r="AO26" s="70">
+      <c r="AO26" s="67">
         <v>67.391101</v>
       </c>
-      <c r="AP26" s="92">
+      <c r="AP26" s="67">
         <v>134.782202</v>
       </c>
-      <c r="AQ26" s="70">
+      <c r="AQ26" s="67">
         <v>2.809804</v>
       </c>
-      <c r="AR26" s="93">
+      <c r="AR26" s="77">
         <v>5.619608</v>
       </c>
     </row>
@@ -24596,10 +24568,10 @@
       <c r="N27" s="43">
         <v>267.092606</v>
       </c>
-      <c r="O27" s="70">
+      <c r="O27" s="67">
         <v>5.568079</v>
       </c>
-      <c r="P27" s="71">
+      <c r="P27" s="67">
         <v>11.136158</v>
       </c>
       <c r="Q27" s="42">
@@ -24636,16 +24608,16 @@
       <c r="AB27" s="43">
         <v>267.092606</v>
       </c>
-      <c r="AC27" s="70">
+      <c r="AC27" s="67">
         <v>5.568079</v>
       </c>
-      <c r="AD27" s="71">
+      <c r="AD27" s="67">
         <v>11.136158</v>
       </c>
       <c r="AE27" s="42">
         <v>67.062948</v>
       </c>
-      <c r="AF27" s="70">
+      <c r="AF27" s="67">
         <v>92.174688</v>
       </c>
       <c r="AG27" s="43">
@@ -24655,31 +24627,31 @@
         <v>263.645439</v>
       </c>
       <c r="AI27" s="43"/>
-      <c r="AJ27" s="70">
+      <c r="AJ27" s="67">
         <v>10</v>
       </c>
-      <c r="AK27" s="70">
+      <c r="AK27" s="67">
         <v>10</v>
       </c>
-      <c r="AL27" s="70">
+      <c r="AL27" s="67">
         <v>9.780243</v>
       </c>
-      <c r="AM27" s="70">
+      <c r="AM27" s="67">
         <v>133.546303</v>
       </c>
-      <c r="AN27" s="70">
+      <c r="AN27" s="67">
         <v>133.546303</v>
       </c>
-      <c r="AO27" s="70">
+      <c r="AO27" s="67">
         <v>133.546303</v>
       </c>
-      <c r="AP27" s="92">
+      <c r="AP27" s="67">
         <v>267.092606</v>
       </c>
-      <c r="AQ27" s="70">
+      <c r="AQ27" s="67">
         <v>5.568079</v>
       </c>
-      <c r="AR27" s="94">
+      <c r="AR27" s="78">
         <v>11.136158</v>
       </c>
     </row>
@@ -24722,10 +24694,10 @@
       <c r="N28" s="43">
         <v>396.968727</v>
       </c>
-      <c r="O28" s="70">
+      <c r="O28" s="67">
         <v>8.275606</v>
       </c>
-      <c r="P28" s="71">
+      <c r="P28" s="67">
         <v>16.551212</v>
       </c>
       <c r="Q28" s="42">
@@ -24762,16 +24734,16 @@
       <c r="AB28" s="43">
         <v>396.968727</v>
       </c>
-      <c r="AC28" s="70">
+      <c r="AC28" s="67">
         <v>8.275606</v>
       </c>
-      <c r="AD28" s="71">
+      <c r="AD28" s="67">
         <v>16.551212</v>
       </c>
       <c r="AE28" s="42">
         <v>97.546106</v>
       </c>
-      <c r="AF28" s="70">
+      <c r="AF28" s="67">
         <v>130.355561</v>
       </c>
       <c r="AG28" s="43">
@@ -24781,31 +24753,31 @@
         <v>263.645439</v>
       </c>
       <c r="AI28" s="43"/>
-      <c r="AJ28" s="70">
+      <c r="AJ28" s="67">
         <v>15</v>
       </c>
-      <c r="AK28" s="70">
+      <c r="AK28" s="67">
         <v>15</v>
       </c>
-      <c r="AL28" s="70">
+      <c r="AL28" s="67">
         <v>14.535971</v>
       </c>
-      <c r="AM28" s="70">
+      <c r="AM28" s="67">
         <v>198.484364</v>
       </c>
-      <c r="AN28" s="70">
+      <c r="AN28" s="67">
         <v>198.484364</v>
       </c>
-      <c r="AO28" s="70">
+      <c r="AO28" s="67">
         <v>198.484364</v>
       </c>
-      <c r="AP28" s="92">
+      <c r="AP28" s="67">
         <v>396.968727</v>
       </c>
-      <c r="AQ28" s="70">
+      <c r="AQ28" s="67">
         <v>8.275606</v>
       </c>
-      <c r="AR28" s="94">
+      <c r="AR28" s="78">
         <v>16.551212</v>
       </c>
     </row>
@@ -24848,10 +24820,10 @@
       <c r="N29" s="43">
         <v>524.443906</v>
       </c>
-      <c r="O29" s="70">
+      <c r="O29" s="67">
         <v>10.933081</v>
       </c>
-      <c r="P29" s="71">
+      <c r="P29" s="67">
         <v>21.866161</v>
       </c>
       <c r="Q29" s="42">
@@ -24888,16 +24860,16 @@
       <c r="AB29" s="43">
         <v>524.443906</v>
       </c>
-      <c r="AC29" s="70">
+      <c r="AC29" s="67">
         <v>10.933081</v>
       </c>
-      <c r="AD29" s="71">
+      <c r="AD29" s="67">
         <v>21.866161</v>
       </c>
       <c r="AE29" s="42">
         <v>128.029264</v>
       </c>
-      <c r="AF29" s="70">
+      <c r="AF29" s="67">
         <v>168.536171</v>
       </c>
       <c r="AG29" s="43">
@@ -24907,31 +24879,31 @@
         <v>263.645439</v>
       </c>
       <c r="AI29" s="43"/>
-      <c r="AJ29" s="70">
+      <c r="AJ29" s="67">
         <v>20</v>
       </c>
-      <c r="AK29" s="70">
+      <c r="AK29" s="67">
         <v>20</v>
       </c>
-      <c r="AL29" s="70">
+      <c r="AL29" s="67">
         <v>19.203784</v>
       </c>
-      <c r="AM29" s="70">
+      <c r="AM29" s="67">
         <v>262.221953</v>
       </c>
-      <c r="AN29" s="70">
+      <c r="AN29" s="67">
         <v>262.221953</v>
       </c>
-      <c r="AO29" s="70">
+      <c r="AO29" s="67">
         <v>262.221953</v>
       </c>
-      <c r="AP29" s="92">
+      <c r="AP29" s="67">
         <v>524.443906</v>
       </c>
-      <c r="AQ29" s="70">
+      <c r="AQ29" s="67">
         <v>10.933081</v>
       </c>
-      <c r="AR29" s="94">
+      <c r="AR29" s="78">
         <v>21.866161</v>
       </c>
     </row>
@@ -24974,10 +24946,10 @@
       <c r="N30" s="43">
         <v>649.552432</v>
       </c>
-      <c r="O30" s="70">
+      <c r="O30" s="67">
         <v>13.541218</v>
       </c>
-      <c r="P30" s="71">
+      <c r="P30" s="67">
         <v>27.082435</v>
       </c>
       <c r="Q30" s="42">
@@ -25014,16 +24986,16 @@
       <c r="AB30" s="43">
         <v>649.552432</v>
       </c>
-      <c r="AC30" s="70">
+      <c r="AC30" s="67">
         <v>13.541218</v>
       </c>
-      <c r="AD30" s="71">
+      <c r="AD30" s="67">
         <v>27.082435</v>
       </c>
       <c r="AE30" s="42">
         <v>158.512422</v>
       </c>
-      <c r="AF30" s="70">
+      <c r="AF30" s="67">
         <v>206.716587</v>
       </c>
       <c r="AG30" s="43">
@@ -25033,31 +25005,31 @@
         <v>263.645439</v>
       </c>
       <c r="AI30" s="43"/>
-      <c r="AJ30" s="70">
+      <c r="AJ30" s="67">
         <v>25</v>
       </c>
-      <c r="AK30" s="70">
+      <c r="AK30" s="67">
         <v>25</v>
       </c>
-      <c r="AL30" s="70">
+      <c r="AL30" s="67">
         <v>23.784936</v>
       </c>
-      <c r="AM30" s="70">
+      <c r="AM30" s="67">
         <v>324.776216</v>
       </c>
-      <c r="AN30" s="70">
+      <c r="AN30" s="67">
         <v>324.776216</v>
       </c>
-      <c r="AO30" s="70">
+      <c r="AO30" s="67">
         <v>324.776216</v>
       </c>
-      <c r="AP30" s="92">
+      <c r="AP30" s="67">
         <v>649.552432</v>
       </c>
-      <c r="AQ30" s="70">
+      <c r="AQ30" s="67">
         <v>13.541218</v>
       </c>
-      <c r="AR30" s="94">
+      <c r="AR30" s="78">
         <v>27.082435</v>
       </c>
     </row>
@@ -25100,10 +25072,10 @@
       <c r="N31" s="43">
         <v>772.328504</v>
       </c>
-      <c r="O31" s="70">
+      <c r="O31" s="67">
         <v>16.10073</v>
       </c>
-      <c r="P31" s="71">
+      <c r="P31" s="67">
         <v>32.20146</v>
       </c>
       <c r="Q31" s="42">
@@ -25140,16 +25112,16 @@
       <c r="AB31" s="43">
         <v>772.328504</v>
       </c>
-      <c r="AC31" s="70">
+      <c r="AC31" s="67">
         <v>16.10073</v>
       </c>
-      <c r="AD31" s="71">
+      <c r="AD31" s="67">
         <v>32.20146</v>
       </c>
       <c r="AE31" s="42">
         <v>188.99558</v>
       </c>
-      <c r="AF31" s="70">
+      <c r="AF31" s="67">
         <v>244.89681</v>
       </c>
       <c r="AG31" s="43">
@@ -25159,31 +25131,31 @@
         <v>263.645439</v>
       </c>
       <c r="AI31" s="43"/>
-      <c r="AJ31" s="70">
+      <c r="AJ31" s="67">
         <v>30</v>
       </c>
-      <c r="AK31" s="70">
+      <c r="AK31" s="67">
         <v>30</v>
       </c>
-      <c r="AL31" s="70">
+      <c r="AL31" s="67">
         <v>28.280679</v>
       </c>
-      <c r="AM31" s="70">
+      <c r="AM31" s="67">
         <v>386.164252</v>
       </c>
-      <c r="AN31" s="70">
+      <c r="AN31" s="67">
         <v>386.164252</v>
       </c>
-      <c r="AO31" s="70">
+      <c r="AO31" s="67">
         <v>386.164252</v>
       </c>
-      <c r="AP31" s="92">
+      <c r="AP31" s="67">
         <v>772.328504</v>
       </c>
-      <c r="AQ31" s="70">
+      <c r="AQ31" s="67">
         <v>16.10073</v>
       </c>
-      <c r="AR31" s="94">
+      <c r="AR31" s="78">
         <v>32.20146</v>
       </c>
     </row>
@@ -25214,22 +25186,22 @@
       <c r="J32" s="43">
         <v>30.978339</v>
       </c>
-      <c r="K32" s="72">
+      <c r="K32" s="68">
         <v>446.403102</v>
       </c>
-      <c r="L32" s="72">
+      <c r="L32" s="68">
         <v>423</v>
       </c>
-      <c r="M32" s="72">
+      <c r="M32" s="68">
         <v>423</v>
       </c>
       <c r="N32" s="43">
         <v>846</v>
       </c>
-      <c r="O32" s="70">
+      <c r="O32" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P32" s="71">
+      <c r="P32" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q32" s="42">
@@ -25266,16 +25238,16 @@
       <c r="AB32" s="43">
         <v>892.806203</v>
       </c>
-      <c r="AC32" s="70">
+      <c r="AC32" s="67">
         <v>18.612328</v>
       </c>
-      <c r="AD32" s="71">
+      <c r="AD32" s="67">
         <v>37.224657</v>
       </c>
       <c r="AE32" s="42">
         <v>219.478738</v>
       </c>
-      <c r="AF32" s="70">
+      <c r="AF32" s="67">
         <v>283.076843</v>
       </c>
       <c r="AG32" s="43">
@@ -25285,31 +25257,31 @@
         <v>263.645439</v>
       </c>
       <c r="AI32" s="43"/>
-      <c r="AJ32" s="70">
+      <c r="AJ32" s="67">
         <v>35</v>
       </c>
-      <c r="AK32" s="70">
+      <c r="AK32" s="67">
         <v>35</v>
       </c>
-      <c r="AL32" s="70">
+      <c r="AL32" s="67">
         <v>32.692262</v>
       </c>
-      <c r="AM32" s="70">
+      <c r="AM32" s="67">
         <v>446.403102</v>
       </c>
-      <c r="AN32" s="70">
+      <c r="AN32" s="67">
         <v>446.403102</v>
       </c>
-      <c r="AO32" s="70">
+      <c r="AO32" s="67">
         <v>446.403102</v>
       </c>
-      <c r="AP32" s="92">
+      <c r="AP32" s="67">
         <v>892.806203</v>
       </c>
-      <c r="AQ32" s="70">
+      <c r="AQ32" s="67">
         <v>18.612328</v>
       </c>
-      <c r="AR32" s="94">
+      <c r="AR32" s="78">
         <v>37.224657</v>
       </c>
     </row>
@@ -25340,22 +25312,22 @@
       <c r="J33" s="43">
         <v>30.978339</v>
       </c>
-      <c r="K33" s="72">
+      <c r="K33" s="68">
         <v>505.509735</v>
       </c>
-      <c r="L33" s="72">
+      <c r="L33" s="68">
         <v>423</v>
       </c>
-      <c r="M33" s="72">
+      <c r="M33" s="68">
         <v>423</v>
       </c>
       <c r="N33" s="43">
         <v>846</v>
       </c>
-      <c r="O33" s="70">
+      <c r="O33" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P33" s="71">
+      <c r="P33" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q33" s="42">
@@ -25392,16 +25364,16 @@
       <c r="AB33" s="43">
         <v>1011.019469</v>
       </c>
-      <c r="AC33" s="70">
+      <c r="AC33" s="67">
         <v>21.07672</v>
       </c>
-      <c r="AD33" s="71">
+      <c r="AD33" s="67">
         <v>42.15344</v>
       </c>
       <c r="AE33" s="42">
         <v>249.961896</v>
       </c>
-      <c r="AF33" s="70">
+      <c r="AF33" s="67">
         <v>321.25669</v>
       </c>
       <c r="AG33" s="43">
@@ -25411,31 +25383,31 @@
         <v>263.645439</v>
       </c>
       <c r="AI33" s="43"/>
-      <c r="AJ33" s="70">
+      <c r="AJ33" s="67">
         <v>40</v>
       </c>
-      <c r="AK33" s="70">
+      <c r="AK33" s="67">
         <v>40</v>
       </c>
-      <c r="AL33" s="70">
+      <c r="AL33" s="67">
         <v>37.020927</v>
       </c>
-      <c r="AM33" s="70">
+      <c r="AM33" s="67">
         <v>505.509735</v>
       </c>
-      <c r="AN33" s="70">
+      <c r="AN33" s="67">
         <v>505.509735</v>
       </c>
-      <c r="AO33" s="70">
+      <c r="AO33" s="67">
         <v>505.509735</v>
       </c>
-      <c r="AP33" s="92">
+      <c r="AP33" s="67">
         <v>1011.019469</v>
       </c>
-      <c r="AQ33" s="70">
+      <c r="AQ33" s="67">
         <v>21.07672</v>
       </c>
-      <c r="AR33" s="94">
+      <c r="AR33" s="78">
         <v>42.15344</v>
       </c>
     </row>
@@ -25466,22 +25438,22 @@
       <c r="J34" s="43">
         <v>30.978339</v>
       </c>
-      <c r="K34" s="72">
+      <c r="K34" s="68">
         <v>563.501041</v>
       </c>
-      <c r="L34" s="72">
+      <c r="L34" s="68">
         <v>423</v>
       </c>
-      <c r="M34" s="72">
+      <c r="M34" s="68">
         <v>423</v>
       </c>
       <c r="N34" s="43">
         <v>846</v>
       </c>
-      <c r="O34" s="70">
+      <c r="O34" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P34" s="71">
+      <c r="P34" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q34" s="42">
@@ -25518,16 +25490,16 @@
       <c r="AB34" s="43">
         <v>1127.002082</v>
       </c>
-      <c r="AC34" s="70">
+      <c r="AC34" s="67">
         <v>23.494609</v>
       </c>
-      <c r="AD34" s="71">
+      <c r="AD34" s="67">
         <v>46.989218</v>
       </c>
       <c r="AE34" s="42">
         <v>280.445054</v>
       </c>
-      <c r="AF34" s="70">
+      <c r="AF34" s="67">
         <v>359.436352</v>
       </c>
       <c r="AG34" s="43">
@@ -25537,31 +25509,31 @@
         <v>263.645439</v>
       </c>
       <c r="AI34" s="43"/>
-      <c r="AJ34" s="70">
+      <c r="AJ34" s="67">
         <v>45</v>
       </c>
-      <c r="AK34" s="70">
+      <c r="AK34" s="67">
         <v>45</v>
       </c>
-      <c r="AL34" s="70">
+      <c r="AL34" s="67">
         <v>41.267911</v>
       </c>
-      <c r="AM34" s="70">
+      <c r="AM34" s="67">
         <v>563.501041</v>
       </c>
-      <c r="AN34" s="70">
+      <c r="AN34" s="67">
         <v>563.501041</v>
       </c>
-      <c r="AO34" s="70">
+      <c r="AO34" s="67">
         <v>563.501041</v>
       </c>
-      <c r="AP34" s="92">
+      <c r="AP34" s="67">
         <v>1127.002082</v>
       </c>
-      <c r="AQ34" s="70">
+      <c r="AQ34" s="67">
         <v>23.494609</v>
       </c>
-      <c r="AR34" s="94">
+      <c r="AR34" s="78">
         <v>46.989218</v>
       </c>
     </row>
@@ -25592,22 +25564,22 @@
       <c r="J35" s="48">
         <v>30.978339</v>
       </c>
-      <c r="K35" s="73">
+      <c r="K35" s="69">
         <v>620.393821</v>
       </c>
-      <c r="L35" s="73">
+      <c r="L35" s="69">
         <v>423</v>
       </c>
-      <c r="M35" s="73">
+      <c r="M35" s="69">
         <v>423</v>
       </c>
-      <c r="N35" s="74">
+      <c r="N35" s="48">
         <v>846</v>
       </c>
       <c r="O35" s="48">
         <v>17.63656</v>
       </c>
-      <c r="P35" s="75">
+      <c r="P35" s="48">
         <v>35.273119</v>
       </c>
       <c r="Q35" s="47">
@@ -25632,22 +25604,22 @@
       <c r="X35" s="48">
         <v>45.434445</v>
       </c>
-      <c r="Y35" s="87">
+      <c r="Y35" s="48">
         <v>620.393821</v>
       </c>
-      <c r="Z35" s="87">
+      <c r="Z35" s="48">
         <v>620.393821</v>
       </c>
-      <c r="AA35" s="87">
+      <c r="AA35" s="48">
         <v>620.393821</v>
       </c>
-      <c r="AB35" s="74">
+      <c r="AB35" s="48">
         <v>1240.787642</v>
       </c>
       <c r="AC35" s="48">
         <v>25.866696</v>
       </c>
-      <c r="AD35" s="75">
+      <c r="AD35" s="48">
         <v>51.733393</v>
       </c>
       <c r="AE35" s="47">
@@ -25681,13 +25653,13 @@
       <c r="AO35" s="48">
         <v>620.393821</v>
       </c>
-      <c r="AP35" s="74">
+      <c r="AP35" s="48">
         <v>1240.787642</v>
       </c>
       <c r="AQ35" s="48">
         <v>25.866696</v>
       </c>
-      <c r="AR35" s="95">
+      <c r="AR35" s="79">
         <v>51.733393</v>
       </c>
     </row>
@@ -25877,7 +25849,7 @@
       <c r="AO39" s="52"/>
       <c r="AP39" s="52"/>
       <c r="AQ39" s="52"/>
-      <c r="AR39" s="88"/>
+      <c r="AR39" s="75"/>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:44">
       <c r="A40" s="22"/>
@@ -25913,7 +25885,7 @@
       <c r="AA40" s="52"/>
       <c r="AB40" s="52"/>
       <c r="AC40" s="52"/>
-      <c r="AD40" s="88"/>
+      <c r="AD40" s="75"/>
       <c r="AE40" s="51" t="s">
         <v>25</v>
       </c>
@@ -25929,7 +25901,7 @@
       <c r="AO40" s="52"/>
       <c r="AP40" s="52"/>
       <c r="AQ40" s="52"/>
-      <c r="AR40" s="88"/>
+      <c r="AR40" s="75"/>
     </row>
     <row r="41" ht="60" customHeight="1" spans="1:44">
       <c r="A41" s="24"/>
@@ -25960,106 +25932,106 @@
       <c r="J41" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="K41" s="76" t="s">
+      <c r="K41" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="76" t="s">
+      <c r="L41" s="56" t="s">
         <v>36</v>
       </c>
       <c r="M41" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="N41" s="77" t="s">
+      <c r="N41" s="56" t="s">
         <v>38</v>
       </c>
       <c r="O41" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P41" s="78" t="s">
+      <c r="P41" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" s="81" t="s">
+      <c r="Q41" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="R41" s="82" t="s">
+      <c r="R41" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="S41" s="82" t="s">
+      <c r="S41" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="82" t="s">
+      <c r="T41" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="U41" s="82" t="s">
+      <c r="U41" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="V41" s="82" t="s">
+      <c r="V41" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="W41" s="82" t="s">
+      <c r="W41" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="X41" s="82" t="s">
+      <c r="X41" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="Y41" s="82" t="s">
+      <c r="Y41" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Z41" s="82" t="s">
+      <c r="Z41" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AA41" s="82" t="s">
+      <c r="AA41" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AB41" s="89" t="s">
+      <c r="AB41" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AC41" s="82" t="s">
+      <c r="AC41" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="AD41" s="90" t="s">
+      <c r="AD41" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AE41" s="81" t="s">
+      <c r="AE41" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF41" s="82" t="s">
+      <c r="AF41" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="AG41" s="82" t="s">
+      <c r="AG41" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AH41" s="82" t="s">
+      <c r="AH41" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AI41" s="82" t="s">
+      <c r="AI41" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AJ41" s="82" t="s">
+      <c r="AJ41" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AK41" s="82" t="s">
+      <c r="AK41" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AL41" s="82" t="s">
+      <c r="AL41" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AM41" s="82" t="s">
+      <c r="AM41" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="AN41" s="82" t="s">
+      <c r="AN41" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AO41" s="82" t="s">
+      <c r="AO41" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AP41" s="89" t="s">
+      <c r="AP41" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AQ41" s="82" t="s">
+      <c r="AQ41" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="AR41" s="90" t="s">
+      <c r="AR41" s="76" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26106,10 +26078,10 @@
       <c r="N42" s="33">
         <v>208.107945</v>
       </c>
-      <c r="O42" s="64">
+      <c r="O42" s="62">
         <v>4.338426</v>
       </c>
-      <c r="P42" s="79">
+      <c r="P42" s="62">
         <v>8.676851</v>
       </c>
       <c r="Q42" s="32">
@@ -26148,16 +26120,16 @@
       <c r="AB42" s="33">
         <v>208.107945</v>
       </c>
-      <c r="AC42" s="64">
+      <c r="AC42" s="62">
         <v>4.338426</v>
       </c>
-      <c r="AD42" s="79">
+      <c r="AD42" s="62">
         <v>8.676851</v>
       </c>
       <c r="AE42" s="32">
         <v>36.57979</v>
       </c>
-      <c r="AF42" s="64">
+      <c r="AF42" s="62">
         <v>66.661213</v>
       </c>
       <c r="AG42" s="33">
@@ -26169,31 +26141,31 @@
       <c r="AI42" s="33">
         <v>59.599479</v>
       </c>
-      <c r="AJ42" s="64">
+      <c r="AJ42" s="62">
         <v>5</v>
       </c>
-      <c r="AK42" s="64">
+      <c r="AK42" s="62">
         <v>5</v>
       </c>
-      <c r="AL42" s="64">
+      <c r="AL42" s="62">
         <v>4.852553</v>
       </c>
-      <c r="AM42" s="64">
+      <c r="AM42" s="62">
         <v>104.053973</v>
       </c>
-      <c r="AN42" s="64">
+      <c r="AN42" s="62">
         <v>104.053973</v>
       </c>
-      <c r="AO42" s="64">
+      <c r="AO42" s="62">
         <v>104.053973</v>
       </c>
-      <c r="AP42" s="91">
+      <c r="AP42" s="62">
         <v>208.107945</v>
       </c>
-      <c r="AQ42" s="64">
+      <c r="AQ42" s="62">
         <v>4.338426</v>
       </c>
-      <c r="AR42" s="65">
+      <c r="AR42" s="63">
         <v>8.676851</v>
       </c>
     </row>
@@ -26236,10 +26208,10 @@
       <c r="N43" s="33">
         <v>409.111969</v>
       </c>
-      <c r="O43" s="64">
+      <c r="O43" s="62">
         <v>8.528756</v>
       </c>
-      <c r="P43" s="79">
+      <c r="P43" s="62">
         <v>17.057512</v>
       </c>
       <c r="Q43" s="32">
@@ -26276,16 +26248,16 @@
       <c r="AB43" s="33">
         <v>409.111969</v>
       </c>
-      <c r="AC43" s="64">
+      <c r="AC43" s="62">
         <v>8.528756</v>
       </c>
-      <c r="AD43" s="79">
+      <c r="AD43" s="62">
         <v>17.057512</v>
       </c>
       <c r="AE43" s="32">
         <v>67.062948</v>
       </c>
-      <c r="AF43" s="64">
+      <c r="AF43" s="62">
         <v>105.216818</v>
       </c>
       <c r="AG43" s="33">
@@ -26295,31 +26267,31 @@
         <v>167.885856</v>
       </c>
       <c r="AI43" s="33"/>
-      <c r="AJ43" s="64">
+      <c r="AJ43" s="62">
         <v>10</v>
       </c>
-      <c r="AK43" s="64">
+      <c r="AK43" s="62">
         <v>10</v>
       </c>
-      <c r="AL43" s="64">
+      <c r="AL43" s="62">
         <v>9.53946</v>
       </c>
-      <c r="AM43" s="64">
+      <c r="AM43" s="62">
         <v>204.555984</v>
       </c>
-      <c r="AN43" s="64">
+      <c r="AN43" s="62">
         <v>204.555984</v>
       </c>
-      <c r="AO43" s="64">
+      <c r="AO43" s="62">
         <v>204.555984</v>
       </c>
-      <c r="AP43" s="91">
+      <c r="AP43" s="62">
         <v>409.111969</v>
       </c>
-      <c r="AQ43" s="64">
+      <c r="AQ43" s="62">
         <v>8.528756</v>
       </c>
-      <c r="AR43" s="65">
+      <c r="AR43" s="63">
         <v>17.057512</v>
       </c>
     </row>
@@ -26362,10 +26334,10 @@
       <c r="N44" s="33">
         <v>603.289362</v>
       </c>
-      <c r="O44" s="64">
+      <c r="O44" s="62">
         <v>12.576772</v>
       </c>
-      <c r="P44" s="79">
+      <c r="P44" s="62">
         <v>25.153543</v>
       </c>
       <c r="Q44" s="32">
@@ -26402,16 +26374,16 @@
       <c r="AB44" s="33">
         <v>603.289362</v>
       </c>
-      <c r="AC44" s="64">
+      <c r="AC44" s="62">
         <v>12.576772</v>
       </c>
-      <c r="AD44" s="79">
+      <c r="AD44" s="62">
         <v>25.153543</v>
       </c>
       <c r="AE44" s="32">
         <v>97.546106</v>
       </c>
-      <c r="AF44" s="64">
+      <c r="AF44" s="62">
         <v>143.580773</v>
       </c>
       <c r="AG44" s="33">
@@ -26421,31 +26393,31 @@
         <v>167.885856</v>
       </c>
       <c r="AI44" s="33"/>
-      <c r="AJ44" s="64">
+      <c r="AJ44" s="62">
         <v>15</v>
       </c>
-      <c r="AK44" s="64">
+      <c r="AK44" s="62">
         <v>15</v>
       </c>
-      <c r="AL44" s="64">
+      <c r="AL44" s="62">
         <v>14.067188</v>
       </c>
-      <c r="AM44" s="64">
+      <c r="AM44" s="62">
         <v>301.644681</v>
       </c>
-      <c r="AN44" s="64">
+      <c r="AN44" s="62">
         <v>301.644681</v>
       </c>
-      <c r="AO44" s="64">
+      <c r="AO44" s="62">
         <v>301.644681</v>
       </c>
-      <c r="AP44" s="91">
+      <c r="AP44" s="62">
         <v>603.289362</v>
       </c>
-      <c r="AQ44" s="64">
+      <c r="AQ44" s="62">
         <v>12.576772</v>
       </c>
-      <c r="AR44" s="65">
+      <c r="AR44" s="63">
         <v>25.153543</v>
       </c>
     </row>
@@ -26488,10 +26460,10 @@
       <c r="N45" s="33">
         <v>790.840727</v>
       </c>
-      <c r="O45" s="64">
+      <c r="O45" s="62">
         <v>16.486654</v>
       </c>
-      <c r="P45" s="79">
+      <c r="P45" s="62">
         <v>32.973309</v>
       </c>
       <c r="Q45" s="32">
@@ -26528,16 +26500,16 @@
       <c r="AB45" s="33">
         <v>790.840727</v>
       </c>
-      <c r="AC45" s="64">
+      <c r="AC45" s="62">
         <v>16.486654</v>
       </c>
-      <c r="AD45" s="79">
+      <c r="AD45" s="62">
         <v>32.973309</v>
       </c>
       <c r="AE45" s="32">
         <v>128.029264</v>
       </c>
-      <c r="AF45" s="64">
+      <c r="AF45" s="62">
         <v>181.942567</v>
       </c>
       <c r="AG45" s="33">
@@ -26547,31 +26519,31 @@
         <v>167.885856</v>
       </c>
       <c r="AI45" s="33"/>
-      <c r="AJ45" s="64">
+      <c r="AJ45" s="62">
         <v>20</v>
       </c>
-      <c r="AK45" s="64">
+      <c r="AK45" s="62">
         <v>20</v>
       </c>
-      <c r="AL45" s="64">
+      <c r="AL45" s="62">
         <v>18.440413</v>
       </c>
-      <c r="AM45" s="64">
+      <c r="AM45" s="62">
         <v>395.420363</v>
       </c>
-      <c r="AN45" s="64">
+      <c r="AN45" s="62">
         <v>395.420363</v>
       </c>
-      <c r="AO45" s="64">
+      <c r="AO45" s="62">
         <v>395.420363</v>
       </c>
-      <c r="AP45" s="91">
+      <c r="AP45" s="62">
         <v>790.840727</v>
       </c>
-      <c r="AQ45" s="64">
+      <c r="AQ45" s="62">
         <v>16.486654</v>
       </c>
-      <c r="AR45" s="65">
+      <c r="AR45" s="63">
         <v>32.973309</v>
       </c>
     </row>
@@ -26614,10 +26586,10 @@
       <c r="N46" s="33">
         <v>971.977685</v>
       </c>
-      <c r="O46" s="64">
+      <c r="O46" s="62">
         <v>20.262816</v>
       </c>
-      <c r="P46" s="79">
+      <c r="P46" s="62">
         <v>40.525632</v>
       </c>
       <c r="Q46" s="32">
@@ -26654,16 +26626,16 @@
       <c r="AB46" s="33">
         <v>971.977685</v>
       </c>
-      <c r="AC46" s="64">
+      <c r="AC46" s="62">
         <v>20.262816</v>
       </c>
-      <c r="AD46" s="79">
+      <c r="AD46" s="62">
         <v>40.525632</v>
       </c>
       <c r="AE46" s="32">
         <v>158.512422</v>
       </c>
-      <c r="AF46" s="64">
+      <c r="AF46" s="62">
         <v>220.303495</v>
       </c>
       <c r="AG46" s="33">
@@ -26673,31 +26645,31 @@
         <v>167.885856</v>
       </c>
       <c r="AI46" s="33"/>
-      <c r="AJ46" s="64">
+      <c r="AJ46" s="62">
         <v>25</v>
       </c>
-      <c r="AK46" s="64">
+      <c r="AK46" s="62">
         <v>25</v>
       </c>
-      <c r="AL46" s="64">
+      <c r="AL46" s="62">
         <v>22.66407</v>
       </c>
-      <c r="AM46" s="64">
+      <c r="AM46" s="62">
         <v>485.988843</v>
       </c>
-      <c r="AN46" s="64">
+      <c r="AN46" s="62">
         <v>485.988843</v>
       </c>
-      <c r="AO46" s="64">
+      <c r="AO46" s="62">
         <v>485.988843</v>
       </c>
-      <c r="AP46" s="91">
+      <c r="AP46" s="62">
         <v>971.977685</v>
       </c>
-      <c r="AQ46" s="64">
+      <c r="AQ46" s="62">
         <v>20.262816</v>
       </c>
-      <c r="AR46" s="65">
+      <c r="AR46" s="63">
         <v>40.525632</v>
       </c>
     </row>
@@ -26728,22 +26700,22 @@
       <c r="J47" s="33">
         <v>26.022308</v>
       </c>
-      <c r="K47" s="66">
+      <c r="K47" s="64">
         <v>573.453049</v>
       </c>
-      <c r="L47" s="66">
+      <c r="L47" s="64">
         <v>558</v>
       </c>
-      <c r="M47" s="66">
+      <c r="M47" s="64">
         <v>558</v>
       </c>
       <c r="N47" s="33">
         <v>1116</v>
       </c>
-      <c r="O47" s="64">
+      <c r="O47" s="62">
         <v>23.265249</v>
       </c>
-      <c r="P47" s="79">
+      <c r="P47" s="62">
         <v>46.530497</v>
       </c>
       <c r="Q47" s="32">
@@ -26780,16 +26752,16 @@
       <c r="AB47" s="33">
         <v>1146.906098</v>
       </c>
-      <c r="AC47" s="64">
+      <c r="AC47" s="62">
         <v>23.909548</v>
       </c>
-      <c r="AD47" s="79">
+      <c r="AD47" s="62">
         <v>47.819096</v>
       </c>
       <c r="AE47" s="32">
         <v>188.99558</v>
       </c>
-      <c r="AF47" s="64">
+      <c r="AF47" s="62">
         <v>258.663582</v>
       </c>
       <c r="AG47" s="33">
@@ -26799,31 +26771,31 @@
         <v>167.885856</v>
       </c>
       <c r="AI47" s="33"/>
-      <c r="AJ47" s="64">
+      <c r="AJ47" s="62">
         <v>30</v>
       </c>
-      <c r="AK47" s="64">
+      <c r="AK47" s="62">
         <v>30</v>
       </c>
-      <c r="AL47" s="64">
+      <c r="AL47" s="62">
         <v>26.74296</v>
       </c>
-      <c r="AM47" s="64">
+      <c r="AM47" s="62">
         <v>573.453049</v>
       </c>
-      <c r="AN47" s="64">
+      <c r="AN47" s="62">
         <v>573.453049</v>
       </c>
-      <c r="AO47" s="64">
+      <c r="AO47" s="62">
         <v>573.453049</v>
       </c>
-      <c r="AP47" s="91">
+      <c r="AP47" s="62">
         <v>1146.906098</v>
       </c>
-      <c r="AQ47" s="64">
+      <c r="AQ47" s="62">
         <v>23.909548</v>
       </c>
-      <c r="AR47" s="65">
+      <c r="AR47" s="63">
         <v>47.819096</v>
       </c>
     </row>
@@ -26854,22 +26826,22 @@
       <c r="J48" s="33">
         <v>26.022308</v>
       </c>
-      <c r="K48" s="66">
+      <c r="K48" s="64">
         <v>657.912953</v>
       </c>
-      <c r="L48" s="66">
+      <c r="L48" s="64">
         <v>558</v>
       </c>
-      <c r="M48" s="66">
+      <c r="M48" s="64">
         <v>558</v>
       </c>
       <c r="N48" s="33">
         <v>1116</v>
       </c>
-      <c r="O48" s="64">
+      <c r="O48" s="62">
         <v>23.265249</v>
       </c>
-      <c r="P48" s="79">
+      <c r="P48" s="62">
         <v>46.530497</v>
       </c>
       <c r="Q48" s="32">
@@ -26906,16 +26878,16 @@
       <c r="AB48" s="33">
         <v>1315.825907</v>
       </c>
-      <c r="AC48" s="64">
+      <c r="AC48" s="62">
         <v>27.431019</v>
       </c>
-      <c r="AD48" s="79">
+      <c r="AD48" s="62">
         <v>54.862038</v>
       </c>
       <c r="AE48" s="32">
         <v>219.478738</v>
       </c>
-      <c r="AF48" s="64">
+      <c r="AF48" s="62">
         <v>297.022843</v>
       </c>
       <c r="AG48" s="33">
@@ -26925,31 +26897,31 @@
         <v>167.885856</v>
       </c>
       <c r="AI48" s="33"/>
-      <c r="AJ48" s="64">
+      <c r="AJ48" s="62">
         <v>35</v>
       </c>
-      <c r="AK48" s="64">
+      <c r="AK48" s="62">
         <v>35</v>
       </c>
-      <c r="AL48" s="64">
+      <c r="AL48" s="62">
         <v>30.681744</v>
       </c>
-      <c r="AM48" s="64">
+      <c r="AM48" s="62">
         <v>657.912953</v>
       </c>
-      <c r="AN48" s="64">
+      <c r="AN48" s="62">
         <v>657.912953</v>
       </c>
-      <c r="AO48" s="64">
+      <c r="AO48" s="62">
         <v>657.912953</v>
       </c>
-      <c r="AP48" s="91">
+      <c r="AP48" s="62">
         <v>1315.825907</v>
       </c>
-      <c r="AQ48" s="64">
+      <c r="AQ48" s="62">
         <v>27.431019</v>
       </c>
-      <c r="AR48" s="65">
+      <c r="AR48" s="63">
         <v>54.862038</v>
       </c>
     </row>
@@ -26980,22 +26952,22 @@
       <c r="J49" s="33">
         <v>26.022308</v>
       </c>
-      <c r="K49" s="66">
+      <c r="K49" s="64">
         <v>739.465609</v>
       </c>
-      <c r="L49" s="66">
+      <c r="L49" s="64">
         <v>558</v>
       </c>
-      <c r="M49" s="66">
+      <c r="M49" s="64">
         <v>558</v>
       </c>
       <c r="N49" s="33">
         <v>1116</v>
       </c>
-      <c r="O49" s="64">
+      <c r="O49" s="62">
         <v>23.265249</v>
       </c>
-      <c r="P49" s="79">
+      <c r="P49" s="62">
         <v>46.530497</v>
       </c>
       <c r="Q49" s="32">
@@ -27032,16 +27004,16 @@
       <c r="AB49" s="33">
         <v>1478.931218</v>
       </c>
-      <c r="AC49" s="64">
+      <c r="AC49" s="62">
         <v>30.831275</v>
       </c>
-      <c r="AD49" s="79">
+      <c r="AD49" s="62">
         <v>61.662549</v>
       </c>
       <c r="AE49" s="32">
         <v>249.961896</v>
       </c>
-      <c r="AF49" s="64">
+      <c r="AF49" s="62">
         <v>335.381292</v>
       </c>
       <c r="AG49" s="33">
@@ -27051,31 +27023,31 @@
         <v>167.885856</v>
       </c>
       <c r="AI49" s="33"/>
-      <c r="AJ49" s="64">
+      <c r="AJ49" s="62">
         <v>40</v>
       </c>
-      <c r="AK49" s="64">
+      <c r="AK49" s="62">
         <v>40</v>
       </c>
-      <c r="AL49" s="64">
+      <c r="AL49" s="62">
         <v>34.484949</v>
       </c>
-      <c r="AM49" s="64">
+      <c r="AM49" s="62">
         <v>739.465609</v>
       </c>
-      <c r="AN49" s="64">
+      <c r="AN49" s="62">
         <v>739.465609</v>
       </c>
-      <c r="AO49" s="64">
+      <c r="AO49" s="62">
         <v>739.465609</v>
       </c>
-      <c r="AP49" s="91">
+      <c r="AP49" s="62">
         <v>1478.931218</v>
       </c>
-      <c r="AQ49" s="64">
+      <c r="AQ49" s="62">
         <v>30.831275</v>
       </c>
-      <c r="AR49" s="65">
+      <c r="AR49" s="63">
         <v>61.662549</v>
       </c>
     </row>
@@ -27106,22 +27078,22 @@
       <c r="J50" s="33">
         <v>26.022308</v>
       </c>
-      <c r="K50" s="66">
+      <c r="K50" s="64">
         <v>818.205193</v>
       </c>
-      <c r="L50" s="66">
+      <c r="L50" s="64">
         <v>558</v>
       </c>
-      <c r="M50" s="66">
+      <c r="M50" s="64">
         <v>558</v>
       </c>
       <c r="N50" s="33">
         <v>1116</v>
       </c>
-      <c r="O50" s="64">
+      <c r="O50" s="62">
         <v>23.265249</v>
       </c>
-      <c r="P50" s="79">
+      <c r="P50" s="62">
         <v>46.530497</v>
       </c>
       <c r="Q50" s="32">
@@ -27158,16 +27130,16 @@
       <c r="AB50" s="33">
         <v>1636.410385</v>
       </c>
-      <c r="AC50" s="64">
+      <c r="AC50" s="62">
         <v>34.114242</v>
       </c>
-      <c r="AD50" s="79">
+      <c r="AD50" s="62">
         <v>68.228485</v>
       </c>
       <c r="AE50" s="32">
         <v>280.445054</v>
       </c>
-      <c r="AF50" s="64">
+      <c r="AF50" s="62">
         <v>373.738943</v>
       </c>
       <c r="AG50" s="33">
@@ -27177,31 +27149,31 @@
         <v>167.885856</v>
       </c>
       <c r="AI50" s="33"/>
-      <c r="AJ50" s="64">
+      <c r="AJ50" s="62">
         <v>45</v>
       </c>
-      <c r="AK50" s="64">
+      <c r="AK50" s="62">
         <v>45</v>
       </c>
-      <c r="AL50" s="64">
+      <c r="AL50" s="62">
         <v>38.156966</v>
       </c>
-      <c r="AM50" s="64">
+      <c r="AM50" s="62">
         <v>818.205193</v>
       </c>
-      <c r="AN50" s="64">
+      <c r="AN50" s="62">
         <v>818.205193</v>
       </c>
-      <c r="AO50" s="64">
+      <c r="AO50" s="62">
         <v>818.205193</v>
       </c>
-      <c r="AP50" s="91">
+      <c r="AP50" s="62">
         <v>1636.410385</v>
       </c>
-      <c r="AQ50" s="64">
+      <c r="AQ50" s="62">
         <v>34.114242</v>
       </c>
-      <c r="AR50" s="65">
+      <c r="AR50" s="63">
         <v>68.228485</v>
       </c>
     </row>
@@ -27232,22 +27204,22 @@
       <c r="J51" s="37">
         <v>26.022308</v>
       </c>
-      <c r="K51" s="67">
+      <c r="K51" s="65">
         <v>894.223058</v>
       </c>
-      <c r="L51" s="67">
+      <c r="L51" s="65">
         <v>558</v>
       </c>
-      <c r="M51" s="67">
+      <c r="M51" s="65">
         <v>558</v>
       </c>
-      <c r="N51" s="68">
+      <c r="N51" s="37">
         <v>1116</v>
       </c>
       <c r="O51" s="37">
         <v>23.265249</v>
       </c>
-      <c r="P51" s="80">
+      <c r="P51" s="37">
         <v>46.530497</v>
       </c>
       <c r="Q51" s="36">
@@ -27281,13 +27253,13 @@
       <c r="AA51" s="37">
         <v>894.223058</v>
       </c>
-      <c r="AB51" s="68">
+      <c r="AB51" s="37">
         <v>1788.446116</v>
       </c>
       <c r="AC51" s="37">
         <v>37.283731</v>
       </c>
-      <c r="AD51" s="80">
+      <c r="AD51" s="37">
         <v>74.567462</v>
       </c>
       <c r="AE51" s="36">
@@ -27321,13 +27293,13 @@
       <c r="AO51" s="37">
         <v>894.223058</v>
       </c>
-      <c r="AP51" s="68">
+      <c r="AP51" s="37">
         <v>1788.446116</v>
       </c>
       <c r="AQ51" s="37">
         <v>37.283731</v>
       </c>
-      <c r="AR51" s="69">
+      <c r="AR51" s="66">
         <v>74.567462</v>
       </c>
     </row>
@@ -27381,7 +27353,7 @@
       <c r="AO52" s="52"/>
       <c r="AP52" s="52"/>
       <c r="AQ52" s="52"/>
-      <c r="AR52" s="88"/>
+      <c r="AR52" s="75"/>
     </row>
     <row r="53" spans="1:44">
       <c r="A53" s="40" t="s">
@@ -27426,10 +27398,10 @@
       <c r="N53" s="43">
         <v>206.649631</v>
       </c>
-      <c r="O53" s="70">
+      <c r="O53" s="67">
         <v>4.308024</v>
       </c>
-      <c r="P53" s="71">
+      <c r="P53" s="67">
         <v>8.616048</v>
       </c>
       <c r="Q53" s="42">
@@ -27468,16 +27440,16 @@
       <c r="AB53" s="43">
         <v>206.649631</v>
       </c>
-      <c r="AC53" s="70">
+      <c r="AC53" s="67">
         <v>4.308024</v>
       </c>
-      <c r="AD53" s="71">
+      <c r="AD53" s="67">
         <v>8.616048</v>
       </c>
       <c r="AE53" s="42">
         <v>36.57979</v>
       </c>
-      <c r="AF53" s="70">
+      <c r="AF53" s="67">
         <v>67.119862</v>
       </c>
       <c r="AG53" s="43">
@@ -27489,31 +27461,31 @@
       <c r="AI53" s="43">
         <v>53.613048</v>
       </c>
-      <c r="AJ53" s="70">
+      <c r="AJ53" s="67">
         <v>5</v>
       </c>
-      <c r="AK53" s="70">
+      <c r="AK53" s="67">
         <v>5</v>
       </c>
-      <c r="AL53" s="70">
+      <c r="AL53" s="67">
         <v>4.846508</v>
       </c>
-      <c r="AM53" s="70">
+      <c r="AM53" s="67">
         <v>103.324815</v>
       </c>
-      <c r="AN53" s="70">
+      <c r="AN53" s="67">
         <v>103.324815</v>
       </c>
-      <c r="AO53" s="70">
+      <c r="AO53" s="67">
         <v>103.324815</v>
       </c>
-      <c r="AP53" s="92">
+      <c r="AP53" s="67">
         <v>206.649631</v>
       </c>
-      <c r="AQ53" s="70">
+      <c r="AQ53" s="67">
         <v>4.308024</v>
       </c>
-      <c r="AR53" s="94">
+      <c r="AR53" s="78">
         <v>8.616048</v>
       </c>
     </row>
@@ -27556,10 +27528,10 @@
       <c r="N54" s="43">
         <v>406.006335</v>
       </c>
-      <c r="O54" s="70">
+      <c r="O54" s="67">
         <v>8.464013</v>
       </c>
-      <c r="P54" s="71">
+      <c r="P54" s="67">
         <v>16.928026</v>
       </c>
       <c r="Q54" s="42">
@@ -27596,16 +27568,16 @@
       <c r="AB54" s="43">
         <v>406.006335</v>
       </c>
-      <c r="AC54" s="70">
+      <c r="AC54" s="67">
         <v>8.464013</v>
       </c>
-      <c r="AD54" s="71">
+      <c r="AD54" s="67">
         <v>16.928026</v>
       </c>
       <c r="AE54" s="42">
         <v>67.062948</v>
       </c>
-      <c r="AF54" s="70">
+      <c r="AF54" s="67">
         <v>105.688535</v>
       </c>
       <c r="AG54" s="43">
@@ -27615,31 +27587,31 @@
         <v>168.859993</v>
       </c>
       <c r="AI54" s="43"/>
-      <c r="AJ54" s="70">
+      <c r="AJ54" s="67">
         <v>10</v>
       </c>
-      <c r="AK54" s="70">
+      <c r="AK54" s="67">
         <v>10</v>
       </c>
-      <c r="AL54" s="70">
+      <c r="AL54" s="67">
         <v>9.521976</v>
       </c>
-      <c r="AM54" s="70">
+      <c r="AM54" s="67">
         <v>203.003168</v>
       </c>
-      <c r="AN54" s="70">
+      <c r="AN54" s="67">
         <v>203.003168</v>
       </c>
-      <c r="AO54" s="70">
+      <c r="AO54" s="67">
         <v>203.003168</v>
       </c>
-      <c r="AP54" s="92">
+      <c r="AP54" s="67">
         <v>406.006335</v>
       </c>
-      <c r="AQ54" s="70">
+      <c r="AQ54" s="67">
         <v>8.464013</v>
       </c>
-      <c r="AR54" s="94">
+      <c r="AR54" s="78">
         <v>16.928026</v>
       </c>
     </row>
@@ -27682,10 +27654,10 @@
       <c r="N55" s="43">
         <v>598.368082</v>
       </c>
-      <c r="O55" s="70">
+      <c r="O55" s="67">
         <v>12.474178</v>
       </c>
-      <c r="P55" s="71">
+      <c r="P55" s="67">
         <v>24.948355</v>
       </c>
       <c r="Q55" s="42">
@@ -27722,16 +27694,16 @@
       <c r="AB55" s="43">
         <v>598.368082</v>
       </c>
-      <c r="AC55" s="70">
+      <c r="AC55" s="67">
         <v>12.474178</v>
       </c>
-      <c r="AD55" s="71">
+      <c r="AD55" s="67">
         <v>24.948355</v>
       </c>
       <c r="AE55" s="42">
         <v>97.546106</v>
       </c>
-      <c r="AF55" s="70">
+      <c r="AF55" s="67">
         <v>144.058269</v>
       </c>
       <c r="AG55" s="43">
@@ -27741,31 +27713,31 @@
         <v>168.859993</v>
       </c>
       <c r="AI55" s="43"/>
-      <c r="AJ55" s="70">
+      <c r="AJ55" s="67">
         <v>15</v>
       </c>
-      <c r="AK55" s="70">
+      <c r="AK55" s="67">
         <v>15</v>
       </c>
-      <c r="AL55" s="70">
+      <c r="AL55" s="67">
         <v>14.033393</v>
       </c>
-      <c r="AM55" s="70">
+      <c r="AM55" s="67">
         <v>299.184041</v>
       </c>
-      <c r="AN55" s="70">
+      <c r="AN55" s="67">
         <v>299.184041</v>
       </c>
-      <c r="AO55" s="70">
+      <c r="AO55" s="67">
         <v>299.184041</v>
       </c>
-      <c r="AP55" s="92">
+      <c r="AP55" s="67">
         <v>598.368082</v>
       </c>
-      <c r="AQ55" s="70">
+      <c r="AQ55" s="67">
         <v>12.474178</v>
       </c>
-      <c r="AR55" s="94">
+      <c r="AR55" s="78">
         <v>24.948355</v>
       </c>
     </row>
@@ -27808,10 +27780,10 @@
       <c r="N56" s="43">
         <v>783.950428</v>
       </c>
-      <c r="O56" s="70">
+      <c r="O56" s="67">
         <v>16.343012</v>
       </c>
-      <c r="P56" s="71">
+      <c r="P56" s="67">
         <v>32.686025</v>
       </c>
       <c r="Q56" s="42">
@@ -27848,16 +27820,16 @@
       <c r="AB56" s="43">
         <v>783.950428</v>
       </c>
-      <c r="AC56" s="70">
+      <c r="AC56" s="67">
         <v>16.343012</v>
       </c>
-      <c r="AD56" s="71">
+      <c r="AD56" s="67">
         <v>32.686025</v>
       </c>
       <c r="AE56" s="42">
         <v>128.029264</v>
       </c>
-      <c r="AF56" s="70">
+      <c r="AF56" s="67">
         <v>182.425744</v>
       </c>
       <c r="AG56" s="43">
@@ -27867,31 +27839,31 @@
         <v>168.859993</v>
       </c>
       <c r="AI56" s="43"/>
-      <c r="AJ56" s="70">
+      <c r="AJ56" s="67">
         <v>20</v>
       </c>
-      <c r="AK56" s="70">
+      <c r="AK56" s="67">
         <v>20</v>
       </c>
-      <c r="AL56" s="70">
+      <c r="AL56" s="67">
         <v>18.385814</v>
       </c>
-      <c r="AM56" s="70">
+      <c r="AM56" s="67">
         <v>391.975214</v>
       </c>
-      <c r="AN56" s="70">
+      <c r="AN56" s="67">
         <v>391.975214</v>
       </c>
-      <c r="AO56" s="70">
+      <c r="AO56" s="67">
         <v>391.975214</v>
       </c>
-      <c r="AP56" s="92">
+      <c r="AP56" s="67">
         <v>783.950428</v>
       </c>
-      <c r="AQ56" s="70">
+      <c r="AQ56" s="67">
         <v>16.343012</v>
       </c>
-      <c r="AR56" s="94">
+      <c r="AR56" s="78">
         <v>32.686025</v>
       </c>
     </row>
@@ -27922,22 +27894,22 @@
       <c r="J57" s="43">
         <v>19.841049</v>
       </c>
-      <c r="K57" s="72">
+      <c r="K57" s="68">
         <v>481.490018</v>
       </c>
-      <c r="L57" s="72">
+      <c r="L57" s="68">
         <v>423</v>
       </c>
-      <c r="M57" s="72">
+      <c r="M57" s="68">
         <v>423</v>
       </c>
       <c r="N57" s="43">
         <v>846</v>
       </c>
-      <c r="O57" s="70">
+      <c r="O57" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P57" s="71">
+      <c r="P57" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q57" s="42">
@@ -27974,16 +27946,16 @@
       <c r="AB57" s="43">
         <v>962.980036</v>
       </c>
-      <c r="AC57" s="70">
+      <c r="AC57" s="67">
         <v>20.075242</v>
       </c>
-      <c r="AD57" s="71">
+      <c r="AD57" s="67">
         <v>40.150484</v>
       </c>
       <c r="AE57" s="42">
         <v>158.512422</v>
       </c>
-      <c r="AF57" s="70">
+      <c r="AF57" s="67">
         <v>220.792333</v>
       </c>
       <c r="AG57" s="43">
@@ -27993,31 +27965,31 @@
         <v>168.859993</v>
       </c>
       <c r="AI57" s="43"/>
-      <c r="AJ57" s="70">
+      <c r="AJ57" s="67">
         <v>25</v>
       </c>
-      <c r="AK57" s="70">
+      <c r="AK57" s="67">
         <v>25</v>
       </c>
-      <c r="AL57" s="70">
+      <c r="AL57" s="67">
         <v>22.584556</v>
       </c>
-      <c r="AM57" s="70">
+      <c r="AM57" s="67">
         <v>481.490018</v>
       </c>
-      <c r="AN57" s="70">
+      <c r="AN57" s="67">
         <v>481.490018</v>
       </c>
-      <c r="AO57" s="70">
+      <c r="AO57" s="67">
         <v>481.490018</v>
       </c>
-      <c r="AP57" s="92">
+      <c r="AP57" s="67">
         <v>962.980036</v>
       </c>
-      <c r="AQ57" s="70">
+      <c r="AQ57" s="67">
         <v>20.075242</v>
       </c>
-      <c r="AR57" s="94">
+      <c r="AR57" s="78">
         <v>40.150484</v>
       </c>
     </row>
@@ -28048,22 +28020,22 @@
       <c r="J58" s="43">
         <v>19.841049</v>
       </c>
-      <c r="K58" s="72">
+      <c r="K58" s="68">
         <v>567.838428</v>
       </c>
-      <c r="L58" s="72">
+      <c r="L58" s="68">
         <v>423</v>
       </c>
-      <c r="M58" s="72">
+      <c r="M58" s="68">
         <v>423</v>
       </c>
       <c r="N58" s="43">
         <v>846</v>
       </c>
-      <c r="O58" s="70">
+      <c r="O58" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P58" s="71">
+      <c r="P58" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q58" s="42">
@@ -28100,16 +28072,16 @@
       <c r="AB58" s="43">
         <v>1135.676856</v>
       </c>
-      <c r="AC58" s="70">
+      <c r="AC58" s="67">
         <v>23.675452</v>
       </c>
-      <c r="AD58" s="71">
+      <c r="AD58" s="67">
         <v>47.350904</v>
       </c>
       <c r="AE58" s="42">
         <v>188.99558</v>
       </c>
-      <c r="AF58" s="70">
+      <c r="AF58" s="67">
         <v>259.158063</v>
       </c>
       <c r="AG58" s="43">
@@ -28119,31 +28091,31 @@
         <v>168.859993</v>
       </c>
       <c r="AI58" s="43"/>
-      <c r="AJ58" s="70">
+      <c r="AJ58" s="67">
         <v>30</v>
       </c>
-      <c r="AK58" s="70">
+      <c r="AK58" s="67">
         <v>30</v>
       </c>
-      <c r="AL58" s="70">
+      <c r="AL58" s="67">
         <v>26.634776</v>
       </c>
-      <c r="AM58" s="70">
+      <c r="AM58" s="67">
         <v>567.838428</v>
       </c>
-      <c r="AN58" s="70">
+      <c r="AN58" s="67">
         <v>567.838428</v>
       </c>
-      <c r="AO58" s="70">
+      <c r="AO58" s="67">
         <v>567.838428</v>
       </c>
-      <c r="AP58" s="92">
+      <c r="AP58" s="67">
         <v>1135.676856</v>
       </c>
-      <c r="AQ58" s="70">
+      <c r="AQ58" s="67">
         <v>23.675452</v>
       </c>
-      <c r="AR58" s="94">
+      <c r="AR58" s="78">
         <v>47.350904</v>
       </c>
     </row>
@@ -28174,22 +28146,22 @@
       <c r="J59" s="43">
         <v>19.841049</v>
       </c>
-      <c r="K59" s="72">
+      <c r="K59" s="68">
         <v>651.127</v>
       </c>
-      <c r="L59" s="72">
+      <c r="L59" s="68">
         <v>423</v>
       </c>
-      <c r="M59" s="72">
+      <c r="M59" s="68">
         <v>423</v>
       </c>
       <c r="N59" s="43">
         <v>846</v>
       </c>
-      <c r="O59" s="70">
+      <c r="O59" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P59" s="71">
+      <c r="P59" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q59" s="42">
@@ -28226,16 +28198,16 @@
       <c r="AB59" s="43">
         <v>1302.254</v>
       </c>
-      <c r="AC59" s="70">
+      <c r="AC59" s="67">
         <v>27.148085</v>
       </c>
-      <c r="AD59" s="71">
+      <c r="AD59" s="67">
         <v>54.296171</v>
       </c>
       <c r="AE59" s="42">
         <v>219.478738</v>
       </c>
-      <c r="AF59" s="70">
+      <c r="AF59" s="67">
         <v>297.522948</v>
       </c>
       <c r="AG59" s="43">
@@ -28245,31 +28217,31 @@
         <v>168.859993</v>
       </c>
       <c r="AI59" s="43"/>
-      <c r="AJ59" s="70">
+      <c r="AJ59" s="67">
         <v>35</v>
       </c>
-      <c r="AK59" s="70">
+      <c r="AK59" s="67">
         <v>35</v>
       </c>
-      <c r="AL59" s="70">
+      <c r="AL59" s="67">
         <v>30.541472</v>
       </c>
-      <c r="AM59" s="70">
+      <c r="AM59" s="67">
         <v>651.127</v>
       </c>
-      <c r="AN59" s="70">
+      <c r="AN59" s="67">
         <v>651.127</v>
       </c>
-      <c r="AO59" s="70">
+      <c r="AO59" s="67">
         <v>651.127</v>
       </c>
-      <c r="AP59" s="92">
+      <c r="AP59" s="67">
         <v>1302.254</v>
       </c>
-      <c r="AQ59" s="70">
+      <c r="AQ59" s="67">
         <v>27.148085</v>
       </c>
-      <c r="AR59" s="94">
+      <c r="AR59" s="78">
         <v>54.296171</v>
       </c>
     </row>
@@ -28300,22 +28272,22 @@
       <c r="J60" s="43">
         <v>19.841049</v>
       </c>
-      <c r="K60" s="72">
+      <c r="K60" s="68">
         <v>731.458935</v>
       </c>
-      <c r="L60" s="72">
+      <c r="L60" s="68">
         <v>423</v>
       </c>
-      <c r="M60" s="72">
+      <c r="M60" s="68">
         <v>423</v>
       </c>
       <c r="N60" s="43">
         <v>846</v>
       </c>
-      <c r="O60" s="70">
+      <c r="O60" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P60" s="71">
+      <c r="P60" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q60" s="42">
@@ -28352,16 +28324,16 @@
       <c r="AB60" s="43">
         <v>1462.91787</v>
       </c>
-      <c r="AC60" s="70">
+      <c r="AC60" s="67">
         <v>30.497445</v>
       </c>
-      <c r="AD60" s="71">
+      <c r="AD60" s="67">
         <v>60.994889</v>
       </c>
       <c r="AE60" s="42">
         <v>249.961896</v>
       </c>
-      <c r="AF60" s="70">
+      <c r="AF60" s="67">
         <v>335.887004</v>
       </c>
       <c r="AG60" s="43">
@@ -28371,31 +28343,31 @@
         <v>168.859993</v>
       </c>
       <c r="AI60" s="43"/>
-      <c r="AJ60" s="70">
+      <c r="AJ60" s="67">
         <v>40</v>
       </c>
-      <c r="AK60" s="70">
+      <c r="AK60" s="67">
         <v>40</v>
       </c>
-      <c r="AL60" s="70">
+      <c r="AL60" s="67">
         <v>34.309486</v>
       </c>
-      <c r="AM60" s="70">
+      <c r="AM60" s="67">
         <v>731.458935</v>
       </c>
-      <c r="AN60" s="70">
+      <c r="AN60" s="67">
         <v>731.458935</v>
       </c>
-      <c r="AO60" s="70">
+      <c r="AO60" s="67">
         <v>731.458935</v>
       </c>
-      <c r="AP60" s="92">
+      <c r="AP60" s="67">
         <v>1462.91787</v>
       </c>
-      <c r="AQ60" s="70">
+      <c r="AQ60" s="67">
         <v>30.497445</v>
       </c>
-      <c r="AR60" s="94">
+      <c r="AR60" s="78">
         <v>60.994889</v>
       </c>
     </row>
@@ -28426,22 +28398,22 @@
       <c r="J61" s="43">
         <v>19.841049</v>
       </c>
-      <c r="K61" s="72">
+      <c r="K61" s="68">
         <v>808.934148</v>
       </c>
-      <c r="L61" s="72">
+      <c r="L61" s="68">
         <v>423</v>
       </c>
-      <c r="M61" s="72">
+      <c r="M61" s="68">
         <v>423</v>
       </c>
       <c r="N61" s="43">
         <v>846</v>
       </c>
-      <c r="O61" s="70">
+      <c r="O61" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P61" s="71">
+      <c r="P61" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q61" s="42">
@@ -28466,28 +28438,28 @@
       <c r="X61" s="43">
         <v>36.727049</v>
       </c>
-      <c r="Y61" s="72">
+      <c r="Y61" s="68">
         <v>808.934148</v>
       </c>
-      <c r="Z61" s="72">
+      <c r="Z61" s="68">
         <v>783</v>
       </c>
-      <c r="AA61" s="72">
+      <c r="AA61" s="68">
         <v>783</v>
       </c>
       <c r="AB61" s="43">
         <v>1566</v>
       </c>
-      <c r="AC61" s="70">
+      <c r="AC61" s="67">
         <v>32.646397</v>
       </c>
-      <c r="AD61" s="71">
+      <c r="AD61" s="67">
         <v>65.292795</v>
       </c>
       <c r="AE61" s="42">
         <v>280.445054</v>
       </c>
-      <c r="AF61" s="70">
+      <c r="AF61" s="67">
         <v>374.250244</v>
       </c>
       <c r="AG61" s="43">
@@ -28497,31 +28469,31 @@
         <v>168.859993</v>
       </c>
       <c r="AI61" s="43"/>
-      <c r="AJ61" s="70">
+      <c r="AJ61" s="67">
         <v>45</v>
       </c>
-      <c r="AK61" s="70">
+      <c r="AK61" s="67">
         <v>45</v>
       </c>
-      <c r="AL61" s="70">
+      <c r="AL61" s="67">
         <v>37.943504</v>
       </c>
-      <c r="AM61" s="70">
+      <c r="AM61" s="67">
         <v>808.934148</v>
       </c>
-      <c r="AN61" s="70">
+      <c r="AN61" s="67">
         <v>808.934148</v>
       </c>
-      <c r="AO61" s="70">
+      <c r="AO61" s="67">
         <v>808.934148</v>
       </c>
-      <c r="AP61" s="92">
+      <c r="AP61" s="67">
         <v>1617.868296</v>
       </c>
-      <c r="AQ61" s="70">
+      <c r="AQ61" s="67">
         <v>33.727696</v>
       </c>
-      <c r="AR61" s="94">
+      <c r="AR61" s="78">
         <v>67.455391</v>
       </c>
     </row>
@@ -28552,22 +28524,22 @@
       <c r="J62" s="48">
         <v>19.841049</v>
       </c>
-      <c r="K62" s="73">
+      <c r="K62" s="69">
         <v>883.649338</v>
       </c>
-      <c r="L62" s="73">
+      <c r="L62" s="69">
         <v>423</v>
       </c>
-      <c r="M62" s="73">
+      <c r="M62" s="69">
         <v>423</v>
       </c>
-      <c r="N62" s="74">
+      <c r="N62" s="48">
         <v>846</v>
       </c>
       <c r="O62" s="48">
         <v>17.63656</v>
       </c>
-      <c r="P62" s="75">
+      <c r="P62" s="48">
         <v>35.273119</v>
       </c>
       <c r="Q62" s="47">
@@ -28592,22 +28564,22 @@
       <c r="X62" s="48">
         <v>36.727049</v>
       </c>
-      <c r="Y62" s="73">
+      <c r="Y62" s="69">
         <v>883.649338</v>
       </c>
-      <c r="Z62" s="73">
+      <c r="Z62" s="69">
         <v>783</v>
       </c>
-      <c r="AA62" s="73">
+      <c r="AA62" s="69">
         <v>783</v>
       </c>
-      <c r="AB62" s="74">
+      <c r="AB62" s="48">
         <v>1566</v>
       </c>
       <c r="AC62" s="48">
         <v>32.646397</v>
       </c>
-      <c r="AD62" s="75">
+      <c r="AD62" s="48">
         <v>65.292795</v>
       </c>
       <c r="AE62" s="47">
@@ -28641,13 +28613,13 @@
       <c r="AO62" s="48">
         <v>883.649338</v>
       </c>
-      <c r="AP62" s="74">
+      <c r="AP62" s="48">
         <v>1767.298676</v>
       </c>
       <c r="AQ62" s="48">
         <v>36.84287</v>
       </c>
-      <c r="AR62" s="95">
+      <c r="AR62" s="79">
         <v>73.685741</v>
       </c>
     </row>
@@ -28837,7 +28809,7 @@
       <c r="AO66" s="52"/>
       <c r="AP66" s="52"/>
       <c r="AQ66" s="52"/>
-      <c r="AR66" s="88"/>
+      <c r="AR66" s="75"/>
     </row>
     <row r="67" ht="27" customHeight="1" spans="1:44">
       <c r="A67" s="22"/>
@@ -28873,7 +28845,7 @@
       <c r="AA67" s="52"/>
       <c r="AB67" s="52"/>
       <c r="AC67" s="52"/>
-      <c r="AD67" s="88"/>
+      <c r="AD67" s="75"/>
       <c r="AE67" s="51" t="s">
         <v>25</v>
       </c>
@@ -28889,7 +28861,7 @@
       <c r="AO67" s="52"/>
       <c r="AP67" s="52"/>
       <c r="AQ67" s="52"/>
-      <c r="AR67" s="88"/>
+      <c r="AR67" s="75"/>
     </row>
     <row r="68" ht="60" customHeight="1" spans="1:44">
       <c r="A68" s="24"/>
@@ -28920,64 +28892,64 @@
       <c r="J68" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="K68" s="76" t="s">
+      <c r="K68" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="L68" s="76" t="s">
+      <c r="L68" s="56" t="s">
         <v>36</v>
       </c>
       <c r="M68" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="N68" s="77" t="s">
+      <c r="N68" s="56" t="s">
         <v>38</v>
       </c>
       <c r="O68" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P68" s="78" t="s">
+      <c r="P68" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="Q68" s="81" t="s">
+      <c r="Q68" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="R68" s="82" t="s">
+      <c r="R68" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="S68" s="82" t="s">
+      <c r="S68" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="T68" s="82" t="s">
+      <c r="T68" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="U68" s="82" t="s">
+      <c r="U68" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="V68" s="82" t="s">
+      <c r="V68" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="W68" s="82" t="s">
+      <c r="W68" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="X68" s="82" t="s">
+      <c r="X68" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="Y68" s="82" t="s">
+      <c r="Y68" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Z68" s="82" t="s">
+      <c r="Z68" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AA68" s="82" t="s">
+      <c r="AA68" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AB68" s="89" t="s">
+      <c r="AB68" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AC68" s="82" t="s">
+      <c r="AC68" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="AD68" s="90" t="s">
+      <c r="AD68" s="76" t="s">
         <v>40</v>
       </c>
       <c r="AE68" s="55" t="s">
@@ -29013,13 +28985,13 @@
       <c r="AO68" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AP68" s="96" t="s">
+      <c r="AP68" s="56" t="s">
         <v>38</v>
       </c>
       <c r="AQ68" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AR68" s="97" t="s">
+      <c r="AR68" s="80" t="s">
         <v>40</v>
       </c>
     </row>
@@ -29066,10 +29038,10 @@
       <c r="N69" s="33">
         <v>133.586058</v>
       </c>
-      <c r="O69" s="64">
+      <c r="O69" s="62">
         <v>2.784868</v>
       </c>
-      <c r="P69" s="79">
+      <c r="P69" s="62">
         <v>5.569736</v>
       </c>
       <c r="Q69" s="32">
@@ -29108,16 +29080,16 @@
       <c r="AB69" s="33">
         <v>133.586058</v>
       </c>
-      <c r="AC69" s="64">
+      <c r="AC69" s="62">
         <v>2.784868</v>
       </c>
-      <c r="AD69" s="79">
+      <c r="AD69" s="62">
         <v>5.569736</v>
       </c>
       <c r="AE69" s="32">
         <v>36.57979</v>
       </c>
-      <c r="AF69" s="64">
+      <c r="AF69" s="62">
         <v>63.361081</v>
       </c>
       <c r="AG69" s="33">
@@ -29129,31 +29101,31 @@
       <c r="AI69" s="33">
         <v>94.031828</v>
       </c>
-      <c r="AJ69" s="64">
+      <c r="AJ69" s="62">
         <v>5</v>
       </c>
-      <c r="AK69" s="64">
+      <c r="AK69" s="62">
         <v>5</v>
       </c>
-      <c r="AL69" s="64">
+      <c r="AL69" s="62">
         <v>4.914453</v>
       </c>
-      <c r="AM69" s="64">
+      <c r="AM69" s="62">
         <v>66.793029</v>
       </c>
-      <c r="AN69" s="64">
+      <c r="AN69" s="62">
         <v>66.793029</v>
       </c>
-      <c r="AO69" s="64">
+      <c r="AO69" s="62">
         <v>66.793029</v>
       </c>
-      <c r="AP69" s="91">
+      <c r="AP69" s="62">
         <v>133.586058</v>
       </c>
-      <c r="AQ69" s="64">
+      <c r="AQ69" s="62">
         <v>2.784868</v>
       </c>
-      <c r="AR69" s="98">
+      <c r="AR69" s="63">
         <v>5.569736</v>
       </c>
     </row>
@@ -29196,10 +29168,10 @@
       <c r="N70" s="33">
         <v>264.403378</v>
       </c>
-      <c r="O70" s="64">
+      <c r="O70" s="62">
         <v>5.512016</v>
       </c>
-      <c r="P70" s="79">
+      <c r="P70" s="62">
         <v>11.024033</v>
       </c>
       <c r="Q70" s="32">
@@ -29236,16 +29208,16 @@
       <c r="AB70" s="33">
         <v>264.403378</v>
       </c>
-      <c r="AC70" s="64">
+      <c r="AC70" s="62">
         <v>5.512016</v>
       </c>
-      <c r="AD70" s="79">
+      <c r="AD70" s="62">
         <v>11.024033</v>
       </c>
       <c r="AE70" s="32">
         <v>67.062948</v>
       </c>
-      <c r="AF70" s="64">
+      <c r="AF70" s="62">
         <v>101.736942</v>
       </c>
       <c r="AG70" s="33">
@@ -29255,31 +29227,31 @@
         <v>264.878388</v>
       </c>
       <c r="AI70" s="33"/>
-      <c r="AJ70" s="64">
+      <c r="AJ70" s="62">
         <v>10</v>
       </c>
-      <c r="AK70" s="64">
+      <c r="AK70" s="62">
         <v>10</v>
       </c>
-      <c r="AL70" s="64">
+      <c r="AL70" s="62">
         <v>9.727047</v>
       </c>
-      <c r="AM70" s="64">
+      <c r="AM70" s="62">
         <v>132.201689</v>
       </c>
-      <c r="AN70" s="64">
+      <c r="AN70" s="62">
         <v>132.201689</v>
       </c>
-      <c r="AO70" s="64">
+      <c r="AO70" s="62">
         <v>132.201689</v>
       </c>
-      <c r="AP70" s="91">
+      <c r="AP70" s="62">
         <v>264.403378</v>
       </c>
-      <c r="AQ70" s="64">
+      <c r="AQ70" s="62">
         <v>5.512016</v>
       </c>
-      <c r="AR70" s="98">
+      <c r="AR70" s="63">
         <v>11.024033</v>
       </c>
     </row>
@@ -29322,10 +29294,10 @@
       <c r="N71" s="33">
         <v>392.516989</v>
       </c>
-      <c r="O71" s="64">
+      <c r="O71" s="62">
         <v>8.182801</v>
       </c>
-      <c r="P71" s="79">
+      <c r="P71" s="62">
         <v>16.365601</v>
       </c>
       <c r="Q71" s="32">
@@ -29362,16 +29334,16 @@
       <c r="AB71" s="33">
         <v>392.516989</v>
       </c>
-      <c r="AC71" s="64">
+      <c r="AC71" s="62">
         <v>8.182801</v>
       </c>
-      <c r="AD71" s="79">
+      <c r="AD71" s="62">
         <v>16.365601</v>
       </c>
       <c r="AE71" s="32">
         <v>97.546106</v>
       </c>
-      <c r="AF71" s="64">
+      <c r="AF71" s="62">
         <v>140.005015</v>
       </c>
       <c r="AG71" s="33">
@@ -29381,31 +29353,31 @@
         <v>264.878388</v>
       </c>
       <c r="AI71" s="33"/>
-      <c r="AJ71" s="64">
+      <c r="AJ71" s="62">
         <v>15</v>
       </c>
-      <c r="AK71" s="64">
+      <c r="AK71" s="62">
         <v>15</v>
       </c>
-      <c r="AL71" s="64">
+      <c r="AL71" s="62">
         <v>14.440176</v>
       </c>
-      <c r="AM71" s="64">
+      <c r="AM71" s="62">
         <v>196.258494</v>
       </c>
-      <c r="AN71" s="64">
+      <c r="AN71" s="62">
         <v>196.258494</v>
       </c>
-      <c r="AO71" s="64">
+      <c r="AO71" s="62">
         <v>196.258494</v>
       </c>
-      <c r="AP71" s="91">
+      <c r="AP71" s="62">
         <v>392.516989</v>
       </c>
-      <c r="AQ71" s="64">
+      <c r="AQ71" s="62">
         <v>8.182801</v>
       </c>
-      <c r="AR71" s="98">
+      <c r="AR71" s="63">
         <v>16.365601</v>
       </c>
     </row>
@@ -29448,10 +29420,10 @@
       <c r="N72" s="33">
         <v>517.975511</v>
       </c>
-      <c r="O72" s="64">
+      <c r="O72" s="62">
         <v>10.798234</v>
       </c>
-      <c r="P72" s="79">
+      <c r="P72" s="62">
         <v>21.596468</v>
       </c>
       <c r="Q72" s="32">
@@ -29488,16 +29460,16 @@
       <c r="AB72" s="33">
         <v>517.975511</v>
       </c>
-      <c r="AC72" s="64">
+      <c r="AC72" s="62">
         <v>10.798234</v>
       </c>
-      <c r="AD72" s="79">
+      <c r="AD72" s="62">
         <v>21.596468</v>
       </c>
       <c r="AE72" s="32">
         <v>128.029264</v>
       </c>
-      <c r="AF72" s="64">
+      <c r="AF72" s="62">
         <v>178.272211</v>
       </c>
       <c r="AG72" s="33">
@@ -29507,31 +29479,31 @@
         <v>264.878388</v>
       </c>
       <c r="AI72" s="33"/>
-      <c r="AJ72" s="64">
+      <c r="AJ72" s="62">
         <v>20</v>
       </c>
-      <c r="AK72" s="64">
+      <c r="AK72" s="62">
         <v>20</v>
       </c>
-      <c r="AL72" s="64">
+      <c r="AL72" s="62">
         <v>19.055628</v>
       </c>
-      <c r="AM72" s="64">
+      <c r="AM72" s="62">
         <v>258.987755</v>
       </c>
-      <c r="AN72" s="64">
+      <c r="AN72" s="62">
         <v>258.987755</v>
       </c>
-      <c r="AO72" s="64">
+      <c r="AO72" s="62">
         <v>258.987755</v>
       </c>
-      <c r="AP72" s="91">
+      <c r="AP72" s="62">
         <v>517.975511</v>
       </c>
-      <c r="AQ72" s="64">
+      <c r="AQ72" s="62">
         <v>10.798234</v>
       </c>
-      <c r="AR72" s="98">
+      <c r="AR72" s="63">
         <v>21.596468</v>
       </c>
     </row>
@@ -29574,10 +29546,10 @@
       <c r="N73" s="33">
         <v>640.830484</v>
       </c>
-      <c r="O73" s="64">
+      <c r="O73" s="62">
         <v>13.359391</v>
       </c>
-      <c r="P73" s="79">
+      <c r="P73" s="62">
         <v>26.718782</v>
       </c>
       <c r="Q73" s="32">
@@ -29614,16 +29586,16 @@
       <c r="AB73" s="33">
         <v>640.830484</v>
       </c>
-      <c r="AC73" s="64">
+      <c r="AC73" s="62">
         <v>13.359391</v>
       </c>
-      <c r="AD73" s="79">
+      <c r="AD73" s="62">
         <v>26.718782</v>
       </c>
       <c r="AE73" s="32">
         <v>158.512422</v>
       </c>
-      <c r="AF73" s="64">
+      <c r="AF73" s="62">
         <v>216.538993</v>
       </c>
       <c r="AG73" s="33">
@@ -29633,31 +29605,31 @@
         <v>264.878388</v>
       </c>
       <c r="AI73" s="33"/>
-      <c r="AJ73" s="64">
+      <c r="AJ73" s="62">
         <v>25</v>
       </c>
-      <c r="AK73" s="64">
+      <c r="AK73" s="62">
         <v>25</v>
       </c>
-      <c r="AL73" s="64">
+      <c r="AL73" s="62">
         <v>23.575298</v>
       </c>
-      <c r="AM73" s="64">
+      <c r="AM73" s="62">
         <v>320.415242</v>
       </c>
-      <c r="AN73" s="64">
+      <c r="AN73" s="62">
         <v>320.415242</v>
       </c>
-      <c r="AO73" s="64">
+      <c r="AO73" s="62">
         <v>320.415242</v>
       </c>
-      <c r="AP73" s="91">
+      <c r="AP73" s="62">
         <v>640.830484</v>
       </c>
-      <c r="AQ73" s="64">
+      <c r="AQ73" s="62">
         <v>13.359391</v>
       </c>
-      <c r="AR73" s="98">
+      <c r="AR73" s="63">
         <v>26.718782</v>
       </c>
     </row>
@@ -29700,10 +29672,10 @@
       <c r="N74" s="33">
         <v>761.132607</v>
       </c>
-      <c r="O74" s="64">
+      <c r="O74" s="62">
         <v>15.867329</v>
       </c>
-      <c r="P74" s="79">
+      <c r="P74" s="62">
         <v>31.734658</v>
       </c>
       <c r="Q74" s="32">
@@ -29740,16 +29712,16 @@
       <c r="AB74" s="33">
         <v>761.132607</v>
       </c>
-      <c r="AC74" s="64">
+      <c r="AC74" s="62">
         <v>15.867329</v>
       </c>
-      <c r="AD74" s="79">
+      <c r="AD74" s="62">
         <v>31.734658</v>
       </c>
       <c r="AE74" s="32">
         <v>188.99558</v>
       </c>
-      <c r="AF74" s="64">
+      <c r="AF74" s="62">
         <v>254.805369</v>
       </c>
       <c r="AG74" s="33">
@@ -29759,31 +29731,31 @@
         <v>264.878388</v>
       </c>
       <c r="AI74" s="33"/>
-      <c r="AJ74" s="64">
+      <c r="AJ74" s="62">
         <v>30</v>
       </c>
-      <c r="AK74" s="64">
+      <c r="AK74" s="62">
         <v>30</v>
       </c>
-      <c r="AL74" s="64">
+      <c r="AL74" s="62">
         <v>28.001053</v>
       </c>
-      <c r="AM74" s="64">
+      <c r="AM74" s="62">
         <v>380.566304</v>
       </c>
-      <c r="AN74" s="64">
+      <c r="AN74" s="62">
         <v>380.566304</v>
       </c>
-      <c r="AO74" s="64">
+      <c r="AO74" s="62">
         <v>380.566304</v>
       </c>
-      <c r="AP74" s="91">
+      <c r="AP74" s="62">
         <v>761.132607</v>
       </c>
-      <c r="AQ74" s="64">
+      <c r="AQ74" s="62">
         <v>15.867329</v>
       </c>
-      <c r="AR74" s="98">
+      <c r="AR74" s="63">
         <v>31.734658</v>
       </c>
     </row>
@@ -29826,10 +29798,10 @@
       <c r="N75" s="33">
         <v>878.931711</v>
       </c>
-      <c r="O75" s="64">
+      <c r="O75" s="62">
         <v>18.323087</v>
       </c>
-      <c r="P75" s="79">
+      <c r="P75" s="62">
         <v>36.646174</v>
       </c>
       <c r="Q75" s="32">
@@ -29866,16 +29838,16 @@
       <c r="AB75" s="33">
         <v>878.931711</v>
       </c>
-      <c r="AC75" s="64">
+      <c r="AC75" s="62">
         <v>18.323087</v>
       </c>
-      <c r="AD75" s="79">
+      <c r="AD75" s="62">
         <v>36.646174</v>
       </c>
       <c r="AE75" s="32">
         <v>219.478738</v>
       </c>
-      <c r="AF75" s="64">
+      <c r="AF75" s="62">
         <v>293.071345</v>
       </c>
       <c r="AG75" s="33">
@@ -29885,31 +29857,31 @@
         <v>264.878388</v>
       </c>
       <c r="AI75" s="33"/>
-      <c r="AJ75" s="64">
+      <c r="AJ75" s="62">
         <v>35</v>
       </c>
-      <c r="AK75" s="64">
+      <c r="AK75" s="62">
         <v>35</v>
       </c>
-      <c r="AL75" s="64">
+      <c r="AL75" s="62">
         <v>32.334724</v>
       </c>
-      <c r="AM75" s="64">
+      <c r="AM75" s="62">
         <v>439.465855</v>
       </c>
-      <c r="AN75" s="64">
+      <c r="AN75" s="62">
         <v>439.465855</v>
       </c>
-      <c r="AO75" s="64">
+      <c r="AO75" s="62">
         <v>439.465855</v>
       </c>
-      <c r="AP75" s="91">
+      <c r="AP75" s="62">
         <v>878.931711</v>
       </c>
-      <c r="AQ75" s="64">
+      <c r="AQ75" s="62">
         <v>18.323087</v>
       </c>
-      <c r="AR75" s="98">
+      <c r="AR75" s="63">
         <v>36.646174</v>
       </c>
     </row>
@@ -29952,10 +29924,10 @@
       <c r="N76" s="33">
         <v>994.27676</v>
       </c>
-      <c r="O76" s="64">
+      <c r="O76" s="62">
         <v>20.727685</v>
       </c>
-      <c r="P76" s="79">
+      <c r="P76" s="62">
         <v>41.455369</v>
       </c>
       <c r="Q76" s="32">
@@ -29992,16 +29964,16 @@
       <c r="AB76" s="33">
         <v>994.27676</v>
       </c>
-      <c r="AC76" s="64">
+      <c r="AC76" s="62">
         <v>20.727685</v>
       </c>
-      <c r="AD76" s="79">
+      <c r="AD76" s="62">
         <v>41.455369</v>
       </c>
       <c r="AE76" s="32">
         <v>249.961896</v>
       </c>
-      <c r="AF76" s="64">
+      <c r="AF76" s="62">
         <v>331.336925</v>
       </c>
       <c r="AG76" s="33">
@@ -30011,31 +29983,31 @@
         <v>264.878388</v>
       </c>
       <c r="AI76" s="33"/>
-      <c r="AJ76" s="64">
+      <c r="AJ76" s="62">
         <v>40</v>
       </c>
-      <c r="AK76" s="64">
+      <c r="AK76" s="62">
         <v>40</v>
       </c>
-      <c r="AL76" s="64">
+      <c r="AL76" s="62">
         <v>36.578115</v>
       </c>
-      <c r="AM76" s="64">
+      <c r="AM76" s="62">
         <v>497.13838</v>
       </c>
-      <c r="AN76" s="64">
+      <c r="AN76" s="62">
         <v>497.13838</v>
       </c>
-      <c r="AO76" s="64">
+      <c r="AO76" s="62">
         <v>497.13838</v>
       </c>
-      <c r="AP76" s="91">
+      <c r="AP76" s="62">
         <v>994.27676</v>
       </c>
-      <c r="AQ76" s="64">
+      <c r="AQ76" s="62">
         <v>20.727685</v>
       </c>
-      <c r="AR76" s="98">
+      <c r="AR76" s="63">
         <v>41.455369</v>
       </c>
     </row>
@@ -30078,10 +30050,10 @@
       <c r="N77" s="33">
         <v>1107.215865</v>
       </c>
-      <c r="O77" s="64">
+      <c r="O77" s="62">
         <v>23.082126</v>
       </c>
-      <c r="P77" s="79">
+      <c r="P77" s="62">
         <v>46.164252</v>
       </c>
       <c r="Q77" s="32">
@@ -30118,16 +30090,16 @@
       <c r="AB77" s="33">
         <v>1107.215865</v>
       </c>
-      <c r="AC77" s="64">
+      <c r="AC77" s="62">
         <v>23.082126</v>
       </c>
-      <c r="AD77" s="79">
+      <c r="AD77" s="62">
         <v>46.164252</v>
       </c>
       <c r="AE77" s="32">
         <v>280.445054</v>
       </c>
-      <c r="AF77" s="64">
+      <c r="AF77" s="62">
         <v>369.602115</v>
       </c>
       <c r="AG77" s="33">
@@ -30137,31 +30109,31 @@
         <v>264.878388</v>
       </c>
       <c r="AI77" s="33"/>
-      <c r="AJ77" s="64">
+      <c r="AJ77" s="62">
         <v>45</v>
       </c>
-      <c r="AK77" s="64">
+      <c r="AK77" s="62">
         <v>45</v>
       </c>
-      <c r="AL77" s="64">
+      <c r="AL77" s="62">
         <v>40.732994</v>
       </c>
-      <c r="AM77" s="64">
+      <c r="AM77" s="62">
         <v>553.607932</v>
       </c>
-      <c r="AN77" s="64">
+      <c r="AN77" s="62">
         <v>553.607932</v>
       </c>
-      <c r="AO77" s="64">
+      <c r="AO77" s="62">
         <v>553.607932</v>
       </c>
-      <c r="AP77" s="91">
+      <c r="AP77" s="62">
         <v>1107.215865</v>
       </c>
-      <c r="AQ77" s="64">
+      <c r="AQ77" s="62">
         <v>23.082126</v>
       </c>
-      <c r="AR77" s="98">
+      <c r="AR77" s="63">
         <v>46.164252</v>
       </c>
     </row>
@@ -30192,22 +30164,22 @@
       <c r="J78" s="37">
         <v>41.05615</v>
       </c>
-      <c r="K78" s="67">
+      <c r="K78" s="65">
         <v>608.898142</v>
       </c>
-      <c r="L78" s="67">
+      <c r="L78" s="65">
         <v>558</v>
       </c>
-      <c r="M78" s="67">
+      <c r="M78" s="65">
         <v>558</v>
       </c>
-      <c r="N78" s="68">
+      <c r="N78" s="37">
         <v>1116</v>
       </c>
       <c r="O78" s="37">
         <v>23.265249</v>
       </c>
-      <c r="P78" s="80">
+      <c r="P78" s="37">
         <v>46.530497</v>
       </c>
       <c r="Q78" s="36">
@@ -30241,13 +30213,13 @@
       <c r="AA78" s="37">
         <v>608.898142</v>
       </c>
-      <c r="AB78" s="68">
+      <c r="AB78" s="37">
         <v>1217.796283</v>
       </c>
       <c r="AC78" s="37">
         <v>25.387396</v>
       </c>
-      <c r="AD78" s="80">
+      <c r="AD78" s="37">
         <v>50.774791</v>
       </c>
       <c r="AE78" s="36">
@@ -30281,13 +30253,13 @@
       <c r="AO78" s="37">
         <v>608.898142</v>
       </c>
-      <c r="AP78" s="68">
+      <c r="AP78" s="37">
         <v>1217.796283</v>
       </c>
       <c r="AQ78" s="37">
         <v>25.387396</v>
       </c>
-      <c r="AR78" s="99">
+      <c r="AR78" s="66">
         <v>50.774791</v>
       </c>
     </row>
@@ -30341,7 +30313,7 @@
       <c r="AO79" s="52"/>
       <c r="AP79" s="52"/>
       <c r="AQ79" s="52"/>
-      <c r="AR79" s="88"/>
+      <c r="AR79" s="75"/>
     </row>
     <row r="80" spans="1:44">
       <c r="A80" s="40" t="s">
@@ -30386,10 +30358,10 @@
       <c r="N80" s="43">
         <v>134.077236</v>
       </c>
-      <c r="O80" s="70">
+      <c r="O80" s="67">
         <v>2.795108</v>
       </c>
-      <c r="P80" s="71">
+      <c r="P80" s="67">
         <v>5.590215</v>
       </c>
       <c r="Q80" s="42">
@@ -30428,16 +30400,16 @@
       <c r="AB80" s="43">
         <v>134.077236</v>
       </c>
-      <c r="AC80" s="70">
+      <c r="AC80" s="67">
         <v>2.795108</v>
       </c>
-      <c r="AD80" s="71">
+      <c r="AD80" s="67">
         <v>5.590215</v>
       </c>
       <c r="AE80" s="42">
         <v>36.57979</v>
       </c>
-      <c r="AF80" s="70">
+      <c r="AF80" s="67">
         <v>63.747467</v>
       </c>
       <c r="AG80" s="43">
@@ -30449,31 +30421,31 @@
       <c r="AI80" s="43">
         <v>83.728128</v>
       </c>
-      <c r="AJ80" s="70">
+      <c r="AJ80" s="67">
         <v>5</v>
       </c>
-      <c r="AK80" s="70">
+      <c r="AK80" s="67">
         <v>5</v>
       </c>
-      <c r="AL80" s="70">
+      <c r="AL80" s="67">
         <v>4.910777</v>
       </c>
-      <c r="AM80" s="70">
+      <c r="AM80" s="67">
         <v>67.038618</v>
       </c>
-      <c r="AN80" s="70">
+      <c r="AN80" s="67">
         <v>67.038618</v>
       </c>
-      <c r="AO80" s="70">
+      <c r="AO80" s="67">
         <v>67.038618</v>
       </c>
-      <c r="AP80" s="92">
+      <c r="AP80" s="67">
         <v>134.077236</v>
       </c>
-      <c r="AQ80" s="70">
+      <c r="AQ80" s="67">
         <v>2.795108</v>
       </c>
-      <c r="AR80" s="100">
+      <c r="AR80" s="78">
         <v>5.590215</v>
       </c>
     </row>
@@ -30516,10 +30488,10 @@
       <c r="N81" s="43">
         <v>265.273658</v>
       </c>
-      <c r="O81" s="70">
+      <c r="O81" s="67">
         <v>5.530159</v>
       </c>
-      <c r="P81" s="71">
+      <c r="P81" s="67">
         <v>11.060318</v>
       </c>
       <c r="Q81" s="42">
@@ -30556,16 +30528,16 @@
       <c r="AB81" s="43">
         <v>265.273658</v>
       </c>
-      <c r="AC81" s="70">
+      <c r="AC81" s="67">
         <v>5.530159</v>
       </c>
-      <c r="AD81" s="71">
+      <c r="AD81" s="67">
         <v>11.060318</v>
       </c>
       <c r="AE81" s="42">
         <v>67.062948</v>
       </c>
-      <c r="AF81" s="70">
+      <c r="AF81" s="67">
         <v>102.13098</v>
       </c>
       <c r="AG81" s="43">
@@ -30575,31 +30547,31 @@
         <v>263.71064</v>
       </c>
       <c r="AI81" s="43"/>
-      <c r="AJ81" s="70">
+      <c r="AJ81" s="67">
         <v>10</v>
       </c>
-      <c r="AK81" s="70">
+      <c r="AK81" s="67">
         <v>10</v>
       </c>
-      <c r="AL81" s="70">
+      <c r="AL81" s="67">
         <v>9.71604</v>
       </c>
-      <c r="AM81" s="70">
+      <c r="AM81" s="67">
         <v>132.636829</v>
       </c>
-      <c r="AN81" s="70">
+      <c r="AN81" s="67">
         <v>132.636829</v>
       </c>
-      <c r="AO81" s="70">
+      <c r="AO81" s="67">
         <v>132.636829</v>
       </c>
-      <c r="AP81" s="92">
+      <c r="AP81" s="67">
         <v>265.273658</v>
       </c>
-      <c r="AQ81" s="70">
+      <c r="AQ81" s="67">
         <v>5.530159</v>
       </c>
-      <c r="AR81" s="100">
+      <c r="AR81" s="78">
         <v>11.060318</v>
       </c>
     </row>
@@ -30642,10 +30614,10 @@
       <c r="N82" s="43">
         <v>393.660093</v>
       </c>
-      <c r="O82" s="70">
+      <c r="O82" s="67">
         <v>8.206631</v>
       </c>
-      <c r="P82" s="71">
+      <c r="P82" s="67">
         <v>16.413262</v>
       </c>
       <c r="Q82" s="42">
@@ -30682,16 +30654,16 @@
       <c r="AB82" s="43">
         <v>393.660093</v>
       </c>
-      <c r="AC82" s="70">
+      <c r="AC82" s="67">
         <v>8.206631</v>
       </c>
-      <c r="AD82" s="71">
+      <c r="AD82" s="67">
         <v>16.413262</v>
       </c>
       <c r="AE82" s="42">
         <v>97.546106</v>
       </c>
-      <c r="AF82" s="70">
+      <c r="AF82" s="67">
         <v>140.40268</v>
       </c>
       <c r="AG82" s="43">
@@ -30701,31 +30673,31 @@
         <v>263.71064</v>
       </c>
       <c r="AI82" s="43"/>
-      <c r="AJ82" s="70">
+      <c r="AJ82" s="67">
         <v>15</v>
       </c>
-      <c r="AK82" s="70">
+      <c r="AK82" s="67">
         <v>15</v>
       </c>
-      <c r="AL82" s="70">
+      <c r="AL82" s="67">
         <v>14.418383</v>
       </c>
-      <c r="AM82" s="70">
+      <c r="AM82" s="67">
         <v>196.830047</v>
       </c>
-      <c r="AN82" s="70">
+      <c r="AN82" s="67">
         <v>196.830047</v>
       </c>
-      <c r="AO82" s="70">
+      <c r="AO82" s="67">
         <v>196.830047</v>
       </c>
-      <c r="AP82" s="92">
+      <c r="AP82" s="67">
         <v>393.660093</v>
       </c>
-      <c r="AQ82" s="70">
+      <c r="AQ82" s="67">
         <v>8.206631</v>
       </c>
-      <c r="AR82" s="100">
+      <c r="AR82" s="78">
         <v>16.413262</v>
       </c>
     </row>
@@ -30768,10 +30740,10 @@
       <c r="N83" s="43">
         <v>519.289564</v>
       </c>
-      <c r="O83" s="70">
+      <c r="O83" s="67">
         <v>10.825628</v>
       </c>
-      <c r="P83" s="71">
+      <c r="P83" s="67">
         <v>21.651256</v>
       </c>
       <c r="Q83" s="42">
@@ -30808,16 +30780,16 @@
       <c r="AB83" s="43">
         <v>519.289564</v>
       </c>
-      <c r="AC83" s="70">
+      <c r="AC83" s="67">
         <v>10.825628</v>
       </c>
-      <c r="AD83" s="71">
+      <c r="AD83" s="67">
         <v>21.651256</v>
       </c>
       <c r="AE83" s="42">
         <v>128.029264</v>
       </c>
-      <c r="AF83" s="70">
+      <c r="AF83" s="67">
         <v>178.673466</v>
       </c>
       <c r="AG83" s="43">
@@ -30827,31 +30799,31 @@
         <v>263.71064</v>
       </c>
       <c r="AI83" s="43"/>
-      <c r="AJ83" s="70">
+      <c r="AJ83" s="67">
         <v>20</v>
       </c>
-      <c r="AK83" s="70">
+      <c r="AK83" s="67">
         <v>20</v>
       </c>
-      <c r="AL83" s="70">
+      <c r="AL83" s="67">
         <v>19.019748</v>
       </c>
-      <c r="AM83" s="70">
+      <c r="AM83" s="67">
         <v>259.644782</v>
       </c>
-      <c r="AN83" s="70">
+      <c r="AN83" s="67">
         <v>259.644782</v>
       </c>
-      <c r="AO83" s="70">
+      <c r="AO83" s="67">
         <v>259.644782</v>
       </c>
-      <c r="AP83" s="92">
+      <c r="AP83" s="67">
         <v>519.289564</v>
       </c>
-      <c r="AQ83" s="70">
+      <c r="AQ83" s="67">
         <v>10.825628</v>
       </c>
-      <c r="AR83" s="100">
+      <c r="AR83" s="78">
         <v>21.651256</v>
       </c>
     </row>
@@ -30894,10 +30866,10 @@
       <c r="N84" s="43">
         <v>642.218157</v>
       </c>
-      <c r="O84" s="70">
+      <c r="O84" s="67">
         <v>13.38832</v>
       </c>
-      <c r="P84" s="71">
+      <c r="P84" s="67">
         <v>26.77664</v>
       </c>
       <c r="Q84" s="42">
@@ -30934,16 +30906,16 @@
       <c r="AB84" s="43">
         <v>642.218157</v>
       </c>
-      <c r="AC84" s="70">
+      <c r="AC84" s="67">
         <v>13.38832</v>
       </c>
-      <c r="AD84" s="71">
+      <c r="AD84" s="67">
         <v>26.77664</v>
       </c>
       <c r="AE84" s="42">
         <v>158.512422</v>
       </c>
-      <c r="AF84" s="70">
+      <c r="AF84" s="67">
         <v>216.94383</v>
       </c>
       <c r="AG84" s="43">
@@ -30953,31 +30925,31 @@
         <v>263.71064</v>
       </c>
       <c r="AI84" s="43"/>
-      <c r="AJ84" s="70">
+      <c r="AJ84" s="67">
         <v>25</v>
       </c>
-      <c r="AK84" s="70">
+      <c r="AK84" s="67">
         <v>25</v>
       </c>
-      <c r="AL84" s="70">
+      <c r="AL84" s="67">
         <v>23.522189</v>
       </c>
-      <c r="AM84" s="70">
+      <c r="AM84" s="67">
         <v>321.109078</v>
       </c>
-      <c r="AN84" s="70">
+      <c r="AN84" s="67">
         <v>321.109078</v>
       </c>
-      <c r="AO84" s="70">
+      <c r="AO84" s="67">
         <v>321.109078</v>
       </c>
-      <c r="AP84" s="92">
+      <c r="AP84" s="67">
         <v>642.218157</v>
       </c>
-      <c r="AQ84" s="70">
+      <c r="AQ84" s="67">
         <v>13.38832</v>
       </c>
-      <c r="AR84" s="100">
+      <c r="AR84" s="78">
         <v>26.77664</v>
       </c>
     </row>
@@ -31020,10 +30992,10 @@
       <c r="N85" s="43">
         <v>762.500961</v>
       </c>
-      <c r="O85" s="70">
+      <c r="O85" s="67">
         <v>15.895855</v>
       </c>
-      <c r="P85" s="71">
+      <c r="P85" s="67">
         <v>31.791711</v>
       </c>
       <c r="Q85" s="42">
@@ -31060,16 +31032,16 @@
       <c r="AB85" s="43">
         <v>762.500961</v>
       </c>
-      <c r="AC85" s="70">
+      <c r="AC85" s="67">
         <v>15.895855</v>
       </c>
-      <c r="AD85" s="71">
+      <c r="AD85" s="67">
         <v>31.791711</v>
       </c>
       <c r="AE85" s="42">
         <v>188.99558</v>
       </c>
-      <c r="AF85" s="70">
+      <c r="AF85" s="67">
         <v>255.213778</v>
       </c>
       <c r="AG85" s="43">
@@ -31079,31 +31051,31 @@
         <v>263.71064</v>
       </c>
       <c r="AI85" s="43"/>
-      <c r="AJ85" s="70">
+      <c r="AJ85" s="67">
         <v>30</v>
       </c>
-      <c r="AK85" s="70">
+      <c r="AK85" s="67">
         <v>30</v>
       </c>
-      <c r="AL85" s="70">
+      <c r="AL85" s="67">
         <v>27.927724</v>
       </c>
-      <c r="AM85" s="70">
+      <c r="AM85" s="67">
         <v>381.250481</v>
       </c>
-      <c r="AN85" s="70">
+      <c r="AN85" s="67">
         <v>381.250481</v>
       </c>
-      <c r="AO85" s="70">
+      <c r="AO85" s="67">
         <v>381.250481</v>
       </c>
-      <c r="AP85" s="92">
+      <c r="AP85" s="67">
         <v>762.500961</v>
       </c>
-      <c r="AQ85" s="70">
+      <c r="AQ85" s="67">
         <v>15.895855</v>
       </c>
-      <c r="AR85" s="100">
+      <c r="AR85" s="78">
         <v>31.791711</v>
       </c>
     </row>
@@ -31134,22 +31106,22 @@
       <c r="J86" s="43">
         <v>30.986</v>
       </c>
-      <c r="K86" s="72">
+      <c r="K86" s="68">
         <v>440.096026</v>
       </c>
-      <c r="L86" s="72">
+      <c r="L86" s="68">
         <v>423</v>
       </c>
-      <c r="M86" s="72">
+      <c r="M86" s="68">
         <v>423</v>
       </c>
       <c r="N86" s="43">
         <v>846</v>
       </c>
-      <c r="O86" s="70">
+      <c r="O86" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P86" s="71">
+      <c r="P86" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q86" s="42">
@@ -31186,16 +31158,16 @@
       <c r="AB86" s="43">
         <v>880.192051</v>
       </c>
-      <c r="AC86" s="70">
+      <c r="AC86" s="67">
         <v>18.349361</v>
       </c>
-      <c r="AD86" s="71">
+      <c r="AD86" s="67">
         <v>36.698722</v>
       </c>
       <c r="AE86" s="42">
         <v>219.478738</v>
       </c>
-      <c r="AF86" s="70">
+      <c r="AF86" s="67">
         <v>293.483316</v>
       </c>
       <c r="AG86" s="43">
@@ -31205,31 +31177,31 @@
         <v>263.71064</v>
       </c>
       <c r="AI86" s="43"/>
-      <c r="AJ86" s="70">
+      <c r="AJ86" s="67">
         <v>35</v>
       </c>
-      <c r="AK86" s="70">
+      <c r="AK86" s="67">
         <v>35</v>
       </c>
-      <c r="AL86" s="70">
+      <c r="AL86" s="67">
         <v>32.238335</v>
       </c>
-      <c r="AM86" s="70">
+      <c r="AM86" s="67">
         <v>440.096026</v>
       </c>
-      <c r="AN86" s="70">
+      <c r="AN86" s="67">
         <v>440.096026</v>
       </c>
-      <c r="AO86" s="70">
+      <c r="AO86" s="67">
         <v>440.096026</v>
       </c>
-      <c r="AP86" s="92">
+      <c r="AP86" s="67">
         <v>880.192051</v>
       </c>
-      <c r="AQ86" s="70">
+      <c r="AQ86" s="67">
         <v>18.349361</v>
       </c>
-      <c r="AR86" s="100">
+      <c r="AR86" s="78">
         <v>36.698722</v>
       </c>
     </row>
@@ -31260,22 +31232,22 @@
       <c r="J87" s="43">
         <v>30.986</v>
       </c>
-      <c r="K87" s="72">
+      <c r="K87" s="68">
         <v>497.672244</v>
       </c>
-      <c r="L87" s="72">
+      <c r="L87" s="68">
         <v>423</v>
       </c>
-      <c r="M87" s="72">
+      <c r="M87" s="68">
         <v>423</v>
       </c>
       <c r="N87" s="43">
         <v>846</v>
       </c>
-      <c r="O87" s="70">
+      <c r="O87" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P87" s="71">
+      <c r="P87" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q87" s="42">
@@ -31312,16 +31284,16 @@
       <c r="AB87" s="43">
         <v>995.344489</v>
       </c>
-      <c r="AC87" s="70">
+      <c r="AC87" s="67">
         <v>20.749944</v>
       </c>
-      <c r="AD87" s="71">
+      <c r="AD87" s="67">
         <v>41.499887</v>
       </c>
       <c r="AE87" s="42">
         <v>249.961896</v>
       </c>
-      <c r="AF87" s="70">
+      <c r="AF87" s="67">
         <v>331.752451</v>
       </c>
       <c r="AG87" s="43">
@@ -31331,31 +31303,31 @@
         <v>263.71064</v>
       </c>
       <c r="AI87" s="43"/>
-      <c r="AJ87" s="70">
+      <c r="AJ87" s="67">
         <v>40</v>
       </c>
-      <c r="AK87" s="70">
+      <c r="AK87" s="67">
         <v>40</v>
       </c>
-      <c r="AL87" s="70">
+      <c r="AL87" s="67">
         <v>36.455963</v>
       </c>
-      <c r="AM87" s="70">
+      <c r="AM87" s="67">
         <v>497.672244</v>
       </c>
-      <c r="AN87" s="70">
+      <c r="AN87" s="67">
         <v>497.672244</v>
       </c>
-      <c r="AO87" s="70">
+      <c r="AO87" s="67">
         <v>497.672244</v>
       </c>
-      <c r="AP87" s="92">
+      <c r="AP87" s="67">
         <v>995.344489</v>
       </c>
-      <c r="AQ87" s="70">
+      <c r="AQ87" s="67">
         <v>20.749944</v>
       </c>
-      <c r="AR87" s="100">
+      <c r="AR87" s="78">
         <v>41.499887</v>
       </c>
     </row>
@@ -31386,22 +31358,22 @@
       <c r="J88" s="43">
         <v>30.986</v>
       </c>
-      <c r="K88" s="72">
+      <c r="K88" s="68">
         <v>554.005168</v>
       </c>
-      <c r="L88" s="72">
+      <c r="L88" s="68">
         <v>423</v>
       </c>
-      <c r="M88" s="72">
+      <c r="M88" s="68">
         <v>423</v>
       </c>
       <c r="N88" s="43">
         <v>846</v>
       </c>
-      <c r="O88" s="70">
+      <c r="O88" s="67">
         <v>17.63656</v>
       </c>
-      <c r="P88" s="71">
+      <c r="P88" s="67">
         <v>35.273119</v>
       </c>
       <c r="Q88" s="42">
@@ -31438,16 +31410,16 @@
       <c r="AB88" s="43">
         <v>1108.010336</v>
       </c>
-      <c r="AC88" s="70">
+      <c r="AC88" s="67">
         <v>23.098688</v>
       </c>
-      <c r="AD88" s="71">
+      <c r="AD88" s="67">
         <v>46.197376</v>
       </c>
       <c r="AE88" s="42">
         <v>280.445054</v>
       </c>
-      <c r="AF88" s="70">
+      <c r="AF88" s="67">
         <v>370.021188</v>
       </c>
       <c r="AG88" s="43">
@@ -31457,31 +31429,31 @@
         <v>263.71064</v>
       </c>
       <c r="AI88" s="43"/>
-      <c r="AJ88" s="70">
+      <c r="AJ88" s="67">
         <v>45</v>
       </c>
-      <c r="AK88" s="70">
+      <c r="AK88" s="67">
         <v>45</v>
       </c>
-      <c r="AL88" s="70">
+      <c r="AL88" s="67">
         <v>40.582516</v>
       </c>
-      <c r="AM88" s="70">
+      <c r="AM88" s="67">
         <v>554.005168</v>
       </c>
-      <c r="AN88" s="70">
+      <c r="AN88" s="67">
         <v>554.005168</v>
       </c>
-      <c r="AO88" s="70">
+      <c r="AO88" s="67">
         <v>554.005168</v>
       </c>
-      <c r="AP88" s="92">
+      <c r="AP88" s="67">
         <v>1108.010336</v>
       </c>
-      <c r="AQ88" s="70">
+      <c r="AQ88" s="67">
         <v>23.098688</v>
       </c>
-      <c r="AR88" s="100">
+      <c r="AR88" s="78">
         <v>46.197376</v>
       </c>
     </row>
@@ -31512,22 +31484,22 @@
       <c r="J89" s="48">
         <v>30.986</v>
       </c>
-      <c r="K89" s="73">
+      <c r="K89" s="69">
         <v>609.120334</v>
       </c>
-      <c r="L89" s="73">
+      <c r="L89" s="69">
         <v>423</v>
       </c>
-      <c r="M89" s="73">
+      <c r="M89" s="69">
         <v>423</v>
       </c>
-      <c r="N89" s="74">
+      <c r="N89" s="48">
         <v>846</v>
       </c>
       <c r="O89" s="48">
         <v>17.63656</v>
       </c>
-      <c r="P89" s="75">
+      <c r="P89" s="48">
         <v>35.273119</v>
       </c>
       <c r="Q89" s="47">
@@ -31561,13 +31533,13 @@
       <c r="AA89" s="48">
         <v>609.120334</v>
       </c>
-      <c r="AB89" s="74">
+      <c r="AB89" s="48">
         <v>1218.240669</v>
       </c>
       <c r="AC89" s="48">
         <v>25.39666</v>
       </c>
-      <c r="AD89" s="75">
+      <c r="AD89" s="48">
         <v>50.793319</v>
       </c>
       <c r="AE89" s="47">
@@ -31601,13 +31573,13 @@
       <c r="AO89" s="48">
         <v>609.120334</v>
       </c>
-      <c r="AP89" s="74">
+      <c r="AP89" s="48">
         <v>1218.240669</v>
       </c>
       <c r="AQ89" s="48">
         <v>25.39666</v>
       </c>
-      <c r="AR89" s="101">
+      <c r="AR89" s="79">
         <v>50.793319</v>
       </c>
     </row>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_detach_on_depletion_or_end_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/flight_extension_detach_on_depletion_or_end_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1309,9 +1309,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -22757,8 +22754,8 @@
   <sheetPr/>
   <dimension ref="A1:AR89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="Q103" sqref="Q103"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="T30" workbookViewId="0">
+      <selection activeCell="AI64" sqref="AI64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -22822,9 +22819,9 @@
       </c>
       <c r="I3" s="59"/>
       <c r="J3" s="10"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:10">
       <c r="A4" s="11" t="s">
@@ -23082,7 +23079,7 @@
       <c r="AD14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AE14" s="75" t="s">
+      <c r="AE14" s="74" t="s">
         <v>27</v>
       </c>
       <c r="AF14" s="36" t="s">
@@ -24294,13 +24291,13 @@
       <c r="J24" s="38">
         <v>40.956658</v>
       </c>
-      <c r="K24" s="65">
+      <c r="K24" s="13">
         <v>610.266872</v>
       </c>
-      <c r="L24" s="65">
+      <c r="L24" s="13">
         <v>558</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="13">
         <v>558</v>
       </c>
       <c r="N24" s="38">
@@ -24309,7 +24306,7 @@
       <c r="O24" s="38">
         <v>23.265249</v>
       </c>
-      <c r="P24" s="66">
+      <c r="P24" s="65">
         <v>46.530497</v>
       </c>
       <c r="Q24" s="38">
@@ -24389,7 +24386,7 @@
       <c r="AQ24" s="38">
         <v>25.444463</v>
       </c>
-      <c r="AR24" s="66">
+      <c r="AR24" s="65">
         <v>50.888927</v>
       </c>
     </row>
@@ -24443,7 +24440,7 @@
       <c r="AO25" s="53"/>
       <c r="AP25" s="53"/>
       <c r="AQ25" s="53"/>
-      <c r="AR25" s="76"/>
+      <c r="AR25" s="75"/>
     </row>
     <row r="26" spans="1:44">
       <c r="A26" s="41" t="s">
@@ -24488,10 +24485,10 @@
       <c r="N26" s="44">
         <v>134.822683</v>
       </c>
-      <c r="O26" s="67">
+      <c r="O26" s="66">
         <v>2.810648</v>
       </c>
-      <c r="P26" s="67">
+      <c r="P26" s="66">
         <v>5.621296</v>
       </c>
       <c r="Q26" s="43">
@@ -24530,16 +24527,16 @@
       <c r="AB26" s="44">
         <v>134.822683</v>
       </c>
-      <c r="AC26" s="67">
+      <c r="AC26" s="66">
         <v>2.810648</v>
       </c>
-      <c r="AD26" s="67">
+      <c r="AD26" s="66">
         <v>5.621296</v>
       </c>
       <c r="AE26" s="43">
         <v>103.642737</v>
       </c>
-      <c r="AF26" s="67">
+      <c r="AF26" s="66">
         <v>137.790454</v>
       </c>
       <c r="AG26" s="44">
@@ -24551,31 +24548,31 @@
       <c r="AI26" s="44">
         <v>82.041926</v>
       </c>
-      <c r="AJ26" s="67">
+      <c r="AJ26" s="66">
         <v>5</v>
       </c>
-      <c r="AK26" s="67">
+      <c r="AK26" s="66">
         <v>5</v>
       </c>
-      <c r="AL26" s="67">
+      <c r="AL26" s="66">
         <v>4.838632</v>
       </c>
-      <c r="AM26" s="67">
+      <c r="AM26" s="66">
         <v>67.411342</v>
       </c>
-      <c r="AN26" s="67">
+      <c r="AN26" s="66">
         <v>67.411342</v>
       </c>
-      <c r="AO26" s="67">
+      <c r="AO26" s="66">
         <v>67.411342</v>
       </c>
-      <c r="AP26" s="67">
+      <c r="AP26" s="66">
         <v>134.822683</v>
       </c>
-      <c r="AQ26" s="67">
+      <c r="AQ26" s="66">
         <v>2.810648</v>
       </c>
-      <c r="AR26" s="78">
+      <c r="AR26" s="77">
         <v>5.621296</v>
       </c>
     </row>
@@ -24618,10 +24615,10 @@
       <c r="N27" s="44">
         <v>267.191959</v>
       </c>
-      <c r="O27" s="67">
+      <c r="O27" s="66">
         <v>5.57015</v>
       </c>
-      <c r="P27" s="67">
+      <c r="P27" s="66">
         <v>11.1403</v>
       </c>
       <c r="Q27" s="43">
@@ -24658,16 +24655,16 @@
       <c r="AB27" s="44">
         <v>267.191959</v>
       </c>
-      <c r="AC27" s="67">
+      <c r="AC27" s="66">
         <v>5.57015</v>
       </c>
-      <c r="AD27" s="67">
+      <c r="AD27" s="66">
         <v>11.1403</v>
       </c>
       <c r="AE27" s="43">
         <v>134.125895</v>
       </c>
-      <c r="AF27" s="67">
+      <c r="AF27" s="66">
         <v>176.171866</v>
       </c>
       <c r="AG27" s="44">
@@ -24677,31 +24674,31 @@
         <v>258.399767</v>
       </c>
       <c r="AI27" s="44"/>
-      <c r="AJ27" s="67">
+      <c r="AJ27" s="66">
         <v>10</v>
       </c>
-      <c r="AK27" s="67">
+      <c r="AK27" s="66">
         <v>10</v>
       </c>
-      <c r="AL27" s="67">
+      <c r="AL27" s="66">
         <v>9.589214</v>
       </c>
-      <c r="AM27" s="67">
+      <c r="AM27" s="66">
         <v>133.59598</v>
       </c>
-      <c r="AN27" s="67">
+      <c r="AN27" s="66">
         <v>133.59598</v>
       </c>
-      <c r="AO27" s="67">
+      <c r="AO27" s="66">
         <v>133.59598</v>
       </c>
-      <c r="AP27" s="67">
+      <c r="AP27" s="66">
         <v>267.191959</v>
       </c>
-      <c r="AQ27" s="67">
+      <c r="AQ27" s="66">
         <v>5.57015</v>
       </c>
-      <c r="AR27" s="79">
+      <c r="AR27" s="78">
         <v>11.1403</v>
       </c>
     </row>
@@ -24744,10 +24741,10 @@
       <c r="N28" s="44">
         <v>397.160472</v>
       </c>
-      <c r="O28" s="67">
+      <c r="O28" s="66">
         <v>8.279603</v>
       </c>
-      <c r="P28" s="67">
+      <c r="P28" s="66">
         <v>16.559206</v>
       </c>
       <c r="Q28" s="43">
@@ -24784,16 +24781,16 @@
       <c r="AB28" s="44">
         <v>397.160472</v>
       </c>
-      <c r="AC28" s="67">
+      <c r="AC28" s="66">
         <v>8.279603</v>
       </c>
-      <c r="AD28" s="67">
+      <c r="AD28" s="66">
         <v>16.559206</v>
       </c>
       <c r="AE28" s="43">
         <v>164.609053</v>
       </c>
-      <c r="AF28" s="67">
+      <c r="AF28" s="66">
         <v>214.352646</v>
       </c>
       <c r="AG28" s="44">
@@ -24803,31 +24800,31 @@
         <v>258.399767</v>
       </c>
       <c r="AI28" s="44"/>
-      <c r="AJ28" s="67">
+      <c r="AJ28" s="66">
         <v>15</v>
       </c>
-      <c r="AK28" s="67">
+      <c r="AK28" s="66">
         <v>15</v>
       </c>
-      <c r="AL28" s="67">
+      <c r="AL28" s="66">
         <v>14.253635</v>
       </c>
-      <c r="AM28" s="67">
+      <c r="AM28" s="66">
         <v>198.580236</v>
       </c>
-      <c r="AN28" s="67">
+      <c r="AN28" s="66">
         <v>198.580236</v>
       </c>
-      <c r="AO28" s="67">
+      <c r="AO28" s="66">
         <v>198.580236</v>
       </c>
-      <c r="AP28" s="67">
+      <c r="AP28" s="66">
         <v>397.160472</v>
       </c>
-      <c r="AQ28" s="67">
+      <c r="AQ28" s="66">
         <v>8.279603</v>
       </c>
-      <c r="AR28" s="79">
+      <c r="AR28" s="78">
         <v>16.559206</v>
       </c>
     </row>
@@ -24870,10 +24867,10 @@
       <c r="N29" s="44">
         <v>524.755151</v>
       </c>
-      <c r="O29" s="67">
+      <c r="O29" s="66">
         <v>10.939569</v>
       </c>
-      <c r="P29" s="67">
+      <c r="P29" s="66">
         <v>21.879138</v>
       </c>
       <c r="Q29" s="43">
@@ -24910,16 +24907,16 @@
       <c r="AB29" s="44">
         <v>524.755151</v>
       </c>
-      <c r="AC29" s="67">
+      <c r="AC29" s="66">
         <v>10.939569</v>
       </c>
-      <c r="AD29" s="67">
+      <c r="AD29" s="66">
         <v>21.879138</v>
       </c>
       <c r="AE29" s="43">
         <v>195.092212</v>
       </c>
-      <c r="AF29" s="67">
+      <c r="AF29" s="66">
         <v>252.532832</v>
       </c>
       <c r="AG29" s="44">
@@ -24929,31 +24926,31 @@
         <v>258.399767</v>
       </c>
       <c r="AI29" s="44"/>
-      <c r="AJ29" s="67">
+      <c r="AJ29" s="66">
         <v>20</v>
       </c>
-      <c r="AK29" s="67">
+      <c r="AK29" s="66">
         <v>20</v>
       </c>
-      <c r="AL29" s="67">
+      <c r="AL29" s="66">
         <v>18.832862</v>
       </c>
-      <c r="AM29" s="67">
+      <c r="AM29" s="66">
         <v>262.377575</v>
       </c>
-      <c r="AN29" s="67">
+      <c r="AN29" s="66">
         <v>262.377575</v>
       </c>
-      <c r="AO29" s="67">
+      <c r="AO29" s="66">
         <v>262.377575</v>
       </c>
-      <c r="AP29" s="67">
+      <c r="AP29" s="66">
         <v>524.755151</v>
       </c>
-      <c r="AQ29" s="67">
+      <c r="AQ29" s="66">
         <v>10.939569</v>
       </c>
-      <c r="AR29" s="79">
+      <c r="AR29" s="78">
         <v>21.879138</v>
       </c>
     </row>
@@ -24996,10 +24993,10 @@
       <c r="N30" s="44">
         <v>650.009231</v>
       </c>
-      <c r="O30" s="67">
+      <c r="O30" s="66">
         <v>13.550741</v>
       </c>
-      <c r="P30" s="67">
+      <c r="P30" s="66">
         <v>27.101481</v>
       </c>
       <c r="Q30" s="43">
@@ -25036,16 +25033,16 @@
       <c r="AB30" s="44">
         <v>650.009231</v>
       </c>
-      <c r="AC30" s="67">
+      <c r="AC30" s="66">
         <v>13.550741</v>
       </c>
-      <c r="AD30" s="67">
+      <c r="AD30" s="66">
         <v>27.101481</v>
       </c>
       <c r="AE30" s="43">
         <v>225.57537</v>
       </c>
-      <c r="AF30" s="67">
+      <c r="AF30" s="66">
         <v>290.712827</v>
       </c>
       <c r="AG30" s="44">
@@ -25055,31 +25052,31 @@
         <v>258.399767</v>
       </c>
       <c r="AI30" s="44"/>
-      <c r="AJ30" s="67">
+      <c r="AJ30" s="66">
         <v>25</v>
       </c>
-      <c r="AK30" s="67">
+      <c r="AK30" s="66">
         <v>25</v>
       </c>
-      <c r="AL30" s="67">
+      <c r="AL30" s="66">
         <v>23.328088</v>
       </c>
-      <c r="AM30" s="67">
+      <c r="AM30" s="66">
         <v>325.004615</v>
       </c>
-      <c r="AN30" s="67">
+      <c r="AN30" s="66">
         <v>325.004615</v>
       </c>
-      <c r="AO30" s="67">
+      <c r="AO30" s="66">
         <v>325.004615</v>
       </c>
-      <c r="AP30" s="67">
+      <c r="AP30" s="66">
         <v>650.009231</v>
       </c>
-      <c r="AQ30" s="67">
+      <c r="AQ30" s="66">
         <v>13.550741</v>
       </c>
-      <c r="AR30" s="79">
+      <c r="AR30" s="78">
         <v>27.101481</v>
       </c>
     </row>
@@ -25122,10 +25119,10 @@
       <c r="N31" s="44">
         <v>772.955899</v>
       </c>
-      <c r="O31" s="67">
+      <c r="O31" s="66">
         <v>16.113809</v>
       </c>
-      <c r="P31" s="67">
+      <c r="P31" s="66">
         <v>32.227619</v>
       </c>
       <c r="Q31" s="43">
@@ -25162,16 +25159,16 @@
       <c r="AB31" s="44">
         <v>772.955899</v>
       </c>
-      <c r="AC31" s="67">
+      <c r="AC31" s="66">
         <v>16.113809</v>
       </c>
-      <c r="AD31" s="67">
+      <c r="AD31" s="66">
         <v>32.227619</v>
       </c>
       <c r="AE31" s="43">
         <v>256.058528</v>
       </c>
-      <c r="AF31" s="67">
+      <c r="AF31" s="66">
         <v>328.892637</v>
       </c>
       <c r="AG31" s="44">
@@ -25181,31 +25178,31 @@
         <v>258.399767</v>
       </c>
       <c r="AI31" s="44"/>
-      <c r="AJ31" s="67">
+      <c r="AJ31" s="66">
         <v>30</v>
       </c>
-      <c r="AK31" s="67">
+      <c r="AK31" s="66">
         <v>30</v>
       </c>
-      <c r="AL31" s="67">
+      <c r="AL31" s="66">
         <v>27.740503</v>
       </c>
-      <c r="AM31" s="67">
+      <c r="AM31" s="66">
         <v>386.47795</v>
       </c>
-      <c r="AN31" s="67">
+      <c r="AN31" s="66">
         <v>386.47795</v>
       </c>
-      <c r="AO31" s="67">
+      <c r="AO31" s="66">
         <v>386.47795</v>
       </c>
-      <c r="AP31" s="67">
+      <c r="AP31" s="66">
         <v>772.955899</v>
       </c>
-      <c r="AQ31" s="67">
+      <c r="AQ31" s="66">
         <v>16.113809</v>
       </c>
-      <c r="AR31" s="79">
+      <c r="AR31" s="78">
         <v>32.227619</v>
       </c>
     </row>
@@ -25236,22 +25233,22 @@
       <c r="J32" s="44">
         <v>30.361973</v>
       </c>
-      <c r="K32" s="68">
+      <c r="K32" s="67">
         <v>446.814123</v>
       </c>
-      <c r="L32" s="68">
+      <c r="L32" s="67">
         <v>423</v>
       </c>
-      <c r="M32" s="68">
+      <c r="M32" s="67">
         <v>423</v>
       </c>
       <c r="N32" s="44">
         <v>846</v>
       </c>
-      <c r="O32" s="67">
+      <c r="O32" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P32" s="67">
+      <c r="P32" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q32" s="43">
@@ -25288,16 +25285,16 @@
       <c r="AB32" s="44">
         <v>893.628246</v>
       </c>
-      <c r="AC32" s="67">
+      <c r="AC32" s="66">
         <v>18.629465</v>
       </c>
-      <c r="AD32" s="67">
+      <c r="AD32" s="66">
         <v>37.258931</v>
       </c>
       <c r="AE32" s="43">
         <v>286.541686</v>
       </c>
-      <c r="AF32" s="67">
+      <c r="AF32" s="66">
         <v>367.072262</v>
       </c>
       <c r="AG32" s="44">
@@ -25307,31 +25304,31 @@
         <v>258.399767</v>
       </c>
       <c r="AI32" s="44"/>
-      <c r="AJ32" s="67">
+      <c r="AJ32" s="66">
         <v>35</v>
       </c>
-      <c r="AK32" s="67">
+      <c r="AK32" s="66">
         <v>35</v>
       </c>
-      <c r="AL32" s="67">
+      <c r="AL32" s="66">
         <v>32.071296</v>
       </c>
-      <c r="AM32" s="67">
+      <c r="AM32" s="66">
         <v>446.814123</v>
       </c>
-      <c r="AN32" s="67">
+      <c r="AN32" s="66">
         <v>446.814123</v>
       </c>
-      <c r="AO32" s="67">
+      <c r="AO32" s="66">
         <v>446.814123</v>
       </c>
-      <c r="AP32" s="67">
+      <c r="AP32" s="66">
         <v>893.628246</v>
       </c>
-      <c r="AQ32" s="67">
+      <c r="AQ32" s="66">
         <v>18.629465</v>
       </c>
-      <c r="AR32" s="79">
+      <c r="AR32" s="78">
         <v>37.258931</v>
       </c>
     </row>
@@ -25362,22 +25359,22 @@
       <c r="J33" s="44">
         <v>30.361973</v>
       </c>
-      <c r="K33" s="68">
+      <c r="K33" s="67">
         <v>506.029621</v>
       </c>
-      <c r="L33" s="68">
+      <c r="L33" s="67">
         <v>423</v>
       </c>
-      <c r="M33" s="68">
+      <c r="M33" s="67">
         <v>423</v>
       </c>
       <c r="N33" s="44">
         <v>846</v>
       </c>
-      <c r="O33" s="67">
+      <c r="O33" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P33" s="67">
+      <c r="P33" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q33" s="43">
@@ -25414,16 +25411,16 @@
       <c r="AB33" s="44">
         <v>1012.059241</v>
       </c>
-      <c r="AC33" s="67">
+      <c r="AC33" s="66">
         <v>21.098396</v>
       </c>
-      <c r="AD33" s="67">
+      <c r="AD33" s="66">
         <v>42.196792</v>
       </c>
       <c r="AE33" s="43">
         <v>317.024844</v>
       </c>
-      <c r="AF33" s="67">
+      <c r="AF33" s="66">
         <v>405.251706</v>
       </c>
       <c r="AG33" s="44">
@@ -25433,31 +25430,31 @@
         <v>258.399767</v>
       </c>
       <c r="AI33" s="44"/>
-      <c r="AJ33" s="67">
+      <c r="AJ33" s="66">
         <v>40</v>
       </c>
-      <c r="AK33" s="67">
+      <c r="AK33" s="66">
         <v>40</v>
       </c>
-      <c r="AL33" s="67">
+      <c r="AL33" s="66">
         <v>36.321649</v>
       </c>
-      <c r="AM33" s="67">
+      <c r="AM33" s="66">
         <v>506.029621</v>
       </c>
-      <c r="AN33" s="67">
+      <c r="AN33" s="66">
         <v>506.029621</v>
       </c>
-      <c r="AO33" s="67">
+      <c r="AO33" s="66">
         <v>506.029621</v>
       </c>
-      <c r="AP33" s="67">
+      <c r="AP33" s="66">
         <v>1012.059241</v>
       </c>
-      <c r="AQ33" s="67">
+      <c r="AQ33" s="66">
         <v>21.098396</v>
       </c>
-      <c r="AR33" s="79">
+      <c r="AR33" s="78">
         <v>42.196792</v>
       </c>
     </row>
@@ -25488,22 +25485,22 @@
       <c r="J34" s="44">
         <v>30.361973</v>
       </c>
-      <c r="K34" s="68">
+      <c r="K34" s="67">
         <v>564.140859</v>
       </c>
-      <c r="L34" s="68">
+      <c r="L34" s="67">
         <v>423</v>
       </c>
-      <c r="M34" s="68">
+      <c r="M34" s="67">
         <v>423</v>
       </c>
       <c r="N34" s="44">
         <v>846</v>
       </c>
-      <c r="O34" s="67">
+      <c r="O34" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P34" s="67">
+      <c r="P34" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q34" s="43">
@@ -25540,16 +25537,16 @@
       <c r="AB34" s="44">
         <v>1128.281717</v>
       </c>
-      <c r="AC34" s="67">
+      <c r="AC34" s="66">
         <v>23.521286</v>
       </c>
-      <c r="AD34" s="67">
+      <c r="AD34" s="66">
         <v>47.042571</v>
       </c>
       <c r="AE34" s="43">
         <v>347.508002</v>
       </c>
-      <c r="AF34" s="67">
+      <c r="AF34" s="66">
         <v>443.430971</v>
       </c>
       <c r="AG34" s="44">
@@ -25559,31 +25556,31 @@
         <v>258.399767</v>
       </c>
       <c r="AI34" s="44"/>
-      <c r="AJ34" s="67">
+      <c r="AJ34" s="66">
         <v>45</v>
       </c>
-      <c r="AK34" s="67">
+      <c r="AK34" s="66">
         <v>45</v>
       </c>
-      <c r="AL34" s="67">
+      <c r="AL34" s="66">
         <v>40.492741</v>
       </c>
-      <c r="AM34" s="67">
+      <c r="AM34" s="66">
         <v>564.140859</v>
       </c>
-      <c r="AN34" s="67">
+      <c r="AN34" s="66">
         <v>564.140859</v>
       </c>
-      <c r="AO34" s="67">
+      <c r="AO34" s="66">
         <v>564.140859</v>
       </c>
-      <c r="AP34" s="67">
+      <c r="AP34" s="66">
         <v>1128.281717</v>
       </c>
-      <c r="AQ34" s="67">
+      <c r="AQ34" s="66">
         <v>23.521286</v>
       </c>
-      <c r="AR34" s="79">
+      <c r="AR34" s="78">
         <v>47.042571</v>
       </c>
     </row>
@@ -25614,13 +25611,13 @@
       <c r="J35" s="49">
         <v>30.361973</v>
       </c>
-      <c r="K35" s="69">
+      <c r="K35" s="68">
         <v>621.164173</v>
       </c>
-      <c r="L35" s="69">
+      <c r="L35" s="68">
         <v>423</v>
       </c>
-      <c r="M35" s="69">
+      <c r="M35" s="68">
         <v>423</v>
       </c>
       <c r="N35" s="49">
@@ -25709,7 +25706,7 @@
       <c r="AQ35" s="49">
         <v>25.898815</v>
       </c>
-      <c r="AR35" s="80">
+      <c r="AR35" s="79">
         <v>51.797631</v>
       </c>
     </row>
@@ -25899,7 +25896,7 @@
       <c r="AO39" s="53"/>
       <c r="AP39" s="53"/>
       <c r="AQ39" s="53"/>
-      <c r="AR39" s="76"/>
+      <c r="AR39" s="75"/>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:44">
       <c r="A40" s="23"/>
@@ -25935,7 +25932,7 @@
       <c r="AA40" s="53"/>
       <c r="AB40" s="53"/>
       <c r="AC40" s="53"/>
-      <c r="AD40" s="76"/>
+      <c r="AD40" s="75"/>
       <c r="AE40" s="52" t="s">
         <v>25</v>
       </c>
@@ -25951,7 +25948,7 @@
       <c r="AO40" s="53"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="53"/>
-      <c r="AR40" s="76"/>
+      <c r="AR40" s="75"/>
     </row>
     <row r="41" ht="60" customHeight="1" spans="1:44">
       <c r="A41" s="25"/>
@@ -25997,91 +25994,91 @@
       <c r="O41" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="P41" s="70" t="s">
+      <c r="P41" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" s="72" t="s">
+      <c r="Q41" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="R41" s="73" t="s">
+      <c r="R41" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="S41" s="73" t="s">
+      <c r="S41" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="73" t="s">
+      <c r="T41" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="U41" s="73" t="s">
+      <c r="U41" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="V41" s="73" t="s">
+      <c r="V41" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="W41" s="73" t="s">
+      <c r="W41" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="X41" s="73" t="s">
+      <c r="X41" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="Y41" s="73" t="s">
+      <c r="Y41" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Z41" s="73" t="s">
+      <c r="Z41" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AA41" s="73" t="s">
+      <c r="AA41" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AB41" s="73" t="s">
+      <c r="AB41" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AC41" s="73" t="s">
+      <c r="AC41" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="AD41" s="77" t="s">
+      <c r="AD41" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="AE41" s="72" t="s">
+      <c r="AE41" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AF41" s="73" t="s">
+      <c r="AF41" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="AG41" s="73" t="s">
+      <c r="AG41" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AH41" s="73" t="s">
+      <c r="AH41" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AI41" s="73" t="s">
+      <c r="AI41" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AJ41" s="73" t="s">
+      <c r="AJ41" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AK41" s="73" t="s">
+      <c r="AK41" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AL41" s="73" t="s">
+      <c r="AL41" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AM41" s="73" t="s">
+      <c r="AM41" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="AN41" s="73" t="s">
+      <c r="AN41" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AO41" s="73" t="s">
+      <c r="AO41" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AP41" s="73" t="s">
+      <c r="AP41" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AQ41" s="73" t="s">
+      <c r="AQ41" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="AR41" s="77" t="s">
+      <c r="AR41" s="76" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26750,13 +26747,13 @@
       <c r="J47" s="34">
         <v>25.768693</v>
       </c>
-      <c r="K47" s="71">
+      <c r="K47" s="70">
         <v>558.292125</v>
       </c>
-      <c r="L47" s="71">
+      <c r="L47" s="70">
         <v>558</v>
       </c>
-      <c r="M47" s="71">
+      <c r="M47" s="70">
         <v>558</v>
       </c>
       <c r="N47" s="34">
@@ -26876,13 +26873,13 @@
       <c r="J48" s="34">
         <v>25.768693</v>
       </c>
-      <c r="K48" s="71">
+      <c r="K48" s="70">
         <v>640.636821</v>
       </c>
-      <c r="L48" s="71">
+      <c r="L48" s="70">
         <v>558</v>
       </c>
-      <c r="M48" s="71">
+      <c r="M48" s="70">
         <v>558</v>
       </c>
       <c r="N48" s="34">
@@ -27002,13 +26999,13 @@
       <c r="J49" s="34">
         <v>25.768693</v>
       </c>
-      <c r="K49" s="71">
+      <c r="K49" s="70">
         <v>720.180525</v>
       </c>
-      <c r="L49" s="71">
+      <c r="L49" s="70">
         <v>558</v>
       </c>
-      <c r="M49" s="71">
+      <c r="M49" s="70">
         <v>558</v>
       </c>
       <c r="N49" s="34">
@@ -27128,13 +27125,13 @@
       <c r="J50" s="34">
         <v>25.768693</v>
       </c>
-      <c r="K50" s="71">
+      <c r="K50" s="70">
         <v>797.013387</v>
       </c>
-      <c r="L50" s="71">
+      <c r="L50" s="70">
         <v>558</v>
       </c>
-      <c r="M50" s="71">
+      <c r="M50" s="70">
         <v>558</v>
       </c>
       <c r="N50" s="34">
@@ -27254,13 +27251,13 @@
       <c r="J51" s="38">
         <v>25.768693</v>
       </c>
-      <c r="K51" s="65">
+      <c r="K51" s="13">
         <v>871.222837</v>
       </c>
-      <c r="L51" s="65">
+      <c r="L51" s="13">
         <v>558</v>
       </c>
-      <c r="M51" s="65">
+      <c r="M51" s="13">
         <v>558</v>
       </c>
       <c r="N51" s="38">
@@ -27349,7 +27346,7 @@
       <c r="AQ51" s="38">
         <v>36.32476</v>
       </c>
-      <c r="AR51" s="66">
+      <c r="AR51" s="65">
         <v>72.64952</v>
       </c>
     </row>
@@ -27403,7 +27400,7 @@
       <c r="AO52" s="53"/>
       <c r="AP52" s="53"/>
       <c r="AQ52" s="53"/>
-      <c r="AR52" s="76"/>
+      <c r="AR52" s="75"/>
     </row>
     <row r="53" spans="1:44">
       <c r="A53" s="41" t="s">
@@ -27448,10 +27445,10 @@
       <c r="N53" s="44">
         <v>203.014128</v>
       </c>
-      <c r="O53" s="67">
+      <c r="O53" s="66">
         <v>4.232235</v>
       </c>
-      <c r="P53" s="67">
+      <c r="P53" s="66">
         <v>8.46447</v>
       </c>
       <c r="Q53" s="43">
@@ -27490,16 +27487,16 @@
       <c r="AB53" s="44">
         <v>203.014128</v>
       </c>
-      <c r="AC53" s="67">
+      <c r="AC53" s="66">
         <v>4.232235</v>
       </c>
-      <c r="AD53" s="67">
+      <c r="AD53" s="66">
         <v>8.46447</v>
       </c>
       <c r="AE53" s="43">
         <v>103.642737</v>
       </c>
-      <c r="AF53" s="67">
+      <c r="AF53" s="66">
         <v>150.948547</v>
       </c>
       <c r="AG53" s="44">
@@ -27511,31 +27508,31 @@
       <c r="AI53" s="44">
         <v>52.515216</v>
       </c>
-      <c r="AJ53" s="67">
+      <c r="AJ53" s="66">
         <v>5</v>
       </c>
-      <c r="AK53" s="67">
+      <c r="AK53" s="66">
         <v>5</v>
       </c>
-      <c r="AL53" s="67">
+      <c r="AL53" s="66">
         <v>4.663749</v>
       </c>
-      <c r="AM53" s="67">
+      <c r="AM53" s="66">
         <v>101.507064</v>
       </c>
-      <c r="AN53" s="67">
+      <c r="AN53" s="66">
         <v>101.507064</v>
       </c>
-      <c r="AO53" s="67">
+      <c r="AO53" s="66">
         <v>101.507064</v>
       </c>
-      <c r="AP53" s="67">
+      <c r="AP53" s="66">
         <v>203.014128</v>
       </c>
-      <c r="AQ53" s="67">
+      <c r="AQ53" s="66">
         <v>4.232235</v>
       </c>
-      <c r="AR53" s="79">
+      <c r="AR53" s="78">
         <v>8.46447</v>
       </c>
     </row>
@@ -27578,10 +27575,10 @@
       <c r="N54" s="44">
         <v>398.844338</v>
       </c>
-      <c r="O54" s="67">
+      <c r="O54" s="66">
         <v>8.314707</v>
       </c>
-      <c r="P54" s="67">
+      <c r="P54" s="66">
         <v>16.629413</v>
       </c>
       <c r="Q54" s="43">
@@ -27618,16 +27615,16 @@
       <c r="AB54" s="44">
         <v>398.844338</v>
       </c>
-      <c r="AC54" s="67">
+      <c r="AC54" s="66">
         <v>8.314707</v>
       </c>
-      <c r="AD54" s="67">
+      <c r="AD54" s="66">
         <v>16.629413</v>
       </c>
       <c r="AE54" s="43">
         <v>134.125895</v>
       </c>
-      <c r="AF54" s="67">
+      <c r="AF54" s="66">
         <v>190.093764</v>
       </c>
       <c r="AG54" s="44">
@@ -27637,31 +27634,31 @@
         <v>165.402257</v>
       </c>
       <c r="AI54" s="44"/>
-      <c r="AJ54" s="67">
+      <c r="AJ54" s="66">
         <v>10</v>
       </c>
-      <c r="AK54" s="67">
+      <c r="AK54" s="66">
         <v>10</v>
       </c>
-      <c r="AL54" s="67">
+      <c r="AL54" s="66">
         <v>9.162466</v>
       </c>
-      <c r="AM54" s="67">
+      <c r="AM54" s="66">
         <v>199.422169</v>
       </c>
-      <c r="AN54" s="67">
+      <c r="AN54" s="66">
         <v>199.422169</v>
       </c>
-      <c r="AO54" s="67">
+      <c r="AO54" s="66">
         <v>199.422169</v>
       </c>
-      <c r="AP54" s="67">
+      <c r="AP54" s="66">
         <v>398.844338</v>
       </c>
-      <c r="AQ54" s="67">
+      <c r="AQ54" s="66">
         <v>8.314707</v>
       </c>
-      <c r="AR54" s="79">
+      <c r="AR54" s="78">
         <v>16.629413</v>
       </c>
     </row>
@@ -27704,10 +27701,10 @@
       <c r="N55" s="44">
         <v>587.937537</v>
       </c>
-      <c r="O55" s="67">
+      <c r="O55" s="66">
         <v>12.256732</v>
       </c>
-      <c r="P55" s="67">
+      <c r="P55" s="66">
         <v>24.513464</v>
       </c>
       <c r="Q55" s="43">
@@ -27744,16 +27741,16 @@
       <c r="AB55" s="44">
         <v>587.937537</v>
       </c>
-      <c r="AC55" s="67">
+      <c r="AC55" s="66">
         <v>12.256732</v>
       </c>
-      <c r="AD55" s="67">
+      <c r="AD55" s="66">
         <v>24.513464</v>
       </c>
       <c r="AE55" s="43">
         <v>164.609053</v>
       </c>
-      <c r="AF55" s="67">
+      <c r="AF55" s="66">
         <v>228.465511</v>
       </c>
       <c r="AG55" s="44">
@@ -27763,31 +27760,31 @@
         <v>165.402257</v>
       </c>
       <c r="AI55" s="44"/>
-      <c r="AJ55" s="67">
+      <c r="AJ55" s="66">
         <v>15</v>
       </c>
-      <c r="AK55" s="67">
+      <c r="AK55" s="66">
         <v>15</v>
       </c>
-      <c r="AL55" s="67">
+      <c r="AL55" s="66">
         <v>13.506416</v>
       </c>
-      <c r="AM55" s="67">
+      <c r="AM55" s="66">
         <v>293.968768</v>
       </c>
-      <c r="AN55" s="67">
+      <c r="AN55" s="66">
         <v>293.968768</v>
       </c>
-      <c r="AO55" s="67">
+      <c r="AO55" s="66">
         <v>293.968768</v>
       </c>
-      <c r="AP55" s="67">
+      <c r="AP55" s="66">
         <v>587.937537</v>
       </c>
-      <c r="AQ55" s="67">
+      <c r="AQ55" s="66">
         <v>12.256732</v>
       </c>
-      <c r="AR55" s="79">
+      <c r="AR55" s="78">
         <v>24.513464</v>
       </c>
     </row>
@@ -27830,10 +27827,10 @@
       <c r="N56" s="44">
         <v>770.448869</v>
       </c>
-      <c r="O56" s="67">
+      <c r="O56" s="66">
         <v>16.061545</v>
       </c>
-      <c r="P56" s="67">
+      <c r="P56" s="66">
         <v>32.123091</v>
       </c>
       <c r="Q56" s="43">
@@ -27870,16 +27867,16 @@
       <c r="AB56" s="44">
         <v>770.448869</v>
       </c>
-      <c r="AC56" s="67">
+      <c r="AC56" s="66">
         <v>16.061545</v>
       </c>
-      <c r="AD56" s="67">
+      <c r="AD56" s="66">
         <v>32.123091</v>
       </c>
       <c r="AE56" s="43">
         <v>195.092212</v>
       </c>
-      <c r="AF56" s="67">
+      <c r="AF56" s="66">
         <v>266.831107</v>
       </c>
       <c r="AG56" s="44">
@@ -27889,31 +27886,31 @@
         <v>165.402257</v>
       </c>
       <c r="AI56" s="44"/>
-      <c r="AJ56" s="67">
+      <c r="AJ56" s="66">
         <v>20</v>
       </c>
-      <c r="AK56" s="67">
+      <c r="AK56" s="66">
         <v>20</v>
       </c>
-      <c r="AL56" s="67">
+      <c r="AL56" s="66">
         <v>17.699164</v>
       </c>
-      <c r="AM56" s="67">
+      <c r="AM56" s="66">
         <v>385.224435</v>
       </c>
-      <c r="AN56" s="67">
+      <c r="AN56" s="66">
         <v>385.224435</v>
       </c>
-      <c r="AO56" s="67">
+      <c r="AO56" s="66">
         <v>385.224435</v>
       </c>
-      <c r="AP56" s="67">
+      <c r="AP56" s="66">
         <v>770.448869</v>
       </c>
-      <c r="AQ56" s="67">
+      <c r="AQ56" s="66">
         <v>16.061545</v>
       </c>
-      <c r="AR56" s="79">
+      <c r="AR56" s="78">
         <v>32.123091</v>
       </c>
     </row>
@@ -27944,22 +27941,22 @@
       <c r="J57" s="44">
         <v>19.434765</v>
       </c>
-      <c r="K57" s="68">
+      <c r="K57" s="67">
         <v>473.297771</v>
       </c>
-      <c r="L57" s="68">
+      <c r="L57" s="67">
         <v>423</v>
       </c>
-      <c r="M57" s="68">
+      <c r="M57" s="67">
         <v>423</v>
       </c>
       <c r="N57" s="44">
         <v>846</v>
       </c>
-      <c r="O57" s="67">
+      <c r="O57" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P57" s="67">
+      <c r="P57" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q57" s="43">
@@ -27996,16 +27993,16 @@
       <c r="AB57" s="44">
         <v>946.595543</v>
       </c>
-      <c r="AC57" s="67">
+      <c r="AC57" s="66">
         <v>19.733674</v>
       </c>
-      <c r="AD57" s="67">
+      <c r="AD57" s="66">
         <v>39.467349</v>
       </c>
       <c r="AE57" s="43">
         <v>225.57537</v>
       </c>
-      <c r="AF57" s="67">
+      <c r="AF57" s="66">
         <v>305.195825</v>
       </c>
       <c r="AG57" s="44">
@@ -28015,31 +28012,31 @@
         <v>165.402257</v>
       </c>
       <c r="AI57" s="44"/>
-      <c r="AJ57" s="67">
+      <c r="AJ57" s="66">
         <v>25</v>
       </c>
-      <c r="AK57" s="67">
+      <c r="AK57" s="66">
         <v>25</v>
       </c>
-      <c r="AL57" s="67">
+      <c r="AL57" s="66">
         <v>21.7457</v>
       </c>
-      <c r="AM57" s="67">
+      <c r="AM57" s="66">
         <v>473.297771</v>
       </c>
-      <c r="AN57" s="67">
+      <c r="AN57" s="66">
         <v>473.297771</v>
       </c>
-      <c r="AO57" s="67">
+      <c r="AO57" s="66">
         <v>473.297771</v>
       </c>
-      <c r="AP57" s="67">
+      <c r="AP57" s="66">
         <v>946.595543</v>
       </c>
-      <c r="AQ57" s="67">
+      <c r="AQ57" s="66">
         <v>19.733674</v>
       </c>
-      <c r="AR57" s="79">
+      <c r="AR57" s="78">
         <v>39.467349</v>
       </c>
     </row>
@@ -28070,22 +28067,22 @@
       <c r="J58" s="44">
         <v>19.434765</v>
       </c>
-      <c r="K58" s="68">
+      <c r="K58" s="67">
         <v>558.294519</v>
       </c>
-      <c r="L58" s="68">
+      <c r="L58" s="67">
         <v>423</v>
       </c>
-      <c r="M58" s="68">
+      <c r="M58" s="67">
         <v>423</v>
       </c>
       <c r="N58" s="44">
         <v>846</v>
       </c>
-      <c r="O58" s="67">
+      <c r="O58" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P58" s="67">
+      <c r="P58" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q58" s="43">
@@ -28122,16 +28119,16 @@
       <c r="AB58" s="44">
         <v>1116.589038</v>
       </c>
-      <c r="AC58" s="67">
+      <c r="AC58" s="66">
         <v>23.277528</v>
       </c>
-      <c r="AD58" s="67">
+      <c r="AD58" s="66">
         <v>46.555057</v>
       </c>
       <c r="AE58" s="43">
         <v>256.058528</v>
       </c>
-      <c r="AF58" s="67">
+      <c r="AF58" s="66">
         <v>343.559716</v>
       </c>
       <c r="AG58" s="44">
@@ -28141,31 +28138,31 @@
         <v>165.402257</v>
       </c>
       <c r="AI58" s="44"/>
-      <c r="AJ58" s="67">
+      <c r="AJ58" s="66">
         <v>30</v>
       </c>
-      <c r="AK58" s="67">
+      <c r="AK58" s="66">
         <v>30</v>
       </c>
-      <c r="AL58" s="67">
+      <c r="AL58" s="66">
         <v>25.650881</v>
       </c>
-      <c r="AM58" s="67">
+      <c r="AM58" s="66">
         <v>558.294519</v>
       </c>
-      <c r="AN58" s="67">
+      <c r="AN58" s="66">
         <v>558.294519</v>
       </c>
-      <c r="AO58" s="67">
+      <c r="AO58" s="66">
         <v>558.294519</v>
       </c>
-      <c r="AP58" s="67">
+      <c r="AP58" s="66">
         <v>1116.589038</v>
       </c>
-      <c r="AQ58" s="67">
+      <c r="AQ58" s="66">
         <v>23.277528</v>
       </c>
-      <c r="AR58" s="79">
+      <c r="AR58" s="78">
         <v>46.555057</v>
       </c>
     </row>
@@ -28196,22 +28193,22 @@
       <c r="J59" s="44">
         <v>19.434765</v>
       </c>
-      <c r="K59" s="68">
+      <c r="K59" s="67">
         <v>640.31715</v>
       </c>
-      <c r="L59" s="68">
+      <c r="L59" s="67">
         <v>423</v>
       </c>
-      <c r="M59" s="68">
+      <c r="M59" s="67">
         <v>423</v>
       </c>
       <c r="N59" s="44">
         <v>846</v>
       </c>
-      <c r="O59" s="67">
+      <c r="O59" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P59" s="67">
+      <c r="P59" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q59" s="43">
@@ -28248,16 +28245,16 @@
       <c r="AB59" s="44">
         <v>1280.634301</v>
       </c>
-      <c r="AC59" s="67">
+      <c r="AC59" s="66">
         <v>26.697379</v>
       </c>
-      <c r="AD59" s="67">
+      <c r="AD59" s="66">
         <v>53.394759</v>
       </c>
       <c r="AE59" s="43">
         <v>286.541686</v>
       </c>
-      <c r="AF59" s="67">
+      <c r="AF59" s="66">
         <v>381.922796</v>
       </c>
       <c r="AG59" s="44">
@@ -28267,31 +28264,31 @@
         <v>165.402257</v>
       </c>
       <c r="AI59" s="44"/>
-      <c r="AJ59" s="67">
+      <c r="AJ59" s="66">
         <v>35</v>
       </c>
-      <c r="AK59" s="67">
+      <c r="AK59" s="66">
         <v>35</v>
       </c>
-      <c r="AL59" s="67">
+      <c r="AL59" s="66">
         <v>29.419417</v>
       </c>
-      <c r="AM59" s="67">
+      <c r="AM59" s="66">
         <v>640.31715</v>
       </c>
-      <c r="AN59" s="67">
+      <c r="AN59" s="66">
         <v>640.31715</v>
       </c>
-      <c r="AO59" s="67">
+      <c r="AO59" s="66">
         <v>640.31715</v>
       </c>
-      <c r="AP59" s="67">
+      <c r="AP59" s="66">
         <v>1280.634301</v>
       </c>
-      <c r="AQ59" s="67">
+      <c r="AQ59" s="66">
         <v>26.697379</v>
       </c>
-      <c r="AR59" s="79">
+      <c r="AR59" s="78">
         <v>53.394759</v>
       </c>
     </row>
@@ -28322,22 +28319,22 @@
       <c r="J60" s="44">
         <v>19.434765</v>
       </c>
-      <c r="K60" s="68">
+      <c r="K60" s="67">
         <v>719.464931</v>
       </c>
-      <c r="L60" s="68">
+      <c r="L60" s="67">
         <v>423</v>
       </c>
-      <c r="M60" s="68">
+      <c r="M60" s="67">
         <v>423</v>
       </c>
       <c r="N60" s="44">
         <v>846</v>
       </c>
-      <c r="O60" s="67">
+      <c r="O60" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P60" s="67">
+      <c r="P60" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q60" s="43">
@@ -28374,16 +28371,16 @@
       <c r="AB60" s="44">
         <v>1438.929862</v>
       </c>
-      <c r="AC60" s="67">
+      <c r="AC60" s="66">
         <v>29.997367</v>
       </c>
-      <c r="AD60" s="67">
+      <c r="AD60" s="66">
         <v>59.994733</v>
       </c>
       <c r="AE60" s="43">
         <v>317.024844</v>
       </c>
-      <c r="AF60" s="67">
+      <c r="AF60" s="66">
         <v>420.285076</v>
       </c>
       <c r="AG60" s="44">
@@ -28393,31 +28390,31 @@
         <v>165.402257</v>
       </c>
       <c r="AI60" s="44"/>
-      <c r="AJ60" s="67">
+      <c r="AJ60" s="66">
         <v>40</v>
       </c>
-      <c r="AK60" s="67">
+      <c r="AK60" s="66">
         <v>40</v>
       </c>
-      <c r="AL60" s="67">
+      <c r="AL60" s="66">
         <v>33.055868</v>
       </c>
-      <c r="AM60" s="67">
+      <c r="AM60" s="66">
         <v>719.464931</v>
       </c>
-      <c r="AN60" s="67">
+      <c r="AN60" s="66">
         <v>719.464931</v>
       </c>
-      <c r="AO60" s="67">
+      <c r="AO60" s="66">
         <v>719.464931</v>
       </c>
-      <c r="AP60" s="67">
+      <c r="AP60" s="66">
         <v>1438.929862</v>
       </c>
-      <c r="AQ60" s="67">
+      <c r="AQ60" s="66">
         <v>29.997367</v>
       </c>
-      <c r="AR60" s="79">
+      <c r="AR60" s="78">
         <v>59.994733</v>
       </c>
     </row>
@@ -28448,22 +28445,22 @@
       <c r="J61" s="44">
         <v>19.434765</v>
       </c>
-      <c r="K61" s="68">
+      <c r="K61" s="67">
         <v>795.833984</v>
       </c>
-      <c r="L61" s="68">
+      <c r="L61" s="67">
         <v>423</v>
       </c>
-      <c r="M61" s="68">
+      <c r="M61" s="67">
         <v>423</v>
       </c>
       <c r="N61" s="44">
         <v>846</v>
       </c>
-      <c r="O61" s="67">
+      <c r="O61" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P61" s="67">
+      <c r="P61" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q61" s="43">
@@ -28488,28 +28485,28 @@
       <c r="X61" s="44">
         <v>35.974991</v>
       </c>
-      <c r="Y61" s="68">
+      <c r="Y61" s="67">
         <v>795.833984</v>
       </c>
-      <c r="Z61" s="68">
+      <c r="Z61" s="67">
         <v>783</v>
       </c>
-      <c r="AA61" s="68">
+      <c r="AA61" s="67">
         <v>783</v>
       </c>
       <c r="AB61" s="44">
         <v>1566</v>
       </c>
-      <c r="AC61" s="67">
+      <c r="AC61" s="66">
         <v>32.646397</v>
       </c>
-      <c r="AD61" s="67">
+      <c r="AD61" s="66">
         <v>65.292795</v>
       </c>
       <c r="AE61" s="43">
         <v>347.508002</v>
       </c>
-      <c r="AF61" s="67">
+      <c r="AF61" s="66">
         <v>458.646572</v>
       </c>
       <c r="AG61" s="44">
@@ -28519,31 +28516,31 @@
         <v>165.402257</v>
       </c>
       <c r="AI61" s="44"/>
-      <c r="AJ61" s="67">
+      <c r="AJ61" s="66">
         <v>45</v>
       </c>
-      <c r="AK61" s="67">
+      <c r="AK61" s="66">
         <v>45</v>
       </c>
-      <c r="AL61" s="67">
+      <c r="AL61" s="66">
         <v>36.564649</v>
       </c>
-      <c r="AM61" s="67">
+      <c r="AM61" s="66">
         <v>795.833984</v>
       </c>
-      <c r="AN61" s="67">
+      <c r="AN61" s="66">
         <v>795.833984</v>
       </c>
-      <c r="AO61" s="67">
+      <c r="AO61" s="66">
         <v>795.833984</v>
       </c>
-      <c r="AP61" s="67">
+      <c r="AP61" s="66">
         <v>1591.667969</v>
       </c>
-      <c r="AQ61" s="67">
+      <c r="AQ61" s="66">
         <v>33.181497</v>
       </c>
-      <c r="AR61" s="79">
+      <c r="AR61" s="78">
         <v>66.362995</v>
       </c>
     </row>
@@ -28574,13 +28571,13 @@
       <c r="J62" s="49">
         <v>19.434765</v>
       </c>
-      <c r="K62" s="69">
+      <c r="K62" s="68">
         <v>869.517363</v>
       </c>
-      <c r="L62" s="69">
+      <c r="L62" s="68">
         <v>423</v>
       </c>
-      <c r="M62" s="69">
+      <c r="M62" s="68">
         <v>423</v>
       </c>
       <c r="N62" s="49">
@@ -28614,13 +28611,13 @@
       <c r="X62" s="49">
         <v>35.974991</v>
       </c>
-      <c r="Y62" s="69">
+      <c r="Y62" s="68">
         <v>869.517363</v>
       </c>
-      <c r="Z62" s="69">
+      <c r="Z62" s="68">
         <v>783</v>
       </c>
-      <c r="AA62" s="69">
+      <c r="AA62" s="68">
         <v>783</v>
       </c>
       <c r="AB62" s="49">
@@ -28669,7 +28666,7 @@
       <c r="AQ62" s="49">
         <v>36.253652</v>
       </c>
-      <c r="AR62" s="80">
+      <c r="AR62" s="79">
         <v>72.507304</v>
       </c>
     </row>
@@ -28859,7 +28856,7 @@
       <c r="AO66" s="53"/>
       <c r="AP66" s="53"/>
       <c r="AQ66" s="53"/>
-      <c r="AR66" s="76"/>
+      <c r="AR66" s="75"/>
     </row>
     <row r="67" ht="27" customHeight="1" spans="1:44">
       <c r="A67" s="23"/>
@@ -28895,7 +28892,7 @@
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
       <c r="AC67" s="53"/>
-      <c r="AD67" s="76"/>
+      <c r="AD67" s="75"/>
       <c r="AE67" s="52" t="s">
         <v>25</v>
       </c>
@@ -28911,7 +28908,7 @@
       <c r="AO67" s="53"/>
       <c r="AP67" s="53"/>
       <c r="AQ67" s="53"/>
-      <c r="AR67" s="76"/>
+      <c r="AR67" s="75"/>
     </row>
     <row r="68" ht="60" customHeight="1" spans="1:44">
       <c r="A68" s="25"/>
@@ -28957,49 +28954,49 @@
       <c r="O68" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="P68" s="70" t="s">
+      <c r="P68" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="Q68" s="72" t="s">
+      <c r="Q68" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="R68" s="73" t="s">
+      <c r="R68" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="S68" s="73" t="s">
+      <c r="S68" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="T68" s="73" t="s">
+      <c r="T68" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="U68" s="73" t="s">
+      <c r="U68" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="V68" s="73" t="s">
+      <c r="V68" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="W68" s="73" t="s">
+      <c r="W68" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="X68" s="73" t="s">
+      <c r="X68" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="Y68" s="73" t="s">
+      <c r="Y68" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Z68" s="73" t="s">
+      <c r="Z68" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AA68" s="73" t="s">
+      <c r="AA68" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="AB68" s="73" t="s">
+      <c r="AB68" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="AC68" s="73" t="s">
+      <c r="AC68" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="AD68" s="77" t="s">
+      <c r="AD68" s="76" t="s">
         <v>40</v>
       </c>
       <c r="AE68" s="56" t="s">
@@ -29041,7 +29038,7 @@
       <c r="AQ68" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="AR68" s="81" t="s">
+      <c r="AR68" s="80" t="s">
         <v>40</v>
       </c>
     </row>
@@ -30309,7 +30306,7 @@
       <c r="AQ78" s="38">
         <v>22.505804</v>
       </c>
-      <c r="AR78" s="66">
+      <c r="AR78" s="65">
         <v>45.011608</v>
       </c>
     </row>
@@ -30363,7 +30360,7 @@
       <c r="AO79" s="53"/>
       <c r="AP79" s="53"/>
       <c r="AQ79" s="53"/>
-      <c r="AR79" s="76"/>
+      <c r="AR79" s="75"/>
     </row>
     <row r="80" spans="1:44">
       <c r="A80" s="41" t="s">
@@ -30408,10 +30405,10 @@
       <c r="N80" s="44">
         <v>119.813137</v>
       </c>
-      <c r="O80" s="67">
+      <c r="O80" s="66">
         <v>2.497744</v>
       </c>
-      <c r="P80" s="67">
+      <c r="P80" s="66">
         <v>4.995488</v>
       </c>
       <c r="Q80" s="43">
@@ -30450,16 +30447,16 @@
       <c r="AB80" s="44">
         <v>119.813137</v>
       </c>
-      <c r="AC80" s="67">
+      <c r="AC80" s="66">
         <v>2.497744</v>
       </c>
-      <c r="AD80" s="67">
+      <c r="AD80" s="66">
         <v>4.995488</v>
       </c>
       <c r="AE80" s="43">
         <v>103.642737</v>
       </c>
-      <c r="AF80" s="67">
+      <c r="AF80" s="66">
         <v>152.151576</v>
       </c>
       <c r="AG80" s="44">
@@ -30471,31 +30468,31 @@
       <c r="AI80" s="44">
         <v>91.759145</v>
       </c>
-      <c r="AJ80" s="67">
+      <c r="AJ80" s="66">
         <v>5</v>
       </c>
-      <c r="AK80" s="67">
+      <c r="AK80" s="66">
         <v>5</v>
       </c>
-      <c r="AL80" s="67">
+      <c r="AL80" s="66">
         <v>4.809252</v>
       </c>
-      <c r="AM80" s="67">
+      <c r="AM80" s="66">
         <v>59.906568</v>
       </c>
-      <c r="AN80" s="67">
+      <c r="AN80" s="66">
         <v>59.906568</v>
       </c>
-      <c r="AO80" s="67">
+      <c r="AO80" s="66">
         <v>59.906568</v>
       </c>
-      <c r="AP80" s="67">
+      <c r="AP80" s="66">
         <v>119.813137</v>
       </c>
-      <c r="AQ80" s="67">
+      <c r="AQ80" s="66">
         <v>2.497744</v>
       </c>
-      <c r="AR80" s="79">
+      <c r="AR80" s="78">
         <v>4.995488</v>
       </c>
     </row>
@@ -30538,10 +30535,10 @@
       <c r="N81" s="44">
         <v>237.266405</v>
       </c>
-      <c r="O81" s="67">
+      <c r="O81" s="66">
         <v>4.946292</v>
       </c>
-      <c r="P81" s="67">
+      <c r="P81" s="66">
         <v>9.892584</v>
       </c>
       <c r="Q81" s="43">
@@ -30578,16 +30575,16 @@
       <c r="AB81" s="44">
         <v>237.266405</v>
       </c>
-      <c r="AC81" s="67">
+      <c r="AC81" s="66">
         <v>4.946292</v>
       </c>
-      <c r="AD81" s="67">
+      <c r="AD81" s="66">
         <v>9.892584</v>
       </c>
       <c r="AE81" s="43">
         <v>134.125895</v>
       </c>
-      <c r="AF81" s="67">
+      <c r="AF81" s="66">
         <v>191.052763</v>
       </c>
       <c r="AG81" s="44">
@@ -30597,31 +30594,31 @@
         <v>289.005181</v>
       </c>
       <c r="AI81" s="44"/>
-      <c r="AJ81" s="67">
+      <c r="AJ81" s="66">
         <v>10</v>
       </c>
-      <c r="AK81" s="67">
+      <c r="AK81" s="66">
         <v>10</v>
       </c>
-      <c r="AL81" s="67">
+      <c r="AL81" s="66">
         <v>9.523781</v>
       </c>
-      <c r="AM81" s="67">
+      <c r="AM81" s="66">
         <v>118.633202</v>
       </c>
-      <c r="AN81" s="67">
+      <c r="AN81" s="66">
         <v>118.633202</v>
       </c>
-      <c r="AO81" s="67">
+      <c r="AO81" s="66">
         <v>118.633202</v>
       </c>
-      <c r="AP81" s="67">
+      <c r="AP81" s="66">
         <v>237.266405</v>
       </c>
-      <c r="AQ81" s="67">
+      <c r="AQ81" s="66">
         <v>4.946292</v>
       </c>
-      <c r="AR81" s="79">
+      <c r="AR81" s="78">
         <v>9.892584</v>
       </c>
     </row>
@@ -30664,10 +30661,10 @@
       <c r="N82" s="44">
         <v>352.454947</v>
       </c>
-      <c r="O82" s="67">
+      <c r="O82" s="66">
         <v>7.347627</v>
       </c>
-      <c r="P82" s="67">
+      <c r="P82" s="66">
         <v>14.695254</v>
       </c>
       <c r="Q82" s="43">
@@ -30704,16 +30701,16 @@
       <c r="AB82" s="44">
         <v>352.454947</v>
       </c>
-      <c r="AC82" s="67">
+      <c r="AC82" s="66">
         <v>7.347627</v>
       </c>
-      <c r="AD82" s="67">
+      <c r="AD82" s="66">
         <v>14.695254</v>
       </c>
       <c r="AE82" s="43">
         <v>164.609053</v>
       </c>
-      <c r="AF82" s="67">
+      <c r="AF82" s="66">
         <v>229.359314</v>
       </c>
       <c r="AG82" s="44">
@@ -30723,31 +30720,31 @@
         <v>289.005181</v>
       </c>
       <c r="AI82" s="44"/>
-      <c r="AJ82" s="67">
+      <c r="AJ82" s="66">
         <v>15</v>
       </c>
-      <c r="AK82" s="67">
+      <c r="AK82" s="66">
         <v>15</v>
       </c>
-      <c r="AL82" s="67">
+      <c r="AL82" s="66">
         <v>14.147404</v>
       </c>
-      <c r="AM82" s="67">
+      <c r="AM82" s="66">
         <v>176.227474</v>
       </c>
-      <c r="AN82" s="67">
+      <c r="AN82" s="66">
         <v>176.227474</v>
       </c>
-      <c r="AO82" s="67">
+      <c r="AO82" s="66">
         <v>176.227474</v>
       </c>
-      <c r="AP82" s="67">
+      <c r="AP82" s="66">
         <v>352.454947</v>
       </c>
-      <c r="AQ82" s="67">
+      <c r="AQ82" s="66">
         <v>7.347627</v>
       </c>
-      <c r="AR82" s="79">
+      <c r="AR82" s="78">
         <v>14.695254</v>
       </c>
     </row>
@@ -30790,10 +30787,10 @@
       <c r="N83" s="44">
         <v>465.401215</v>
       </c>
-      <c r="O83" s="67">
+      <c r="O83" s="66">
         <v>9.702218</v>
       </c>
-      <c r="P83" s="67">
+      <c r="P83" s="66">
         <v>19.404436</v>
       </c>
       <c r="Q83" s="43">
@@ -30830,16 +30827,16 @@
       <c r="AB83" s="44">
         <v>465.401215</v>
       </c>
-      <c r="AC83" s="67">
+      <c r="AC83" s="66">
         <v>9.702218</v>
       </c>
-      <c r="AD83" s="67">
+      <c r="AD83" s="66">
         <v>19.404436</v>
       </c>
       <c r="AE83" s="43">
         <v>195.092212</v>
       </c>
-      <c r="AF83" s="67">
+      <c r="AF83" s="66">
         <v>267.662292</v>
       </c>
       <c r="AG83" s="44">
@@ -30849,31 +30846,31 @@
         <v>289.005181</v>
       </c>
       <c r="AI83" s="44"/>
-      <c r="AJ83" s="67">
+      <c r="AJ83" s="66">
         <v>20</v>
       </c>
-      <c r="AK83" s="67">
+      <c r="AK83" s="66">
         <v>20</v>
       </c>
-      <c r="AL83" s="67">
+      <c r="AL83" s="66">
         <v>18.681023</v>
       </c>
-      <c r="AM83" s="67">
+      <c r="AM83" s="66">
         <v>232.700608</v>
       </c>
-      <c r="AN83" s="67">
+      <c r="AN83" s="66">
         <v>232.700608</v>
       </c>
-      <c r="AO83" s="67">
+      <c r="AO83" s="66">
         <v>232.700608</v>
       </c>
-      <c r="AP83" s="67">
+      <c r="AP83" s="66">
         <v>465.401215</v>
       </c>
-      <c r="AQ83" s="67">
+      <c r="AQ83" s="66">
         <v>9.702218</v>
       </c>
-      <c r="AR83" s="79">
+      <c r="AR83" s="78">
         <v>19.404436</v>
       </c>
     </row>
@@ -30916,10 +30913,10 @@
       <c r="N84" s="44">
         <v>576.14468</v>
       </c>
-      <c r="O84" s="67">
+      <c r="O84" s="66">
         <v>12.010886</v>
       </c>
-      <c r="P84" s="67">
+      <c r="P84" s="66">
         <v>24.021773</v>
       </c>
       <c r="Q84" s="43">
@@ -30956,16 +30953,16 @@
       <c r="AB84" s="44">
         <v>576.14468</v>
       </c>
-      <c r="AC84" s="67">
+      <c r="AC84" s="66">
         <v>12.010886</v>
       </c>
-      <c r="AD84" s="67">
+      <c r="AD84" s="66">
         <v>24.021773</v>
       </c>
       <c r="AE84" s="43">
         <v>225.57537</v>
       </c>
-      <c r="AF84" s="67">
+      <c r="AF84" s="66">
         <v>305.964785</v>
       </c>
       <c r="AG84" s="44">
@@ -30975,31 +30972,31 @@
         <v>289.005181</v>
       </c>
       <c r="AI84" s="44"/>
-      <c r="AJ84" s="67">
+      <c r="AJ84" s="66">
         <v>25</v>
       </c>
-      <c r="AK84" s="67">
+      <c r="AK84" s="66">
         <v>25</v>
       </c>
-      <c r="AL84" s="67">
+      <c r="AL84" s="66">
         <v>23.126222</v>
       </c>
-      <c r="AM84" s="67">
+      <c r="AM84" s="66">
         <v>288.07234</v>
       </c>
-      <c r="AN84" s="67">
+      <c r="AN84" s="66">
         <v>288.07234</v>
       </c>
-      <c r="AO84" s="67">
+      <c r="AO84" s="66">
         <v>288.07234</v>
       </c>
-      <c r="AP84" s="67">
+      <c r="AP84" s="66">
         <v>576.14468</v>
       </c>
-      <c r="AQ84" s="67">
+      <c r="AQ84" s="66">
         <v>12.010886</v>
       </c>
-      <c r="AR84" s="79">
+      <c r="AR84" s="78">
         <v>24.021773</v>
       </c>
     </row>
@@ -31042,10 +31039,10 @@
       <c r="N85" s="44">
         <v>684.72444</v>
       </c>
-      <c r="O85" s="67">
+      <c r="O85" s="66">
         <v>14.274448</v>
       </c>
-      <c r="P85" s="67">
+      <c r="P85" s="66">
         <v>28.548897</v>
       </c>
       <c r="Q85" s="43">
@@ -31082,16 +31079,16 @@
       <c r="AB85" s="44">
         <v>684.72444</v>
       </c>
-      <c r="AC85" s="67">
+      <c r="AC85" s="66">
         <v>14.274448</v>
       </c>
-      <c r="AD85" s="67">
+      <c r="AD85" s="66">
         <v>28.548897</v>
       </c>
       <c r="AE85" s="43">
         <v>256.058528</v>
       </c>
-      <c r="AF85" s="67">
+      <c r="AF85" s="66">
         <v>344.266815</v>
       </c>
       <c r="AG85" s="44">
@@ -31101,31 +31098,31 @@
         <v>289.005181</v>
       </c>
       <c r="AI85" s="44"/>
-      <c r="AJ85" s="67">
+      <c r="AJ85" s="66">
         <v>30</v>
       </c>
-      <c r="AK85" s="67">
+      <c r="AK85" s="66">
         <v>30</v>
       </c>
-      <c r="AL85" s="67">
+      <c r="AL85" s="66">
         <v>27.484571</v>
       </c>
-      <c r="AM85" s="67">
+      <c r="AM85" s="66">
         <v>342.36222</v>
       </c>
-      <c r="AN85" s="67">
+      <c r="AN85" s="66">
         <v>342.36222</v>
       </c>
-      <c r="AO85" s="67">
+      <c r="AO85" s="66">
         <v>342.36222</v>
       </c>
-      <c r="AP85" s="67">
+      <c r="AP85" s="66">
         <v>684.72444</v>
       </c>
-      <c r="AQ85" s="67">
+      <c r="AQ85" s="66">
         <v>14.274448</v>
       </c>
-      <c r="AR85" s="79">
+      <c r="AR85" s="78">
         <v>28.548897</v>
       </c>
     </row>
@@ -31168,10 +31165,10 @@
       <c r="N86" s="44">
         <v>791.179043</v>
       </c>
-      <c r="O86" s="67">
+      <c r="O86" s="66">
         <v>16.493707</v>
       </c>
-      <c r="P86" s="67">
+      <c r="P86" s="66">
         <v>32.987414</v>
       </c>
       <c r="Q86" s="43">
@@ -31208,16 +31205,16 @@
       <c r="AB86" s="44">
         <v>791.179043</v>
       </c>
-      <c r="AC86" s="67">
+      <c r="AC86" s="66">
         <v>16.493707</v>
       </c>
-      <c r="AD86" s="67">
+      <c r="AD86" s="66">
         <v>32.987414</v>
       </c>
       <c r="AE86" s="43">
         <v>286.541686</v>
       </c>
-      <c r="AF86" s="67">
+      <c r="AF86" s="66">
         <v>382.568388</v>
       </c>
       <c r="AG86" s="44">
@@ -31227,31 +31224,31 @@
         <v>289.005181</v>
       </c>
       <c r="AI86" s="44"/>
-      <c r="AJ86" s="67">
+      <c r="AJ86" s="66">
         <v>35</v>
       </c>
-      <c r="AK86" s="67">
+      <c r="AK86" s="66">
         <v>35</v>
       </c>
-      <c r="AL86" s="67">
+      <c r="AL86" s="66">
         <v>31.757617</v>
       </c>
-      <c r="AM86" s="67">
+      <c r="AM86" s="66">
         <v>395.589521</v>
       </c>
-      <c r="AN86" s="67">
+      <c r="AN86" s="66">
         <v>395.589521</v>
       </c>
-      <c r="AO86" s="67">
+      <c r="AO86" s="66">
         <v>395.589521</v>
       </c>
-      <c r="AP86" s="67">
+      <c r="AP86" s="66">
         <v>791.179043</v>
       </c>
-      <c r="AQ86" s="67">
+      <c r="AQ86" s="66">
         <v>16.493707</v>
       </c>
-      <c r="AR86" s="79">
+      <c r="AR86" s="78">
         <v>32.987414</v>
       </c>
     </row>
@@ -31282,22 +31279,22 @@
       <c r="J87" s="44">
         <v>33.958109</v>
       </c>
-      <c r="K87" s="68">
+      <c r="K87" s="67">
         <v>447.773238</v>
       </c>
-      <c r="L87" s="68">
+      <c r="L87" s="67">
         <v>423</v>
       </c>
-      <c r="M87" s="68">
+      <c r="M87" s="67">
         <v>423</v>
       </c>
       <c r="N87" s="44">
         <v>846</v>
       </c>
-      <c r="O87" s="67">
+      <c r="O87" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P87" s="67">
+      <c r="P87" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q87" s="43">
@@ -31334,16 +31331,16 @@
       <c r="AB87" s="44">
         <v>895.546476</v>
       </c>
-      <c r="AC87" s="67">
+      <c r="AC87" s="66">
         <v>18.669455</v>
       </c>
-      <c r="AD87" s="67">
+      <c r="AD87" s="66">
         <v>37.338909</v>
       </c>
       <c r="AE87" s="43">
         <v>317.024844</v>
       </c>
-      <c r="AF87" s="67">
+      <c r="AF87" s="66">
         <v>420.86951</v>
       </c>
       <c r="AG87" s="44">
@@ -31353,31 +31350,31 @@
         <v>289.005181</v>
       </c>
       <c r="AI87" s="44"/>
-      <c r="AJ87" s="67">
+      <c r="AJ87" s="66">
         <v>40</v>
       </c>
-      <c r="AK87" s="67">
+      <c r="AK87" s="66">
         <v>40</v>
       </c>
-      <c r="AL87" s="67">
+      <c r="AL87" s="66">
         <v>35.946885</v>
       </c>
-      <c r="AM87" s="67">
+      <c r="AM87" s="66">
         <v>447.773238</v>
       </c>
-      <c r="AN87" s="67">
+      <c r="AN87" s="66">
         <v>447.773238</v>
       </c>
-      <c r="AO87" s="67">
+      <c r="AO87" s="66">
         <v>447.773238</v>
       </c>
-      <c r="AP87" s="67">
+      <c r="AP87" s="66">
         <v>895.546476</v>
       </c>
-      <c r="AQ87" s="67">
+      <c r="AQ87" s="66">
         <v>18.669455</v>
       </c>
-      <c r="AR87" s="79">
+      <c r="AR87" s="78">
         <v>37.338909</v>
       </c>
     </row>
@@ -31408,22 +31405,22 @@
       <c r="J88" s="44">
         <v>33.958109</v>
       </c>
-      <c r="K88" s="68">
+      <c r="K88" s="67">
         <v>498.932085</v>
       </c>
-      <c r="L88" s="68">
+      <c r="L88" s="67">
         <v>423</v>
       </c>
-      <c r="M88" s="68">
+      <c r="M88" s="67">
         <v>423</v>
       </c>
       <c r="N88" s="44">
         <v>846</v>
       </c>
-      <c r="O88" s="67">
+      <c r="O88" s="66">
         <v>17.63656</v>
       </c>
-      <c r="P88" s="67">
+      <c r="P88" s="66">
         <v>35.273119</v>
       </c>
       <c r="Q88" s="43">
@@ -31460,16 +31457,16 @@
       <c r="AB88" s="44">
         <v>997.86417</v>
       </c>
-      <c r="AC88" s="67">
+      <c r="AC88" s="66">
         <v>20.802471</v>
       </c>
-      <c r="AD88" s="67">
+      <c r="AD88" s="66">
         <v>41.604943</v>
       </c>
       <c r="AE88" s="43">
         <v>347.508002</v>
       </c>
-      <c r="AF88" s="67">
+      <c r="AF88" s="66">
         <v>459.170187</v>
       </c>
       <c r="AG88" s="44">
@@ -31479,31 +31476,31 @@
         <v>289.005181</v>
       </c>
       <c r="AI88" s="44"/>
-      <c r="AJ88" s="67">
+      <c r="AJ88" s="66">
         <v>45</v>
       </c>
-      <c r="AK88" s="67">
+      <c r="AK88" s="66">
         <v>45</v>
       </c>
-      <c r="AL88" s="67">
+      <c r="AL88" s="66">
         <v>40.053877</v>
       </c>
-      <c r="AM88" s="67">
+      <c r="AM88" s="66">
         <v>498.932085</v>
       </c>
-      <c r="AN88" s="67">
+      <c r="AN88" s="66">
         <v>498.932085</v>
       </c>
-      <c r="AO88" s="67">
+      <c r="AO88" s="66">
         <v>498.932085</v>
       </c>
-      <c r="AP88" s="67">
+      <c r="AP88" s="66">
         <v>997.86417</v>
       </c>
-      <c r="AQ88" s="67">
+      <c r="AQ88" s="66">
         <v>20.802471</v>
       </c>
-      <c r="AR88" s="79">
+      <c r="AR88" s="78">
         <v>41.604943</v>
       </c>
     </row>
@@ -31534,13 +31531,13 @@
       <c r="J89" s="49">
         <v>33.958109</v>
       </c>
-      <c r="K89" s="69">
+      <c r="K89" s="68">
         <v>549.0845</v>
       </c>
-      <c r="L89" s="69">
+      <c r="L89" s="68">
         <v>423</v>
       </c>
-      <c r="M89" s="69">
+      <c r="M89" s="68">
         <v>423</v>
       </c>
       <c r="N89" s="49">
@@ -31629,7 +31626,7 @@
       <c r="AQ89" s="49">
         <v>22.893526</v>
       </c>
-      <c r="AR89" s="80">
+      <c r="AR89" s="79">
         <v>45.787052</v>
       </c>
     </row>
